--- a/BackTest/2020-01-16 BackTest WTC.xlsx
+++ b/BackTest/2020-01-16 BackTest WTC.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>CMO</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -1441,11 +1441,17 @@
         <v>-69379.69565859994</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
-      </c>
-      <c r="I32" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I32" t="n">
+        <v>394.5</v>
+      </c>
       <c r="J32" t="inlineStr"/>
-      <c r="K32" t="inlineStr"/>
+      <c r="K32" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L32" t="n">
         <v>1</v>
       </c>
@@ -1474,11 +1480,17 @@
         <v>-72595.38955859994</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
-      </c>
-      <c r="I33" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I33" t="n">
+        <v>394.2</v>
+      </c>
       <c r="J33" t="inlineStr"/>
-      <c r="K33" t="inlineStr"/>
+      <c r="K33" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L33" t="n">
         <v>1</v>
       </c>
@@ -1507,11 +1519,17 @@
         <v>-72799.78405859994</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
-      </c>
-      <c r="I34" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I34" t="n">
+        <v>393.1</v>
+      </c>
       <c r="J34" t="inlineStr"/>
-      <c r="K34" t="inlineStr"/>
+      <c r="K34" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L34" t="n">
         <v>1</v>
       </c>
@@ -1540,11 +1558,17 @@
         <v>-68346.70795859993</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
-      </c>
-      <c r="I35" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I35" t="n">
+        <v>391.4</v>
+      </c>
       <c r="J35" t="inlineStr"/>
-      <c r="K35" t="inlineStr"/>
+      <c r="K35" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L35" t="n">
         <v>1</v>
       </c>
@@ -1573,11 +1597,17 @@
         <v>-68569.02315859993</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
-      </c>
-      <c r="I36" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I36" t="n">
+        <v>392.5</v>
+      </c>
       <c r="J36" t="inlineStr"/>
-      <c r="K36" t="inlineStr"/>
+      <c r="K36" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L36" t="n">
         <v>1</v>
       </c>
@@ -1606,11 +1636,17 @@
         <v>-68569.02315859993</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
-      </c>
-      <c r="I37" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I37" t="n">
+        <v>392.4</v>
+      </c>
       <c r="J37" t="inlineStr"/>
-      <c r="K37" t="inlineStr"/>
+      <c r="K37" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L37" t="n">
         <v>1</v>
       </c>
@@ -1639,11 +1675,17 @@
         <v>-68558.31685859992</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
-      </c>
-      <c r="I38" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I38" t="n">
+        <v>392.4</v>
+      </c>
       <c r="J38" t="inlineStr"/>
-      <c r="K38" t="inlineStr"/>
+      <c r="K38" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L38" t="n">
         <v>1</v>
       </c>
@@ -1672,11 +1714,17 @@
         <v>-68799.08175859992</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
-      </c>
-      <c r="I39" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I39" t="n">
+        <v>406.6</v>
+      </c>
       <c r="J39" t="inlineStr"/>
-      <c r="K39" t="inlineStr"/>
+      <c r="K39" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L39" t="n">
         <v>1</v>
       </c>
@@ -1705,11 +1753,17 @@
         <v>-68833.08175859992</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
-      </c>
-      <c r="I40" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I40" t="n">
+        <v>405.7</v>
+      </c>
       <c r="J40" t="inlineStr"/>
-      <c r="K40" t="inlineStr"/>
+      <c r="K40" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L40" t="n">
         <v>1</v>
       </c>
@@ -1738,11 +1792,17 @@
         <v>-68831.78175859991</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
-      </c>
-      <c r="I41" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I41" t="n">
+        <v>396.5</v>
+      </c>
       <c r="J41" t="inlineStr"/>
-      <c r="K41" t="inlineStr"/>
+      <c r="K41" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L41" t="n">
         <v>1</v>
       </c>
@@ -1771,11 +1831,17 @@
         <v>-68831.78175859991</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
-      </c>
-      <c r="I42" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I42" t="n">
+        <v>397</v>
+      </c>
       <c r="J42" t="inlineStr"/>
-      <c r="K42" t="inlineStr"/>
+      <c r="K42" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L42" t="n">
         <v>1</v>
       </c>
@@ -1804,15 +1870,17 @@
         <v>-67115.45445859991</v>
       </c>
       <c r="H43" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I43" t="n">
         <v>397</v>
       </c>
-      <c r="J43" t="n">
-        <v>397</v>
-      </c>
-      <c r="K43" t="inlineStr"/>
+      <c r="J43" t="inlineStr"/>
+      <c r="K43" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L43" t="n">
         <v>1</v>
       </c>
@@ -1841,17 +1909,15 @@
         <v>-67363.8544585999</v>
       </c>
       <c r="H44" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I44" t="n">
         <v>406.4</v>
       </c>
-      <c r="J44" t="n">
-        <v>397</v>
-      </c>
+      <c r="J44" t="inlineStr"/>
       <c r="K44" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L44" t="n">
@@ -1882,17 +1948,15 @@
         <v>-67455.38335859991</v>
       </c>
       <c r="H45" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I45" t="n">
         <v>404</v>
       </c>
-      <c r="J45" t="n">
-        <v>397</v>
-      </c>
+      <c r="J45" t="inlineStr"/>
       <c r="K45" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L45" t="n">
@@ -1923,15 +1987,17 @@
         <v>-67455.38335859991</v>
       </c>
       <c r="H46" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I46" t="n">
         <v>403.3</v>
       </c>
-      <c r="J46" t="n">
-        <v>403.3</v>
-      </c>
-      <c r="K46" t="inlineStr"/>
+      <c r="J46" t="inlineStr"/>
+      <c r="K46" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L46" t="n">
         <v>1</v>
       </c>
@@ -1960,17 +2026,15 @@
         <v>-67556.70325859991</v>
       </c>
       <c r="H47" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I47" t="n">
         <v>403.3</v>
       </c>
-      <c r="J47" t="n">
-        <v>403.3</v>
-      </c>
+      <c r="J47" t="inlineStr"/>
       <c r="K47" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L47" t="n">
@@ -2001,17 +2065,15 @@
         <v>-66984.36645859991</v>
       </c>
       <c r="H48" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I48" t="n">
         <v>403.1</v>
       </c>
-      <c r="J48" t="n">
-        <v>403.3</v>
-      </c>
+      <c r="J48" t="inlineStr"/>
       <c r="K48" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L48" t="n">
@@ -2042,14 +2104,12 @@
         <v>-66984.36645859991</v>
       </c>
       <c r="H49" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I49" t="n">
         <v>403.2</v>
       </c>
-      <c r="J49" t="n">
-        <v>403.3</v>
-      </c>
+      <c r="J49" t="inlineStr"/>
       <c r="K49" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2083,14 +2143,12 @@
         <v>-67074.09385859991</v>
       </c>
       <c r="H50" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I50" t="n">
         <v>403.2</v>
       </c>
-      <c r="J50" t="n">
-        <v>403.3</v>
-      </c>
+      <c r="J50" t="inlineStr"/>
       <c r="K50" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2124,14 +2182,12 @@
         <v>-71653.97135859991</v>
       </c>
       <c r="H51" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I51" t="n">
         <v>403</v>
       </c>
-      <c r="J51" t="n">
-        <v>403.3</v>
-      </c>
+      <c r="J51" t="inlineStr"/>
       <c r="K51" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2165,14 +2221,12 @@
         <v>-68943.38865859991</v>
       </c>
       <c r="H52" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I52" t="n">
         <v>398</v>
       </c>
-      <c r="J52" t="n">
-        <v>403.3</v>
-      </c>
+      <c r="J52" t="inlineStr"/>
       <c r="K52" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2206,12 +2260,12 @@
         <v>-68941.38865859991</v>
       </c>
       <c r="H53" t="n">
-        <v>0</v>
-      </c>
-      <c r="I53" t="inlineStr"/>
-      <c r="J53" t="n">
-        <v>403.3</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I53" t="n">
+        <v>401.1</v>
+      </c>
+      <c r="J53" t="inlineStr"/>
       <c r="K53" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2245,14 +2299,12 @@
         <v>-68951.38865859991</v>
       </c>
       <c r="H54" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I54" t="n">
         <v>402.5</v>
       </c>
-      <c r="J54" t="n">
-        <v>403.3</v>
-      </c>
+      <c r="J54" t="inlineStr"/>
       <c r="K54" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2286,12 +2338,12 @@
         <v>-68951.38865859991</v>
       </c>
       <c r="H55" t="n">
-        <v>0</v>
-      </c>
-      <c r="I55" t="inlineStr"/>
-      <c r="J55" t="n">
-        <v>403.3</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I55" t="n">
+        <v>401</v>
+      </c>
+      <c r="J55" t="inlineStr"/>
       <c r="K55" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2325,14 +2377,12 @@
         <v>-69156.60995859992</v>
       </c>
       <c r="H56" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I56" t="n">
         <v>401</v>
       </c>
-      <c r="J56" t="n">
-        <v>403.3</v>
-      </c>
+      <c r="J56" t="inlineStr"/>
       <c r="K56" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2366,12 +2416,12 @@
         <v>-72351.50715859992</v>
       </c>
       <c r="H57" t="n">
-        <v>0</v>
-      </c>
-      <c r="I57" t="inlineStr"/>
-      <c r="J57" t="n">
-        <v>403.3</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I57" t="n">
+        <v>395.9</v>
+      </c>
+      <c r="J57" t="inlineStr"/>
       <c r="K57" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2405,12 +2455,12 @@
         <v>-72361.50715859992</v>
       </c>
       <c r="H58" t="n">
-        <v>0</v>
-      </c>
-      <c r="I58" t="inlineStr"/>
-      <c r="J58" t="n">
-        <v>403.3</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I58" t="n">
+        <v>395.5</v>
+      </c>
+      <c r="J58" t="inlineStr"/>
       <c r="K58" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2444,14 +2494,12 @@
         <v>-72361.50715859992</v>
       </c>
       <c r="H59" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I59" t="n">
         <v>395</v>
       </c>
-      <c r="J59" t="n">
-        <v>403.3</v>
-      </c>
+      <c r="J59" t="inlineStr"/>
       <c r="K59" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2485,14 +2533,12 @@
         <v>-70559.50715859992</v>
       </c>
       <c r="H60" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I60" t="n">
         <v>395</v>
       </c>
-      <c r="J60" t="n">
-        <v>403.3</v>
-      </c>
+      <c r="J60" t="inlineStr"/>
       <c r="K60" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2526,14 +2572,12 @@
         <v>-68830.01955859993</v>
       </c>
       <c r="H61" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I61" t="n">
         <v>397</v>
       </c>
-      <c r="J61" t="n">
-        <v>403.3</v>
-      </c>
+      <c r="J61" t="inlineStr"/>
       <c r="K61" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2567,14 +2611,12 @@
         <v>-68830.01955859993</v>
       </c>
       <c r="H62" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I62" t="n">
         <v>398</v>
       </c>
-      <c r="J62" t="n">
-        <v>403.3</v>
-      </c>
+      <c r="J62" t="inlineStr"/>
       <c r="K62" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2608,14 +2650,12 @@
         <v>-68915.21955859993</v>
       </c>
       <c r="H63" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I63" t="n">
         <v>398</v>
       </c>
-      <c r="J63" t="n">
-        <v>403.3</v>
-      </c>
+      <c r="J63" t="inlineStr"/>
       <c r="K63" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2649,14 +2689,12 @@
         <v>-68471.95955859993</v>
       </c>
       <c r="H64" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I64" t="n">
         <v>397.2</v>
       </c>
-      <c r="J64" t="n">
-        <v>403.3</v>
-      </c>
+      <c r="J64" t="inlineStr"/>
       <c r="K64" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2690,14 +2728,12 @@
         <v>-70937.96175859994</v>
       </c>
       <c r="H65" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I65" t="n">
         <v>398.1</v>
       </c>
-      <c r="J65" t="n">
-        <v>403.3</v>
-      </c>
+      <c r="J65" t="inlineStr"/>
       <c r="K65" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2731,14 +2767,12 @@
         <v>-71063.84595859994</v>
       </c>
       <c r="H66" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I66" t="n">
         <v>398</v>
       </c>
-      <c r="J66" t="n">
-        <v>403.3</v>
-      </c>
+      <c r="J66" t="inlineStr"/>
       <c r="K66" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2772,14 +2806,12 @@
         <v>-70978.74595859993</v>
       </c>
       <c r="H67" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I67" t="n">
         <v>397.2</v>
       </c>
-      <c r="J67" t="n">
-        <v>403.3</v>
-      </c>
+      <c r="J67" t="inlineStr"/>
       <c r="K67" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2813,14 +2845,12 @@
         <v>-73336.31735859993</v>
       </c>
       <c r="H68" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I68" t="n">
         <v>398</v>
       </c>
-      <c r="J68" t="n">
-        <v>403.3</v>
-      </c>
+      <c r="J68" t="inlineStr"/>
       <c r="K68" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2854,14 +2884,12 @@
         <v>-73240.42415859993</v>
       </c>
       <c r="H69" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I69" t="n">
         <v>397</v>
       </c>
-      <c r="J69" t="n">
-        <v>403.3</v>
-      </c>
+      <c r="J69" t="inlineStr"/>
       <c r="K69" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2895,14 +2923,12 @@
         <v>-73376.91865859993</v>
       </c>
       <c r="H70" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I70" t="n">
         <v>397.8</v>
       </c>
-      <c r="J70" t="n">
-        <v>403.3</v>
-      </c>
+      <c r="J70" t="inlineStr"/>
       <c r="K70" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2936,14 +2962,12 @@
         <v>-70252.56895859992</v>
       </c>
       <c r="H71" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I71" t="n">
         <v>394.3</v>
       </c>
-      <c r="J71" t="n">
-        <v>403.3</v>
-      </c>
+      <c r="J71" t="inlineStr"/>
       <c r="K71" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2977,14 +3001,12 @@
         <v>-70763.94775027703</v>
       </c>
       <c r="H72" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I72" t="n">
         <v>397.8</v>
       </c>
-      <c r="J72" t="n">
-        <v>403.3</v>
-      </c>
+      <c r="J72" t="inlineStr"/>
       <c r="K72" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3018,14 +3040,12 @@
         <v>-70735.94775027703</v>
       </c>
       <c r="H73" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I73" t="n">
         <v>396.2</v>
       </c>
-      <c r="J73" t="n">
-        <v>403.3</v>
-      </c>
+      <c r="J73" t="inlineStr"/>
       <c r="K73" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3059,12 +3079,12 @@
         <v>-70735.94775027703</v>
       </c>
       <c r="H74" t="n">
-        <v>0</v>
-      </c>
-      <c r="I74" t="inlineStr"/>
-      <c r="J74" t="n">
-        <v>403.3</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I74" t="n">
+        <v>398.9</v>
+      </c>
+      <c r="J74" t="inlineStr"/>
       <c r="K74" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3098,12 +3118,12 @@
         <v>-70794.59995027703</v>
       </c>
       <c r="H75" t="n">
-        <v>0</v>
-      </c>
-      <c r="I75" t="inlineStr"/>
-      <c r="J75" t="n">
-        <v>403.3</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I75" t="n">
+        <v>398.9</v>
+      </c>
+      <c r="J75" t="inlineStr"/>
       <c r="K75" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3137,14 +3157,12 @@
         <v>-70417.01885027703</v>
       </c>
       <c r="H76" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I76" t="n">
         <v>397.9</v>
       </c>
-      <c r="J76" t="n">
-        <v>403.3</v>
-      </c>
+      <c r="J76" t="inlineStr"/>
       <c r="K76" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3178,14 +3196,12 @@
         <v>-67239.27385027704</v>
       </c>
       <c r="H77" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I77" t="n">
         <v>398.8</v>
       </c>
-      <c r="J77" t="n">
-        <v>403.3</v>
-      </c>
+      <c r="J77" t="inlineStr"/>
       <c r="K77" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3219,14 +3235,12 @@
         <v>-68563.52005027703</v>
       </c>
       <c r="H78" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I78" t="n">
         <v>399</v>
       </c>
-      <c r="J78" t="n">
-        <v>403.3</v>
-      </c>
+      <c r="J78" t="inlineStr"/>
       <c r="K78" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3260,14 +3274,12 @@
         <v>-66754.80255027703</v>
       </c>
       <c r="H79" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I79" t="n">
         <v>397</v>
       </c>
-      <c r="J79" t="n">
-        <v>403.3</v>
-      </c>
+      <c r="J79" t="inlineStr"/>
       <c r="K79" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3301,14 +3313,12 @@
         <v>-66754.80255027703</v>
       </c>
       <c r="H80" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I80" t="n">
         <v>398.9</v>
       </c>
-      <c r="J80" t="n">
-        <v>403.3</v>
-      </c>
+      <c r="J80" t="inlineStr"/>
       <c r="K80" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3342,14 +3352,12 @@
         <v>-66756.80255027703</v>
       </c>
       <c r="H81" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I81" t="n">
         <v>398.9</v>
       </c>
-      <c r="J81" t="n">
-        <v>403.3</v>
-      </c>
+      <c r="J81" t="inlineStr"/>
       <c r="K81" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3383,14 +3391,12 @@
         <v>-67524.24555027703</v>
       </c>
       <c r="H82" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I82" t="n">
         <v>398</v>
       </c>
-      <c r="J82" t="n">
-        <v>403.3</v>
-      </c>
+      <c r="J82" t="inlineStr"/>
       <c r="K82" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3424,14 +3430,12 @@
         <v>-67534.23555027704</v>
       </c>
       <c r="H83" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I83" t="n">
         <v>397.9</v>
       </c>
-      <c r="J83" t="n">
-        <v>403.3</v>
-      </c>
+      <c r="J83" t="inlineStr"/>
       <c r="K83" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3465,14 +3469,12 @@
         <v>-67532.23555027704</v>
       </c>
       <c r="H84" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I84" t="n">
         <v>397.7</v>
       </c>
-      <c r="J84" t="n">
-        <v>403.3</v>
-      </c>
+      <c r="J84" t="inlineStr"/>
       <c r="K84" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3506,14 +3508,12 @@
         <v>-64060.71095027704</v>
       </c>
       <c r="H85" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I85" t="n">
         <v>398.8</v>
       </c>
-      <c r="J85" t="n">
-        <v>403.3</v>
-      </c>
+      <c r="J85" t="inlineStr"/>
       <c r="K85" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3547,14 +3547,12 @@
         <v>-56081.69255027704</v>
       </c>
       <c r="H86" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I86" t="n">
         <v>399</v>
       </c>
-      <c r="J86" t="n">
-        <v>403.3</v>
-      </c>
+      <c r="J86" t="inlineStr"/>
       <c r="K86" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3588,14 +3586,10 @@
         <v>-56081.69255027704</v>
       </c>
       <c r="H87" t="n">
-        <v>2</v>
-      </c>
-      <c r="I87" t="n">
-        <v>400</v>
-      </c>
-      <c r="J87" t="n">
-        <v>403.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I87" t="inlineStr"/>
+      <c r="J87" t="inlineStr"/>
       <c r="K87" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3629,14 +3623,12 @@
         <v>-55692.31344195415</v>
       </c>
       <c r="H88" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I88" t="n">
         <v>400</v>
       </c>
-      <c r="J88" t="n">
-        <v>403.3</v>
-      </c>
+      <c r="J88" t="inlineStr"/>
       <c r="K88" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3670,14 +3662,10 @@
         <v>-55680.64404195415</v>
       </c>
       <c r="H89" t="n">
-        <v>2</v>
-      </c>
-      <c r="I89" t="n">
-        <v>400.1</v>
-      </c>
-      <c r="J89" t="n">
-        <v>403.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I89" t="inlineStr"/>
+      <c r="J89" t="inlineStr"/>
       <c r="K89" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3711,14 +3699,12 @@
         <v>-55480.64404195415</v>
       </c>
       <c r="H90" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I90" t="n">
         <v>400.4</v>
       </c>
-      <c r="J90" t="n">
-        <v>403.3</v>
-      </c>
+      <c r="J90" t="inlineStr"/>
       <c r="K90" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3752,14 +3738,12 @@
         <v>-55476.64404195415</v>
       </c>
       <c r="H91" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I91" t="n">
         <v>403.4</v>
       </c>
-      <c r="J91" t="n">
-        <v>403.3</v>
-      </c>
+      <c r="J91" t="inlineStr"/>
       <c r="K91" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3793,14 +3777,12 @@
         <v>-49460.69434195416</v>
       </c>
       <c r="H92" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I92" t="n">
         <v>405.6</v>
       </c>
-      <c r="J92" t="n">
-        <v>403.3</v>
-      </c>
+      <c r="J92" t="inlineStr"/>
       <c r="K92" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3834,14 +3816,12 @@
         <v>-49248.92434195416</v>
       </c>
       <c r="H93" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I93" t="n">
         <v>405.7</v>
       </c>
-      <c r="J93" t="n">
-        <v>403.3</v>
-      </c>
+      <c r="J93" t="inlineStr"/>
       <c r="K93" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3875,14 +3855,12 @@
         <v>-49050.92434195416</v>
       </c>
       <c r="H94" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I94" t="n">
         <v>406</v>
       </c>
-      <c r="J94" t="n">
-        <v>403.3</v>
-      </c>
+      <c r="J94" t="inlineStr"/>
       <c r="K94" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3916,14 +3894,12 @@
         <v>-50026.06434195416</v>
       </c>
       <c r="H95" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I95" t="n">
         <v>409.7</v>
       </c>
-      <c r="J95" t="n">
-        <v>403.3</v>
-      </c>
+      <c r="J95" t="inlineStr"/>
       <c r="K95" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3957,14 +3933,12 @@
         <v>-51926.06434195416</v>
       </c>
       <c r="H96" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I96" t="n">
         <v>408.9</v>
       </c>
-      <c r="J96" t="n">
-        <v>403.3</v>
-      </c>
+      <c r="J96" t="inlineStr"/>
       <c r="K96" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3998,14 +3972,12 @@
         <v>-52027.36434195416</v>
       </c>
       <c r="H97" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I97" t="n">
         <v>400.8</v>
       </c>
-      <c r="J97" t="n">
-        <v>403.3</v>
-      </c>
+      <c r="J97" t="inlineStr"/>
       <c r="K97" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4039,14 +4011,12 @@
         <v>-52026.06434195416</v>
       </c>
       <c r="H98" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I98" t="n">
         <v>400.7</v>
       </c>
-      <c r="J98" t="n">
-        <v>403.3</v>
-      </c>
+      <c r="J98" t="inlineStr"/>
       <c r="K98" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4080,12 +4050,12 @@
         <v>-53856.89244195416</v>
       </c>
       <c r="H99" t="n">
-        <v>0</v>
-      </c>
-      <c r="I99" t="inlineStr"/>
-      <c r="J99" t="n">
-        <v>403.3</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I99" t="n">
+        <v>408.1</v>
+      </c>
+      <c r="J99" t="inlineStr"/>
       <c r="K99" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4119,12 +4089,12 @@
         <v>-57927.15694195416</v>
       </c>
       <c r="H100" t="n">
-        <v>0</v>
-      </c>
-      <c r="I100" t="inlineStr"/>
-      <c r="J100" t="n">
-        <v>403.3</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I100" t="n">
+        <v>400.9</v>
+      </c>
+      <c r="J100" t="inlineStr"/>
       <c r="K100" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4158,12 +4128,12 @@
         <v>-57929.15694195416</v>
       </c>
       <c r="H101" t="n">
-        <v>0</v>
-      </c>
-      <c r="I101" t="inlineStr"/>
-      <c r="J101" t="n">
-        <v>403.3</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I101" t="n">
+        <v>400.7</v>
+      </c>
+      <c r="J101" t="inlineStr"/>
       <c r="K101" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4197,12 +4167,12 @@
         <v>-57929.15694195416</v>
       </c>
       <c r="H102" t="n">
-        <v>0</v>
-      </c>
-      <c r="I102" t="inlineStr"/>
-      <c r="J102" t="n">
-        <v>403.3</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I102" t="n">
+        <v>400</v>
+      </c>
+      <c r="J102" t="inlineStr"/>
       <c r="K102" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4236,14 +4206,12 @@
         <v>-57795.35694195415</v>
       </c>
       <c r="H103" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I103" t="n">
         <v>400</v>
       </c>
-      <c r="J103" t="n">
-        <v>403.3</v>
-      </c>
+      <c r="J103" t="inlineStr"/>
       <c r="K103" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4277,14 +4245,12 @@
         <v>-57795.35694195415</v>
       </c>
       <c r="H104" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I104" t="n">
         <v>403.9</v>
       </c>
-      <c r="J104" t="n">
-        <v>403.3</v>
-      </c>
+      <c r="J104" t="inlineStr"/>
       <c r="K104" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4318,14 +4284,12 @@
         <v>-58820.61264195415</v>
       </c>
       <c r="H105" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I105" t="n">
         <v>403.9</v>
       </c>
-      <c r="J105" t="n">
-        <v>403.3</v>
-      </c>
+      <c r="J105" t="inlineStr"/>
       <c r="K105" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4359,14 +4323,12 @@
         <v>-63467.55574195416</v>
       </c>
       <c r="H106" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I106" t="n">
         <v>403.8</v>
       </c>
-      <c r="J106" t="n">
-        <v>403.3</v>
-      </c>
+      <c r="J106" t="inlineStr"/>
       <c r="K106" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4400,14 +4362,12 @@
         <v>-60392.86524195416</v>
       </c>
       <c r="H107" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I107" t="n">
         <v>400.3</v>
       </c>
-      <c r="J107" t="n">
-        <v>403.3</v>
-      </c>
+      <c r="J107" t="inlineStr"/>
       <c r="K107" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4441,14 +4401,12 @@
         <v>-68675.95934195416</v>
       </c>
       <c r="H108" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I108" t="n">
         <v>401.2</v>
       </c>
-      <c r="J108" t="n">
-        <v>403.3</v>
-      </c>
+      <c r="J108" t="inlineStr"/>
       <c r="K108" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4482,14 +4440,12 @@
         <v>-68675.95934195416</v>
       </c>
       <c r="H109" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I109" t="n">
         <v>395</v>
       </c>
-      <c r="J109" t="n">
-        <v>403.3</v>
-      </c>
+      <c r="J109" t="inlineStr"/>
       <c r="K109" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4523,14 +4479,12 @@
         <v>-68492.22064195416</v>
       </c>
       <c r="H110" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I110" t="n">
         <v>395</v>
       </c>
-      <c r="J110" t="n">
-        <v>403.3</v>
-      </c>
+      <c r="J110" t="inlineStr"/>
       <c r="K110" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4564,14 +4518,12 @@
         <v>-72856.53764195416</v>
       </c>
       <c r="H111" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I111" t="n">
         <v>397.9</v>
       </c>
-      <c r="J111" t="n">
-        <v>403.3</v>
-      </c>
+      <c r="J111" t="inlineStr"/>
       <c r="K111" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4605,14 +4557,12 @@
         <v>-72856.53764195416</v>
       </c>
       <c r="H112" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I112" t="n">
         <v>392.1</v>
       </c>
-      <c r="J112" t="n">
-        <v>403.3</v>
-      </c>
+      <c r="J112" t="inlineStr"/>
       <c r="K112" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4646,14 +4596,12 @@
         <v>-72715.83764195416</v>
       </c>
       <c r="H113" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I113" t="n">
         <v>392.1</v>
       </c>
-      <c r="J113" t="n">
-        <v>403.3</v>
-      </c>
+      <c r="J113" t="inlineStr"/>
       <c r="K113" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4687,14 +4635,12 @@
         <v>-72373.92594195416</v>
       </c>
       <c r="H114" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I114" t="n">
         <v>398</v>
       </c>
-      <c r="J114" t="n">
-        <v>403.3</v>
-      </c>
+      <c r="J114" t="inlineStr"/>
       <c r="K114" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4728,14 +4674,12 @@
         <v>-69945.65434195416</v>
       </c>
       <c r="H115" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I115" t="n">
         <v>399</v>
       </c>
-      <c r="J115" t="n">
-        <v>403.3</v>
-      </c>
+      <c r="J115" t="inlineStr"/>
       <c r="K115" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4769,14 +4713,12 @@
         <v>-70025.32584195415</v>
       </c>
       <c r="H116" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I116" t="n">
         <v>401.9</v>
       </c>
-      <c r="J116" t="n">
-        <v>403.3</v>
-      </c>
+      <c r="J116" t="inlineStr"/>
       <c r="K116" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4810,14 +4752,12 @@
         <v>-68896.49474195416</v>
       </c>
       <c r="H117" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I117" t="n">
         <v>399</v>
       </c>
-      <c r="J117" t="n">
-        <v>403.3</v>
-      </c>
+      <c r="J117" t="inlineStr"/>
       <c r="K117" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4851,14 +4791,12 @@
         <v>-55619.16994195415</v>
       </c>
       <c r="H118" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I118" t="n">
         <v>401.4</v>
       </c>
-      <c r="J118" t="n">
-        <v>403.3</v>
-      </c>
+      <c r="J118" t="inlineStr"/>
       <c r="K118" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4892,14 +4830,12 @@
         <v>-55619.16994195415</v>
       </c>
       <c r="H119" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I119" t="n">
         <v>406.1</v>
       </c>
-      <c r="J119" t="n">
-        <v>403.3</v>
-      </c>
+      <c r="J119" t="inlineStr"/>
       <c r="K119" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4933,14 +4869,12 @@
         <v>-55619.16994195415</v>
       </c>
       <c r="H120" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I120" t="n">
         <v>406.1</v>
       </c>
-      <c r="J120" t="n">
-        <v>403.3</v>
-      </c>
+      <c r="J120" t="inlineStr"/>
       <c r="K120" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4974,14 +4908,12 @@
         <v>-54710.08494195416</v>
       </c>
       <c r="H121" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I121" t="n">
         <v>406.1</v>
       </c>
-      <c r="J121" t="n">
-        <v>403.3</v>
-      </c>
+      <c r="J121" t="inlineStr"/>
       <c r="K121" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5015,14 +4947,12 @@
         <v>-55139.35264195415</v>
       </c>
       <c r="H122" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I122" t="n">
         <v>414</v>
       </c>
-      <c r="J122" t="n">
-        <v>403.3</v>
-      </c>
+      <c r="J122" t="inlineStr"/>
       <c r="K122" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5056,14 +4986,10 @@
         <v>-55709.35264195415</v>
       </c>
       <c r="H123" t="n">
-        <v>2</v>
-      </c>
-      <c r="I123" t="n">
-        <v>412.8</v>
-      </c>
-      <c r="J123" t="n">
-        <v>403.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I123" t="inlineStr"/>
+      <c r="J123" t="inlineStr"/>
       <c r="K123" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5097,14 +5023,12 @@
         <v>-54868.92844195415</v>
       </c>
       <c r="H124" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I124" t="n">
         <v>406.1</v>
       </c>
-      <c r="J124" t="n">
-        <v>403.3</v>
-      </c>
+      <c r="J124" t="inlineStr"/>
       <c r="K124" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5138,14 +5062,12 @@
         <v>-55138.01924195415</v>
       </c>
       <c r="H125" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I125" t="n">
         <v>407</v>
       </c>
-      <c r="J125" t="n">
-        <v>403.3</v>
-      </c>
+      <c r="J125" t="inlineStr"/>
       <c r="K125" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5179,14 +5101,12 @@
         <v>-56488.01924195415</v>
       </c>
       <c r="H126" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I126" t="n">
         <v>406.2</v>
       </c>
-      <c r="J126" t="n">
-        <v>403.3</v>
-      </c>
+      <c r="J126" t="inlineStr"/>
       <c r="K126" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5220,12 +5140,12 @@
         <v>-56455.41024195415</v>
       </c>
       <c r="H127" t="n">
-        <v>0</v>
-      </c>
-      <c r="I127" t="inlineStr"/>
-      <c r="J127" t="n">
-        <v>403.3</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I127" t="n">
+        <v>406.1</v>
+      </c>
+      <c r="J127" t="inlineStr"/>
       <c r="K127" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5259,12 +5179,12 @@
         <v>54723.74665804585</v>
       </c>
       <c r="H128" t="n">
-        <v>0</v>
-      </c>
-      <c r="I128" t="inlineStr"/>
-      <c r="J128" t="n">
-        <v>403.3</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I128" t="n">
+        <v>406.2</v>
+      </c>
+      <c r="J128" t="inlineStr"/>
       <c r="K128" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5301,9 +5221,7 @@
         <v>0</v>
       </c>
       <c r="I129" t="inlineStr"/>
-      <c r="J129" t="n">
-        <v>403.3</v>
-      </c>
+      <c r="J129" t="inlineStr"/>
       <c r="K129" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5340,9 +5258,7 @@
         <v>0</v>
       </c>
       <c r="I130" t="inlineStr"/>
-      <c r="J130" t="n">
-        <v>403.3</v>
-      </c>
+      <c r="J130" t="inlineStr"/>
       <c r="K130" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5379,9 +5295,7 @@
         <v>0</v>
       </c>
       <c r="I131" t="inlineStr"/>
-      <c r="J131" t="n">
-        <v>403.3</v>
-      </c>
+      <c r="J131" t="inlineStr"/>
       <c r="K131" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5418,9 +5332,7 @@
         <v>0</v>
       </c>
       <c r="I132" t="inlineStr"/>
-      <c r="J132" t="n">
-        <v>403.3</v>
-      </c>
+      <c r="J132" t="inlineStr"/>
       <c r="K132" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5457,9 +5369,7 @@
         <v>0</v>
       </c>
       <c r="I133" t="inlineStr"/>
-      <c r="J133" t="n">
-        <v>403.3</v>
-      </c>
+      <c r="J133" t="inlineStr"/>
       <c r="K133" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5496,9 +5406,7 @@
         <v>0</v>
       </c>
       <c r="I134" t="inlineStr"/>
-      <c r="J134" t="n">
-        <v>403.3</v>
-      </c>
+      <c r="J134" t="inlineStr"/>
       <c r="K134" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5535,9 +5443,7 @@
         <v>0</v>
       </c>
       <c r="I135" t="inlineStr"/>
-      <c r="J135" t="n">
-        <v>403.3</v>
-      </c>
+      <c r="J135" t="inlineStr"/>
       <c r="K135" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5574,9 +5480,7 @@
         <v>0</v>
       </c>
       <c r="I136" t="inlineStr"/>
-      <c r="J136" t="n">
-        <v>403.3</v>
-      </c>
+      <c r="J136" t="inlineStr"/>
       <c r="K136" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5613,9 +5517,7 @@
         <v>0</v>
       </c>
       <c r="I137" t="inlineStr"/>
-      <c r="J137" t="n">
-        <v>403.3</v>
-      </c>
+      <c r="J137" t="inlineStr"/>
       <c r="K137" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5652,9 +5554,7 @@
         <v>0</v>
       </c>
       <c r="I138" t="inlineStr"/>
-      <c r="J138" t="n">
-        <v>403.3</v>
-      </c>
+      <c r="J138" t="inlineStr"/>
       <c r="K138" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5691,9 +5591,7 @@
         <v>0</v>
       </c>
       <c r="I139" t="inlineStr"/>
-      <c r="J139" t="n">
-        <v>403.3</v>
-      </c>
+      <c r="J139" t="inlineStr"/>
       <c r="K139" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5730,9 +5628,7 @@
         <v>0</v>
       </c>
       <c r="I140" t="inlineStr"/>
-      <c r="J140" t="n">
-        <v>403.3</v>
-      </c>
+      <c r="J140" t="inlineStr"/>
       <c r="K140" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5769,9 +5665,7 @@
         <v>0</v>
       </c>
       <c r="I141" t="inlineStr"/>
-      <c r="J141" t="n">
-        <v>403.3</v>
-      </c>
+      <c r="J141" t="inlineStr"/>
       <c r="K141" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5808,9 +5702,7 @@
         <v>0</v>
       </c>
       <c r="I142" t="inlineStr"/>
-      <c r="J142" t="n">
-        <v>403.3</v>
-      </c>
+      <c r="J142" t="inlineStr"/>
       <c r="K142" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5847,9 +5739,7 @@
         <v>0</v>
       </c>
       <c r="I143" t="inlineStr"/>
-      <c r="J143" t="n">
-        <v>403.3</v>
-      </c>
+      <c r="J143" t="inlineStr"/>
       <c r="K143" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5886,9 +5776,7 @@
         <v>0</v>
       </c>
       <c r="I144" t="inlineStr"/>
-      <c r="J144" t="n">
-        <v>403.3</v>
-      </c>
+      <c r="J144" t="inlineStr"/>
       <c r="K144" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5925,9 +5813,7 @@
         <v>0</v>
       </c>
       <c r="I145" t="inlineStr"/>
-      <c r="J145" t="n">
-        <v>403.3</v>
-      </c>
+      <c r="J145" t="inlineStr"/>
       <c r="K145" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5964,9 +5850,7 @@
         <v>0</v>
       </c>
       <c r="I146" t="inlineStr"/>
-      <c r="J146" t="n">
-        <v>403.3</v>
-      </c>
+      <c r="J146" t="inlineStr"/>
       <c r="K146" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6003,9 +5887,7 @@
         <v>0</v>
       </c>
       <c r="I147" t="inlineStr"/>
-      <c r="J147" t="n">
-        <v>403.3</v>
-      </c>
+      <c r="J147" t="inlineStr"/>
       <c r="K147" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6042,9 +5924,7 @@
         <v>0</v>
       </c>
       <c r="I148" t="inlineStr"/>
-      <c r="J148" t="n">
-        <v>403.3</v>
-      </c>
+      <c r="J148" t="inlineStr"/>
       <c r="K148" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6081,9 +5961,7 @@
         <v>0</v>
       </c>
       <c r="I149" t="inlineStr"/>
-      <c r="J149" t="n">
-        <v>403.3</v>
-      </c>
+      <c r="J149" t="inlineStr"/>
       <c r="K149" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6120,9 +5998,7 @@
         <v>0</v>
       </c>
       <c r="I150" t="inlineStr"/>
-      <c r="J150" t="n">
-        <v>403.3</v>
-      </c>
+      <c r="J150" t="inlineStr"/>
       <c r="K150" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6159,9 +6035,7 @@
         <v>0</v>
       </c>
       <c r="I151" t="inlineStr"/>
-      <c r="J151" t="n">
-        <v>403.3</v>
-      </c>
+      <c r="J151" t="inlineStr"/>
       <c r="K151" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6198,9 +6072,7 @@
         <v>0</v>
       </c>
       <c r="I152" t="inlineStr"/>
-      <c r="J152" t="n">
-        <v>403.3</v>
-      </c>
+      <c r="J152" t="inlineStr"/>
       <c r="K152" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6237,9 +6109,7 @@
         <v>0</v>
       </c>
       <c r="I153" t="inlineStr"/>
-      <c r="J153" t="n">
-        <v>403.3</v>
-      </c>
+      <c r="J153" t="inlineStr"/>
       <c r="K153" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6276,9 +6146,7 @@
         <v>0</v>
       </c>
       <c r="I154" t="inlineStr"/>
-      <c r="J154" t="n">
-        <v>403.3</v>
-      </c>
+      <c r="J154" t="inlineStr"/>
       <c r="K154" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6315,9 +6183,7 @@
         <v>0</v>
       </c>
       <c r="I155" t="inlineStr"/>
-      <c r="J155" t="n">
-        <v>403.3</v>
-      </c>
+      <c r="J155" t="inlineStr"/>
       <c r="K155" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6354,9 +6220,7 @@
         <v>0</v>
       </c>
       <c r="I156" t="inlineStr"/>
-      <c r="J156" t="n">
-        <v>403.3</v>
-      </c>
+      <c r="J156" t="inlineStr"/>
       <c r="K156" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6393,9 +6257,7 @@
         <v>0</v>
       </c>
       <c r="I157" t="inlineStr"/>
-      <c r="J157" t="n">
-        <v>403.3</v>
-      </c>
+      <c r="J157" t="inlineStr"/>
       <c r="K157" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6432,9 +6294,7 @@
         <v>0</v>
       </c>
       <c r="I158" t="inlineStr"/>
-      <c r="J158" t="n">
-        <v>403.3</v>
-      </c>
+      <c r="J158" t="inlineStr"/>
       <c r="K158" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6471,9 +6331,7 @@
         <v>0</v>
       </c>
       <c r="I159" t="inlineStr"/>
-      <c r="J159" t="n">
-        <v>403.3</v>
-      </c>
+      <c r="J159" t="inlineStr"/>
       <c r="K159" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6510,9 +6368,7 @@
         <v>0</v>
       </c>
       <c r="I160" t="inlineStr"/>
-      <c r="J160" t="n">
-        <v>403.3</v>
-      </c>
+      <c r="J160" t="inlineStr"/>
       <c r="K160" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6549,9 +6405,7 @@
         <v>0</v>
       </c>
       <c r="I161" t="inlineStr"/>
-      <c r="J161" t="n">
-        <v>403.3</v>
-      </c>
+      <c r="J161" t="inlineStr"/>
       <c r="K161" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6588,9 +6442,7 @@
         <v>0</v>
       </c>
       <c r="I162" t="inlineStr"/>
-      <c r="J162" t="n">
-        <v>403.3</v>
-      </c>
+      <c r="J162" t="inlineStr"/>
       <c r="K162" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6627,9 +6479,7 @@
         <v>0</v>
       </c>
       <c r="I163" t="inlineStr"/>
-      <c r="J163" t="n">
-        <v>403.3</v>
-      </c>
+      <c r="J163" t="inlineStr"/>
       <c r="K163" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6666,9 +6516,7 @@
         <v>0</v>
       </c>
       <c r="I164" t="inlineStr"/>
-      <c r="J164" t="n">
-        <v>403.3</v>
-      </c>
+      <c r="J164" t="inlineStr"/>
       <c r="K164" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6705,9 +6553,7 @@
         <v>0</v>
       </c>
       <c r="I165" t="inlineStr"/>
-      <c r="J165" t="n">
-        <v>403.3</v>
-      </c>
+      <c r="J165" t="inlineStr"/>
       <c r="K165" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6744,9 +6590,7 @@
         <v>0</v>
       </c>
       <c r="I166" t="inlineStr"/>
-      <c r="J166" t="n">
-        <v>403.3</v>
-      </c>
+      <c r="J166" t="inlineStr"/>
       <c r="K166" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6783,9 +6627,7 @@
         <v>0</v>
       </c>
       <c r="I167" t="inlineStr"/>
-      <c r="J167" t="n">
-        <v>403.3</v>
-      </c>
+      <c r="J167" t="inlineStr"/>
       <c r="K167" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6822,9 +6664,7 @@
         <v>0</v>
       </c>
       <c r="I168" t="inlineStr"/>
-      <c r="J168" t="n">
-        <v>403.3</v>
-      </c>
+      <c r="J168" t="inlineStr"/>
       <c r="K168" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6861,9 +6701,7 @@
         <v>0</v>
       </c>
       <c r="I169" t="inlineStr"/>
-      <c r="J169" t="n">
-        <v>403.3</v>
-      </c>
+      <c r="J169" t="inlineStr"/>
       <c r="K169" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6900,9 +6738,7 @@
         <v>0</v>
       </c>
       <c r="I170" t="inlineStr"/>
-      <c r="J170" t="n">
-        <v>403.3</v>
-      </c>
+      <c r="J170" t="inlineStr"/>
       <c r="K170" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6939,9 +6775,7 @@
         <v>0</v>
       </c>
       <c r="I171" t="inlineStr"/>
-      <c r="J171" t="n">
-        <v>403.3</v>
-      </c>
+      <c r="J171" t="inlineStr"/>
       <c r="K171" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6978,9 +6812,7 @@
         <v>0</v>
       </c>
       <c r="I172" t="inlineStr"/>
-      <c r="J172" t="n">
-        <v>403.3</v>
-      </c>
+      <c r="J172" t="inlineStr"/>
       <c r="K172" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7017,9 +6849,7 @@
         <v>0</v>
       </c>
       <c r="I173" t="inlineStr"/>
-      <c r="J173" t="n">
-        <v>403.3</v>
-      </c>
+      <c r="J173" t="inlineStr"/>
       <c r="K173" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7056,9 +6886,7 @@
         <v>0</v>
       </c>
       <c r="I174" t="inlineStr"/>
-      <c r="J174" t="n">
-        <v>403.3</v>
-      </c>
+      <c r="J174" t="inlineStr"/>
       <c r="K174" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7095,9 +6923,7 @@
         <v>0</v>
       </c>
       <c r="I175" t="inlineStr"/>
-      <c r="J175" t="n">
-        <v>403.3</v>
-      </c>
+      <c r="J175" t="inlineStr"/>
       <c r="K175" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7134,9 +6960,7 @@
         <v>0</v>
       </c>
       <c r="I176" t="inlineStr"/>
-      <c r="J176" t="n">
-        <v>403.3</v>
-      </c>
+      <c r="J176" t="inlineStr"/>
       <c r="K176" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7173,9 +6997,7 @@
         <v>0</v>
       </c>
       <c r="I177" t="inlineStr"/>
-      <c r="J177" t="n">
-        <v>403.3</v>
-      </c>
+      <c r="J177" t="inlineStr"/>
       <c r="K177" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7212,9 +7034,7 @@
         <v>0</v>
       </c>
       <c r="I178" t="inlineStr"/>
-      <c r="J178" t="n">
-        <v>403.3</v>
-      </c>
+      <c r="J178" t="inlineStr"/>
       <c r="K178" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7251,9 +7071,7 @@
         <v>0</v>
       </c>
       <c r="I179" t="inlineStr"/>
-      <c r="J179" t="n">
-        <v>403.3</v>
-      </c>
+      <c r="J179" t="inlineStr"/>
       <c r="K179" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7290,9 +7108,7 @@
         <v>0</v>
       </c>
       <c r="I180" t="inlineStr"/>
-      <c r="J180" t="n">
-        <v>403.3</v>
-      </c>
+      <c r="J180" t="inlineStr"/>
       <c r="K180" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7329,9 +7145,7 @@
         <v>0</v>
       </c>
       <c r="I181" t="inlineStr"/>
-      <c r="J181" t="n">
-        <v>403.3</v>
-      </c>
+      <c r="J181" t="inlineStr"/>
       <c r="K181" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7368,9 +7182,7 @@
         <v>0</v>
       </c>
       <c r="I182" t="inlineStr"/>
-      <c r="J182" t="n">
-        <v>403.3</v>
-      </c>
+      <c r="J182" t="inlineStr"/>
       <c r="K182" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7407,9 +7219,7 @@
         <v>0</v>
       </c>
       <c r="I183" t="inlineStr"/>
-      <c r="J183" t="n">
-        <v>403.3</v>
-      </c>
+      <c r="J183" t="inlineStr"/>
       <c r="K183" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7446,9 +7256,7 @@
         <v>0</v>
       </c>
       <c r="I184" t="inlineStr"/>
-      <c r="J184" t="n">
-        <v>403.3</v>
-      </c>
+      <c r="J184" t="inlineStr"/>
       <c r="K184" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7485,9 +7293,7 @@
         <v>0</v>
       </c>
       <c r="I185" t="inlineStr"/>
-      <c r="J185" t="n">
-        <v>403.3</v>
-      </c>
+      <c r="J185" t="inlineStr"/>
       <c r="K185" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7524,9 +7330,7 @@
         <v>0</v>
       </c>
       <c r="I186" t="inlineStr"/>
-      <c r="J186" t="n">
-        <v>403.3</v>
-      </c>
+      <c r="J186" t="inlineStr"/>
       <c r="K186" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7563,9 +7367,7 @@
         <v>0</v>
       </c>
       <c r="I187" t="inlineStr"/>
-      <c r="J187" t="n">
-        <v>403.3</v>
-      </c>
+      <c r="J187" t="inlineStr"/>
       <c r="K187" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7602,9 +7404,7 @@
         <v>0</v>
       </c>
       <c r="I188" t="inlineStr"/>
-      <c r="J188" t="n">
-        <v>403.3</v>
-      </c>
+      <c r="J188" t="inlineStr"/>
       <c r="K188" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7641,9 +7441,7 @@
         <v>0</v>
       </c>
       <c r="I189" t="inlineStr"/>
-      <c r="J189" t="n">
-        <v>403.3</v>
-      </c>
+      <c r="J189" t="inlineStr"/>
       <c r="K189" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7680,9 +7478,7 @@
         <v>0</v>
       </c>
       <c r="I190" t="inlineStr"/>
-      <c r="J190" t="n">
-        <v>403.3</v>
-      </c>
+      <c r="J190" t="inlineStr"/>
       <c r="K190" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7719,9 +7515,7 @@
         <v>0</v>
       </c>
       <c r="I191" t="inlineStr"/>
-      <c r="J191" t="n">
-        <v>403.3</v>
-      </c>
+      <c r="J191" t="inlineStr"/>
       <c r="K191" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7758,9 +7552,7 @@
         <v>0</v>
       </c>
       <c r="I192" t="inlineStr"/>
-      <c r="J192" t="n">
-        <v>403.3</v>
-      </c>
+      <c r="J192" t="inlineStr"/>
       <c r="K192" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7797,9 +7589,7 @@
         <v>0</v>
       </c>
       <c r="I193" t="inlineStr"/>
-      <c r="J193" t="n">
-        <v>403.3</v>
-      </c>
+      <c r="J193" t="inlineStr"/>
       <c r="K193" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7836,9 +7626,7 @@
         <v>0</v>
       </c>
       <c r="I194" t="inlineStr"/>
-      <c r="J194" t="n">
-        <v>403.3</v>
-      </c>
+      <c r="J194" t="inlineStr"/>
       <c r="K194" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7875,9 +7663,7 @@
         <v>0</v>
       </c>
       <c r="I195" t="inlineStr"/>
-      <c r="J195" t="n">
-        <v>403.3</v>
-      </c>
+      <c r="J195" t="inlineStr"/>
       <c r="K195" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7914,9 +7700,7 @@
         <v>0</v>
       </c>
       <c r="I196" t="inlineStr"/>
-      <c r="J196" t="n">
-        <v>403.3</v>
-      </c>
+      <c r="J196" t="inlineStr"/>
       <c r="K196" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7953,9 +7737,7 @@
         <v>0</v>
       </c>
       <c r="I197" t="inlineStr"/>
-      <c r="J197" t="n">
-        <v>403.3</v>
-      </c>
+      <c r="J197" t="inlineStr"/>
       <c r="K197" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7992,9 +7774,7 @@
         <v>0</v>
       </c>
       <c r="I198" t="inlineStr"/>
-      <c r="J198" t="n">
-        <v>403.3</v>
-      </c>
+      <c r="J198" t="inlineStr"/>
       <c r="K198" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8031,9 +7811,7 @@
         <v>0</v>
       </c>
       <c r="I199" t="inlineStr"/>
-      <c r="J199" t="n">
-        <v>403.3</v>
-      </c>
+      <c r="J199" t="inlineStr"/>
       <c r="K199" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8070,9 +7848,7 @@
         <v>0</v>
       </c>
       <c r="I200" t="inlineStr"/>
-      <c r="J200" t="n">
-        <v>403.3</v>
-      </c>
+      <c r="J200" t="inlineStr"/>
       <c r="K200" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8109,9 +7885,7 @@
         <v>0</v>
       </c>
       <c r="I201" t="inlineStr"/>
-      <c r="J201" t="n">
-        <v>403.3</v>
-      </c>
+      <c r="J201" t="inlineStr"/>
       <c r="K201" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8148,9 +7922,7 @@
         <v>0</v>
       </c>
       <c r="I202" t="inlineStr"/>
-      <c r="J202" t="n">
-        <v>403.3</v>
-      </c>
+      <c r="J202" t="inlineStr"/>
       <c r="K202" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8187,9 +7959,7 @@
         <v>0</v>
       </c>
       <c r="I203" t="inlineStr"/>
-      <c r="J203" t="n">
-        <v>403.3</v>
-      </c>
+      <c r="J203" t="inlineStr"/>
       <c r="K203" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8226,9 +7996,7 @@
         <v>0</v>
       </c>
       <c r="I204" t="inlineStr"/>
-      <c r="J204" t="n">
-        <v>403.3</v>
-      </c>
+      <c r="J204" t="inlineStr"/>
       <c r="K204" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8265,9 +8033,7 @@
         <v>0</v>
       </c>
       <c r="I205" t="inlineStr"/>
-      <c r="J205" t="n">
-        <v>403.3</v>
-      </c>
+      <c r="J205" t="inlineStr"/>
       <c r="K205" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8304,9 +8070,7 @@
         <v>0</v>
       </c>
       <c r="I206" t="inlineStr"/>
-      <c r="J206" t="n">
-        <v>403.3</v>
-      </c>
+      <c r="J206" t="inlineStr"/>
       <c r="K206" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8343,9 +8107,7 @@
         <v>0</v>
       </c>
       <c r="I207" t="inlineStr"/>
-      <c r="J207" t="n">
-        <v>403.3</v>
-      </c>
+      <c r="J207" t="inlineStr"/>
       <c r="K207" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8382,9 +8144,7 @@
         <v>0</v>
       </c>
       <c r="I208" t="inlineStr"/>
-      <c r="J208" t="n">
-        <v>403.3</v>
-      </c>
+      <c r="J208" t="inlineStr"/>
       <c r="K208" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8421,9 +8181,7 @@
         <v>0</v>
       </c>
       <c r="I209" t="inlineStr"/>
-      <c r="J209" t="n">
-        <v>403.3</v>
-      </c>
+      <c r="J209" t="inlineStr"/>
       <c r="K209" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8460,9 +8218,7 @@
         <v>0</v>
       </c>
       <c r="I210" t="inlineStr"/>
-      <c r="J210" t="n">
-        <v>403.3</v>
-      </c>
+      <c r="J210" t="inlineStr"/>
       <c r="K210" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8499,9 +8255,7 @@
         <v>0</v>
       </c>
       <c r="I211" t="inlineStr"/>
-      <c r="J211" t="n">
-        <v>403.3</v>
-      </c>
+      <c r="J211" t="inlineStr"/>
       <c r="K211" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8538,9 +8292,7 @@
         <v>0</v>
       </c>
       <c r="I212" t="inlineStr"/>
-      <c r="J212" t="n">
-        <v>403.3</v>
-      </c>
+      <c r="J212" t="inlineStr"/>
       <c r="K212" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8577,9 +8329,7 @@
         <v>0</v>
       </c>
       <c r="I213" t="inlineStr"/>
-      <c r="J213" t="n">
-        <v>403.3</v>
-      </c>
+      <c r="J213" t="inlineStr"/>
       <c r="K213" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8616,9 +8366,7 @@
         <v>0</v>
       </c>
       <c r="I214" t="inlineStr"/>
-      <c r="J214" t="n">
-        <v>403.3</v>
-      </c>
+      <c r="J214" t="inlineStr"/>
       <c r="K214" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8655,9 +8403,7 @@
         <v>0</v>
       </c>
       <c r="I215" t="inlineStr"/>
-      <c r="J215" t="n">
-        <v>403.3</v>
-      </c>
+      <c r="J215" t="inlineStr"/>
       <c r="K215" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8694,9 +8440,7 @@
         <v>0</v>
       </c>
       <c r="I216" t="inlineStr"/>
-      <c r="J216" t="n">
-        <v>403.3</v>
-      </c>
+      <c r="J216" t="inlineStr"/>
       <c r="K216" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8733,9 +8477,7 @@
         <v>0</v>
       </c>
       <c r="I217" t="inlineStr"/>
-      <c r="J217" t="n">
-        <v>403.3</v>
-      </c>
+      <c r="J217" t="inlineStr"/>
       <c r="K217" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8772,9 +8514,7 @@
         <v>0</v>
       </c>
       <c r="I218" t="inlineStr"/>
-      <c r="J218" t="n">
-        <v>403.3</v>
-      </c>
+      <c r="J218" t="inlineStr"/>
       <c r="K218" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8811,9 +8551,7 @@
         <v>0</v>
       </c>
       <c r="I219" t="inlineStr"/>
-      <c r="J219" t="n">
-        <v>403.3</v>
-      </c>
+      <c r="J219" t="inlineStr"/>
       <c r="K219" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8850,9 +8588,7 @@
         <v>0</v>
       </c>
       <c r="I220" t="inlineStr"/>
-      <c r="J220" t="n">
-        <v>403.3</v>
-      </c>
+      <c r="J220" t="inlineStr"/>
       <c r="K220" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8889,9 +8625,7 @@
         <v>0</v>
       </c>
       <c r="I221" t="inlineStr"/>
-      <c r="J221" t="n">
-        <v>403.3</v>
-      </c>
+      <c r="J221" t="inlineStr"/>
       <c r="K221" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8928,9 +8662,7 @@
         <v>0</v>
       </c>
       <c r="I222" t="inlineStr"/>
-      <c r="J222" t="n">
-        <v>403.3</v>
-      </c>
+      <c r="J222" t="inlineStr"/>
       <c r="K222" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8967,9 +8699,7 @@
         <v>0</v>
       </c>
       <c r="I223" t="inlineStr"/>
-      <c r="J223" t="n">
-        <v>403.3</v>
-      </c>
+      <c r="J223" t="inlineStr"/>
       <c r="K223" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9006,9 +8736,7 @@
         <v>0</v>
       </c>
       <c r="I224" t="inlineStr"/>
-      <c r="J224" t="n">
-        <v>403.3</v>
-      </c>
+      <c r="J224" t="inlineStr"/>
       <c r="K224" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9045,9 +8773,7 @@
         <v>0</v>
       </c>
       <c r="I225" t="inlineStr"/>
-      <c r="J225" t="n">
-        <v>403.3</v>
-      </c>
+      <c r="J225" t="inlineStr"/>
       <c r="K225" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9084,9 +8810,7 @@
         <v>0</v>
       </c>
       <c r="I226" t="inlineStr"/>
-      <c r="J226" t="n">
-        <v>403.3</v>
-      </c>
+      <c r="J226" t="inlineStr"/>
       <c r="K226" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9123,9 +8847,7 @@
         <v>0</v>
       </c>
       <c r="I227" t="inlineStr"/>
-      <c r="J227" t="n">
-        <v>403.3</v>
-      </c>
+      <c r="J227" t="inlineStr"/>
       <c r="K227" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9162,9 +8884,7 @@
         <v>0</v>
       </c>
       <c r="I228" t="inlineStr"/>
-      <c r="J228" t="n">
-        <v>403.3</v>
-      </c>
+      <c r="J228" t="inlineStr"/>
       <c r="K228" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9201,9 +8921,7 @@
         <v>0</v>
       </c>
       <c r="I229" t="inlineStr"/>
-      <c r="J229" t="n">
-        <v>403.3</v>
-      </c>
+      <c r="J229" t="inlineStr"/>
       <c r="K229" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9240,9 +8958,7 @@
         <v>0</v>
       </c>
       <c r="I230" t="inlineStr"/>
-      <c r="J230" t="n">
-        <v>403.3</v>
-      </c>
+      <c r="J230" t="inlineStr"/>
       <c r="K230" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9279,9 +8995,7 @@
         <v>0</v>
       </c>
       <c r="I231" t="inlineStr"/>
-      <c r="J231" t="n">
-        <v>403.3</v>
-      </c>
+      <c r="J231" t="inlineStr"/>
       <c r="K231" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9318,9 +9032,7 @@
         <v>0</v>
       </c>
       <c r="I232" t="inlineStr"/>
-      <c r="J232" t="n">
-        <v>403.3</v>
-      </c>
+      <c r="J232" t="inlineStr"/>
       <c r="K232" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9357,9 +9069,7 @@
         <v>0</v>
       </c>
       <c r="I233" t="inlineStr"/>
-      <c r="J233" t="n">
-        <v>403.3</v>
-      </c>
+      <c r="J233" t="inlineStr"/>
       <c r="K233" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9396,9 +9106,7 @@
         <v>0</v>
       </c>
       <c r="I234" t="inlineStr"/>
-      <c r="J234" t="n">
-        <v>403.3</v>
-      </c>
+      <c r="J234" t="inlineStr"/>
       <c r="K234" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9435,9 +9143,7 @@
         <v>0</v>
       </c>
       <c r="I235" t="inlineStr"/>
-      <c r="J235" t="n">
-        <v>403.3</v>
-      </c>
+      <c r="J235" t="inlineStr"/>
       <c r="K235" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9474,9 +9180,7 @@
         <v>0</v>
       </c>
       <c r="I236" t="inlineStr"/>
-      <c r="J236" t="n">
-        <v>403.3</v>
-      </c>
+      <c r="J236" t="inlineStr"/>
       <c r="K236" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9510,23 +9214,19 @@
         <v>108598.9130926562</v>
       </c>
       <c r="H237" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I237" t="inlineStr"/>
-      <c r="J237" t="n">
-        <v>403.3</v>
-      </c>
+      <c r="J237" t="inlineStr"/>
       <c r="K237" t="inlineStr">
         <is>
-          <t>매도 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L237" t="n">
-        <v>1.081040168608976</v>
-      </c>
-      <c r="M237" t="n">
-        <v>1.088400613183444</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="M237" t="inlineStr"/>
     </row>
     <row r="238">
       <c r="A238" s="1" t="n">
@@ -9555,7 +9255,11 @@
       </c>
       <c r="I238" t="inlineStr"/>
       <c r="J238" t="inlineStr"/>
-      <c r="K238" t="inlineStr"/>
+      <c r="K238" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L238" t="n">
         <v>1</v>
       </c>
@@ -9588,7 +9292,11 @@
       </c>
       <c r="I239" t="inlineStr"/>
       <c r="J239" t="inlineStr"/>
-      <c r="K239" t="inlineStr"/>
+      <c r="K239" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L239" t="n">
         <v>1</v>
       </c>
@@ -9621,7 +9329,11 @@
       </c>
       <c r="I240" t="inlineStr"/>
       <c r="J240" t="inlineStr"/>
-      <c r="K240" t="inlineStr"/>
+      <c r="K240" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L240" t="n">
         <v>1</v>
       </c>
@@ -9654,7 +9366,11 @@
       </c>
       <c r="I241" t="inlineStr"/>
       <c r="J241" t="inlineStr"/>
-      <c r="K241" t="inlineStr"/>
+      <c r="K241" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L241" t="n">
         <v>1</v>
       </c>
@@ -9687,7 +9403,11 @@
       </c>
       <c r="I242" t="inlineStr"/>
       <c r="J242" t="inlineStr"/>
-      <c r="K242" t="inlineStr"/>
+      <c r="K242" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L242" t="n">
         <v>1</v>
       </c>
@@ -9720,7 +9440,11 @@
       </c>
       <c r="I243" t="inlineStr"/>
       <c r="J243" t="inlineStr"/>
-      <c r="K243" t="inlineStr"/>
+      <c r="K243" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L243" t="n">
         <v>1</v>
       </c>
@@ -9753,7 +9477,11 @@
       </c>
       <c r="I244" t="inlineStr"/>
       <c r="J244" t="inlineStr"/>
-      <c r="K244" t="inlineStr"/>
+      <c r="K244" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L244" t="n">
         <v>1</v>
       </c>
@@ -9786,7 +9514,11 @@
       </c>
       <c r="I245" t="inlineStr"/>
       <c r="J245" t="inlineStr"/>
-      <c r="K245" t="inlineStr"/>
+      <c r="K245" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L245" t="n">
         <v>1</v>
       </c>
@@ -9819,7 +9551,11 @@
       </c>
       <c r="I246" t="inlineStr"/>
       <c r="J246" t="inlineStr"/>
-      <c r="K246" t="inlineStr"/>
+      <c r="K246" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L246" t="n">
         <v>1</v>
       </c>
@@ -9852,7 +9588,11 @@
       </c>
       <c r="I247" t="inlineStr"/>
       <c r="J247" t="inlineStr"/>
-      <c r="K247" t="inlineStr"/>
+      <c r="K247" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L247" t="n">
         <v>1</v>
       </c>
@@ -9885,7 +9625,11 @@
       </c>
       <c r="I248" t="inlineStr"/>
       <c r="J248" t="inlineStr"/>
-      <c r="K248" t="inlineStr"/>
+      <c r="K248" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L248" t="n">
         <v>1</v>
       </c>
@@ -9918,7 +9662,11 @@
       </c>
       <c r="I249" t="inlineStr"/>
       <c r="J249" t="inlineStr"/>
-      <c r="K249" t="inlineStr"/>
+      <c r="K249" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L249" t="n">
         <v>1</v>
       </c>
@@ -9951,7 +9699,11 @@
       </c>
       <c r="I250" t="inlineStr"/>
       <c r="J250" t="inlineStr"/>
-      <c r="K250" t="inlineStr"/>
+      <c r="K250" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L250" t="n">
         <v>1</v>
       </c>
@@ -9984,7 +9736,11 @@
       </c>
       <c r="I251" t="inlineStr"/>
       <c r="J251" t="inlineStr"/>
-      <c r="K251" t="inlineStr"/>
+      <c r="K251" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L251" t="n">
         <v>1</v>
       </c>
@@ -10017,7 +9773,11 @@
       </c>
       <c r="I252" t="inlineStr"/>
       <c r="J252" t="inlineStr"/>
-      <c r="K252" t="inlineStr"/>
+      <c r="K252" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L252" t="n">
         <v>1</v>
       </c>
@@ -10050,7 +9810,11 @@
       </c>
       <c r="I253" t="inlineStr"/>
       <c r="J253" t="inlineStr"/>
-      <c r="K253" t="inlineStr"/>
+      <c r="K253" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L253" t="n">
         <v>1</v>
       </c>
@@ -10083,7 +9847,11 @@
       </c>
       <c r="I254" t="inlineStr"/>
       <c r="J254" t="inlineStr"/>
-      <c r="K254" t="inlineStr"/>
+      <c r="K254" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L254" t="n">
         <v>1</v>
       </c>
@@ -10116,7 +9884,11 @@
       </c>
       <c r="I255" t="inlineStr"/>
       <c r="J255" t="inlineStr"/>
-      <c r="K255" t="inlineStr"/>
+      <c r="K255" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L255" t="n">
         <v>1</v>
       </c>
@@ -10149,7 +9921,11 @@
       </c>
       <c r="I256" t="inlineStr"/>
       <c r="J256" t="inlineStr"/>
-      <c r="K256" t="inlineStr"/>
+      <c r="K256" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L256" t="n">
         <v>1</v>
       </c>
@@ -10182,7 +9958,11 @@
       </c>
       <c r="I257" t="inlineStr"/>
       <c r="J257" t="inlineStr"/>
-      <c r="K257" t="inlineStr"/>
+      <c r="K257" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L257" t="n">
         <v>1</v>
       </c>
@@ -10215,7 +9995,11 @@
       </c>
       <c r="I258" t="inlineStr"/>
       <c r="J258" t="inlineStr"/>
-      <c r="K258" t="inlineStr"/>
+      <c r="K258" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L258" t="n">
         <v>1</v>
       </c>
@@ -10248,7 +10032,11 @@
       </c>
       <c r="I259" t="inlineStr"/>
       <c r="J259" t="inlineStr"/>
-      <c r="K259" t="inlineStr"/>
+      <c r="K259" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L259" t="n">
         <v>1</v>
       </c>
@@ -10281,7 +10069,11 @@
       </c>
       <c r="I260" t="inlineStr"/>
       <c r="J260" t="inlineStr"/>
-      <c r="K260" t="inlineStr"/>
+      <c r="K260" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L260" t="n">
         <v>1</v>
       </c>
@@ -10314,7 +10106,11 @@
       </c>
       <c r="I261" t="inlineStr"/>
       <c r="J261" t="inlineStr"/>
-      <c r="K261" t="inlineStr"/>
+      <c r="K261" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L261" t="n">
         <v>1</v>
       </c>
@@ -10347,7 +10143,11 @@
       </c>
       <c r="I262" t="inlineStr"/>
       <c r="J262" t="inlineStr"/>
-      <c r="K262" t="inlineStr"/>
+      <c r="K262" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L262" t="n">
         <v>1</v>
       </c>
@@ -10380,7 +10180,11 @@
       </c>
       <c r="I263" t="inlineStr"/>
       <c r="J263" t="inlineStr"/>
-      <c r="K263" t="inlineStr"/>
+      <c r="K263" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L263" t="n">
         <v>1</v>
       </c>
@@ -10413,7 +10217,11 @@
       </c>
       <c r="I264" t="inlineStr"/>
       <c r="J264" t="inlineStr"/>
-      <c r="K264" t="inlineStr"/>
+      <c r="K264" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L264" t="n">
         <v>1</v>
       </c>
@@ -10446,7 +10254,11 @@
       </c>
       <c r="I265" t="inlineStr"/>
       <c r="J265" t="inlineStr"/>
-      <c r="K265" t="inlineStr"/>
+      <c r="K265" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L265" t="n">
         <v>1</v>
       </c>
@@ -10479,7 +10291,11 @@
       </c>
       <c r="I266" t="inlineStr"/>
       <c r="J266" t="inlineStr"/>
-      <c r="K266" t="inlineStr"/>
+      <c r="K266" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L266" t="n">
         <v>1</v>
       </c>
@@ -10512,7 +10328,11 @@
       </c>
       <c r="I267" t="inlineStr"/>
       <c r="J267" t="inlineStr"/>
-      <c r="K267" t="inlineStr"/>
+      <c r="K267" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L267" t="n">
         <v>1</v>
       </c>
@@ -10545,7 +10365,11 @@
       </c>
       <c r="I268" t="inlineStr"/>
       <c r="J268" t="inlineStr"/>
-      <c r="K268" t="inlineStr"/>
+      <c r="K268" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L268" t="n">
         <v>1</v>
       </c>
@@ -10578,7 +10402,11 @@
       </c>
       <c r="I269" t="inlineStr"/>
       <c r="J269" t="inlineStr"/>
-      <c r="K269" t="inlineStr"/>
+      <c r="K269" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L269" t="n">
         <v>1</v>
       </c>
@@ -10611,7 +10439,11 @@
       </c>
       <c r="I270" t="inlineStr"/>
       <c r="J270" t="inlineStr"/>
-      <c r="K270" t="inlineStr"/>
+      <c r="K270" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L270" t="n">
         <v>1</v>
       </c>
@@ -10644,7 +10476,11 @@
       </c>
       <c r="I271" t="inlineStr"/>
       <c r="J271" t="inlineStr"/>
-      <c r="K271" t="inlineStr"/>
+      <c r="K271" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L271" t="n">
         <v>1</v>
       </c>
@@ -10677,7 +10513,11 @@
       </c>
       <c r="I272" t="inlineStr"/>
       <c r="J272" t="inlineStr"/>
-      <c r="K272" t="inlineStr"/>
+      <c r="K272" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L272" t="n">
         <v>1</v>
       </c>
@@ -10710,7 +10550,11 @@
       </c>
       <c r="I273" t="inlineStr"/>
       <c r="J273" t="inlineStr"/>
-      <c r="K273" t="inlineStr"/>
+      <c r="K273" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L273" t="n">
         <v>1</v>
       </c>
@@ -10743,7 +10587,11 @@
       </c>
       <c r="I274" t="inlineStr"/>
       <c r="J274" t="inlineStr"/>
-      <c r="K274" t="inlineStr"/>
+      <c r="K274" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L274" t="n">
         <v>1</v>
       </c>
@@ -10776,7 +10624,11 @@
       </c>
       <c r="I275" t="inlineStr"/>
       <c r="J275" t="inlineStr"/>
-      <c r="K275" t="inlineStr"/>
+      <c r="K275" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L275" t="n">
         <v>1</v>
       </c>
@@ -10809,7 +10661,11 @@
       </c>
       <c r="I276" t="inlineStr"/>
       <c r="J276" t="inlineStr"/>
-      <c r="K276" t="inlineStr"/>
+      <c r="K276" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L276" t="n">
         <v>1</v>
       </c>
@@ -10842,7 +10698,11 @@
       </c>
       <c r="I277" t="inlineStr"/>
       <c r="J277" t="inlineStr"/>
-      <c r="K277" t="inlineStr"/>
+      <c r="K277" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L277" t="n">
         <v>1</v>
       </c>
@@ -10875,7 +10735,11 @@
       </c>
       <c r="I278" t="inlineStr"/>
       <c r="J278" t="inlineStr"/>
-      <c r="K278" t="inlineStr"/>
+      <c r="K278" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L278" t="n">
         <v>1</v>
       </c>
@@ -10908,7 +10772,11 @@
       </c>
       <c r="I279" t="inlineStr"/>
       <c r="J279" t="inlineStr"/>
-      <c r="K279" t="inlineStr"/>
+      <c r="K279" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L279" t="n">
         <v>1</v>
       </c>
@@ -10941,7 +10809,11 @@
       </c>
       <c r="I280" t="inlineStr"/>
       <c r="J280" t="inlineStr"/>
-      <c r="K280" t="inlineStr"/>
+      <c r="K280" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L280" t="n">
         <v>1</v>
       </c>
@@ -10974,7 +10846,11 @@
       </c>
       <c r="I281" t="inlineStr"/>
       <c r="J281" t="inlineStr"/>
-      <c r="K281" t="inlineStr"/>
+      <c r="K281" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L281" t="n">
         <v>1</v>
       </c>
@@ -11007,7 +10883,11 @@
       </c>
       <c r="I282" t="inlineStr"/>
       <c r="J282" t="inlineStr"/>
-      <c r="K282" t="inlineStr"/>
+      <c r="K282" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L282" t="n">
         <v>1</v>
       </c>
@@ -11040,7 +10920,11 @@
       </c>
       <c r="I283" t="inlineStr"/>
       <c r="J283" t="inlineStr"/>
-      <c r="K283" t="inlineStr"/>
+      <c r="K283" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L283" t="n">
         <v>1</v>
       </c>
@@ -11073,7 +10957,11 @@
       </c>
       <c r="I284" t="inlineStr"/>
       <c r="J284" t="inlineStr"/>
-      <c r="K284" t="inlineStr"/>
+      <c r="K284" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L284" t="n">
         <v>1</v>
       </c>
@@ -11106,7 +10994,11 @@
       </c>
       <c r="I285" t="inlineStr"/>
       <c r="J285" t="inlineStr"/>
-      <c r="K285" t="inlineStr"/>
+      <c r="K285" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L285" t="n">
         <v>1</v>
       </c>
@@ -11139,7 +11031,11 @@
       </c>
       <c r="I286" t="inlineStr"/>
       <c r="J286" t="inlineStr"/>
-      <c r="K286" t="inlineStr"/>
+      <c r="K286" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L286" t="n">
         <v>1</v>
       </c>
@@ -11172,7 +11068,11 @@
       </c>
       <c r="I287" t="inlineStr"/>
       <c r="J287" t="inlineStr"/>
-      <c r="K287" t="inlineStr"/>
+      <c r="K287" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L287" t="n">
         <v>1</v>
       </c>
@@ -11205,7 +11105,11 @@
       </c>
       <c r="I288" t="inlineStr"/>
       <c r="J288" t="inlineStr"/>
-      <c r="K288" t="inlineStr"/>
+      <c r="K288" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L288" t="n">
         <v>1</v>
       </c>
@@ -11238,7 +11142,11 @@
       </c>
       <c r="I289" t="inlineStr"/>
       <c r="J289" t="inlineStr"/>
-      <c r="K289" t="inlineStr"/>
+      <c r="K289" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L289" t="n">
         <v>1</v>
       </c>
@@ -11271,7 +11179,11 @@
       </c>
       <c r="I290" t="inlineStr"/>
       <c r="J290" t="inlineStr"/>
-      <c r="K290" t="inlineStr"/>
+      <c r="K290" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L290" t="n">
         <v>1</v>
       </c>
@@ -11304,7 +11216,11 @@
       </c>
       <c r="I291" t="inlineStr"/>
       <c r="J291" t="inlineStr"/>
-      <c r="K291" t="inlineStr"/>
+      <c r="K291" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L291" t="n">
         <v>1</v>
       </c>
@@ -11337,7 +11253,11 @@
       </c>
       <c r="I292" t="inlineStr"/>
       <c r="J292" t="inlineStr"/>
-      <c r="K292" t="inlineStr"/>
+      <c r="K292" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L292" t="n">
         <v>1</v>
       </c>
@@ -11370,7 +11290,11 @@
       </c>
       <c r="I293" t="inlineStr"/>
       <c r="J293" t="inlineStr"/>
-      <c r="K293" t="inlineStr"/>
+      <c r="K293" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L293" t="n">
         <v>1</v>
       </c>
@@ -11403,7 +11327,11 @@
       </c>
       <c r="I294" t="inlineStr"/>
       <c r="J294" t="inlineStr"/>
-      <c r="K294" t="inlineStr"/>
+      <c r="K294" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L294" t="n">
         <v>1</v>
       </c>
@@ -11436,7 +11364,11 @@
       </c>
       <c r="I295" t="inlineStr"/>
       <c r="J295" t="inlineStr"/>
-      <c r="K295" t="inlineStr"/>
+      <c r="K295" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L295" t="n">
         <v>1</v>
       </c>
@@ -11469,7 +11401,11 @@
       </c>
       <c r="I296" t="inlineStr"/>
       <c r="J296" t="inlineStr"/>
-      <c r="K296" t="inlineStr"/>
+      <c r="K296" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L296" t="n">
         <v>1</v>
       </c>
@@ -11502,7 +11438,11 @@
       </c>
       <c r="I297" t="inlineStr"/>
       <c r="J297" t="inlineStr"/>
-      <c r="K297" t="inlineStr"/>
+      <c r="K297" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L297" t="n">
         <v>1</v>
       </c>
@@ -11535,7 +11475,11 @@
       </c>
       <c r="I298" t="inlineStr"/>
       <c r="J298" t="inlineStr"/>
-      <c r="K298" t="inlineStr"/>
+      <c r="K298" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L298" t="n">
         <v>1</v>
       </c>
@@ -11568,7 +11512,11 @@
       </c>
       <c r="I299" t="inlineStr"/>
       <c r="J299" t="inlineStr"/>
-      <c r="K299" t="inlineStr"/>
+      <c r="K299" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L299" t="n">
         <v>1</v>
       </c>
@@ -11601,7 +11549,11 @@
       </c>
       <c r="I300" t="inlineStr"/>
       <c r="J300" t="inlineStr"/>
-      <c r="K300" t="inlineStr"/>
+      <c r="K300" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L300" t="n">
         <v>1</v>
       </c>
@@ -11634,7 +11586,11 @@
       </c>
       <c r="I301" t="inlineStr"/>
       <c r="J301" t="inlineStr"/>
-      <c r="K301" t="inlineStr"/>
+      <c r="K301" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L301" t="n">
         <v>1</v>
       </c>
@@ -11667,7 +11623,11 @@
       </c>
       <c r="I302" t="inlineStr"/>
       <c r="J302" t="inlineStr"/>
-      <c r="K302" t="inlineStr"/>
+      <c r="K302" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L302" t="n">
         <v>1</v>
       </c>
@@ -11700,7 +11660,11 @@
       </c>
       <c r="I303" t="inlineStr"/>
       <c r="J303" t="inlineStr"/>
-      <c r="K303" t="inlineStr"/>
+      <c r="K303" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L303" t="n">
         <v>1</v>
       </c>
@@ -11733,7 +11697,11 @@
       </c>
       <c r="I304" t="inlineStr"/>
       <c r="J304" t="inlineStr"/>
-      <c r="K304" t="inlineStr"/>
+      <c r="K304" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L304" t="n">
         <v>1</v>
       </c>
@@ -11766,7 +11734,11 @@
       </c>
       <c r="I305" t="inlineStr"/>
       <c r="J305" t="inlineStr"/>
-      <c r="K305" t="inlineStr"/>
+      <c r="K305" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L305" t="n">
         <v>1</v>
       </c>
@@ -11799,7 +11771,11 @@
       </c>
       <c r="I306" t="inlineStr"/>
       <c r="J306" t="inlineStr"/>
-      <c r="K306" t="inlineStr"/>
+      <c r="K306" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L306" t="n">
         <v>1</v>
       </c>
@@ -11832,7 +11808,11 @@
       </c>
       <c r="I307" t="inlineStr"/>
       <c r="J307" t="inlineStr"/>
-      <c r="K307" t="inlineStr"/>
+      <c r="K307" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L307" t="n">
         <v>1</v>
       </c>
@@ -11865,7 +11845,11 @@
       </c>
       <c r="I308" t="inlineStr"/>
       <c r="J308" t="inlineStr"/>
-      <c r="K308" t="inlineStr"/>
+      <c r="K308" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L308" t="n">
         <v>1</v>
       </c>
@@ -11898,7 +11882,11 @@
       </c>
       <c r="I309" t="inlineStr"/>
       <c r="J309" t="inlineStr"/>
-      <c r="K309" t="inlineStr"/>
+      <c r="K309" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L309" t="n">
         <v>1</v>
       </c>
@@ -11931,7 +11919,11 @@
       </c>
       <c r="I310" t="inlineStr"/>
       <c r="J310" t="inlineStr"/>
-      <c r="K310" t="inlineStr"/>
+      <c r="K310" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L310" t="n">
         <v>1</v>
       </c>
@@ -11964,7 +11956,11 @@
       </c>
       <c r="I311" t="inlineStr"/>
       <c r="J311" t="inlineStr"/>
-      <c r="K311" t="inlineStr"/>
+      <c r="K311" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L311" t="n">
         <v>1</v>
       </c>
@@ -11997,7 +11993,11 @@
       </c>
       <c r="I312" t="inlineStr"/>
       <c r="J312" t="inlineStr"/>
-      <c r="K312" t="inlineStr"/>
+      <c r="K312" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L312" t="n">
         <v>1</v>
       </c>
@@ -12030,7 +12030,11 @@
       </c>
       <c r="I313" t="inlineStr"/>
       <c r="J313" t="inlineStr"/>
-      <c r="K313" t="inlineStr"/>
+      <c r="K313" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L313" t="n">
         <v>1</v>
       </c>
@@ -12063,7 +12067,11 @@
       </c>
       <c r="I314" t="inlineStr"/>
       <c r="J314" t="inlineStr"/>
-      <c r="K314" t="inlineStr"/>
+      <c r="K314" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L314" t="n">
         <v>1</v>
       </c>
@@ -12096,7 +12104,11 @@
       </c>
       <c r="I315" t="inlineStr"/>
       <c r="J315" t="inlineStr"/>
-      <c r="K315" t="inlineStr"/>
+      <c r="K315" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L315" t="n">
         <v>1</v>
       </c>
@@ -12129,7 +12141,11 @@
       </c>
       <c r="I316" t="inlineStr"/>
       <c r="J316" t="inlineStr"/>
-      <c r="K316" t="inlineStr"/>
+      <c r="K316" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L316" t="n">
         <v>1</v>
       </c>
@@ -12162,7 +12178,11 @@
       </c>
       <c r="I317" t="inlineStr"/>
       <c r="J317" t="inlineStr"/>
-      <c r="K317" t="inlineStr"/>
+      <c r="K317" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L317" t="n">
         <v>1</v>
       </c>
@@ -12195,7 +12215,11 @@
       </c>
       <c r="I318" t="inlineStr"/>
       <c r="J318" t="inlineStr"/>
-      <c r="K318" t="inlineStr"/>
+      <c r="K318" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L318" t="n">
         <v>1</v>
       </c>
@@ -12228,7 +12252,11 @@
       </c>
       <c r="I319" t="inlineStr"/>
       <c r="J319" t="inlineStr"/>
-      <c r="K319" t="inlineStr"/>
+      <c r="K319" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L319" t="n">
         <v>1</v>
       </c>
@@ -12261,7 +12289,11 @@
       </c>
       <c r="I320" t="inlineStr"/>
       <c r="J320" t="inlineStr"/>
-      <c r="K320" t="inlineStr"/>
+      <c r="K320" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L320" t="n">
         <v>1</v>
       </c>
@@ -12294,7 +12326,11 @@
       </c>
       <c r="I321" t="inlineStr"/>
       <c r="J321" t="inlineStr"/>
-      <c r="K321" t="inlineStr"/>
+      <c r="K321" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L321" t="n">
         <v>1</v>
       </c>
@@ -12327,7 +12363,11 @@
       </c>
       <c r="I322" t="inlineStr"/>
       <c r="J322" t="inlineStr"/>
-      <c r="K322" t="inlineStr"/>
+      <c r="K322" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L322" t="n">
         <v>1</v>
       </c>
@@ -12360,7 +12400,11 @@
       </c>
       <c r="I323" t="inlineStr"/>
       <c r="J323" t="inlineStr"/>
-      <c r="K323" t="inlineStr"/>
+      <c r="K323" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L323" t="n">
         <v>1</v>
       </c>
@@ -12393,7 +12437,11 @@
       </c>
       <c r="I324" t="inlineStr"/>
       <c r="J324" t="inlineStr"/>
-      <c r="K324" t="inlineStr"/>
+      <c r="K324" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L324" t="n">
         <v>1</v>
       </c>
@@ -12426,7 +12474,11 @@
       </c>
       <c r="I325" t="inlineStr"/>
       <c r="J325" t="inlineStr"/>
-      <c r="K325" t="inlineStr"/>
+      <c r="K325" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L325" t="n">
         <v>1</v>
       </c>
@@ -12459,7 +12511,11 @@
       </c>
       <c r="I326" t="inlineStr"/>
       <c r="J326" t="inlineStr"/>
-      <c r="K326" t="inlineStr"/>
+      <c r="K326" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L326" t="n">
         <v>1</v>
       </c>
@@ -12492,7 +12548,11 @@
       </c>
       <c r="I327" t="inlineStr"/>
       <c r="J327" t="inlineStr"/>
-      <c r="K327" t="inlineStr"/>
+      <c r="K327" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L327" t="n">
         <v>1</v>
       </c>
@@ -12525,7 +12585,11 @@
       </c>
       <c r="I328" t="inlineStr"/>
       <c r="J328" t="inlineStr"/>
-      <c r="K328" t="inlineStr"/>
+      <c r="K328" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L328" t="n">
         <v>1</v>
       </c>
@@ -12558,7 +12622,11 @@
       </c>
       <c r="I329" t="inlineStr"/>
       <c r="J329" t="inlineStr"/>
-      <c r="K329" t="inlineStr"/>
+      <c r="K329" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L329" t="n">
         <v>1</v>
       </c>
@@ -12591,7 +12659,11 @@
       </c>
       <c r="I330" t="inlineStr"/>
       <c r="J330" t="inlineStr"/>
-      <c r="K330" t="inlineStr"/>
+      <c r="K330" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L330" t="n">
         <v>1</v>
       </c>
@@ -12624,7 +12696,11 @@
       </c>
       <c r="I331" t="inlineStr"/>
       <c r="J331" t="inlineStr"/>
-      <c r="K331" t="inlineStr"/>
+      <c r="K331" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L331" t="n">
         <v>1</v>
       </c>
@@ -12657,7 +12733,11 @@
       </c>
       <c r="I332" t="inlineStr"/>
       <c r="J332" t="inlineStr"/>
-      <c r="K332" t="inlineStr"/>
+      <c r="K332" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L332" t="n">
         <v>1</v>
       </c>
@@ -12690,7 +12770,11 @@
       </c>
       <c r="I333" t="inlineStr"/>
       <c r="J333" t="inlineStr"/>
-      <c r="K333" t="inlineStr"/>
+      <c r="K333" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L333" t="n">
         <v>1</v>
       </c>
@@ -12723,7 +12807,11 @@
       </c>
       <c r="I334" t="inlineStr"/>
       <c r="J334" t="inlineStr"/>
-      <c r="K334" t="inlineStr"/>
+      <c r="K334" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L334" t="n">
         <v>1</v>
       </c>
@@ -12756,7 +12844,11 @@
       </c>
       <c r="I335" t="inlineStr"/>
       <c r="J335" t="inlineStr"/>
-      <c r="K335" t="inlineStr"/>
+      <c r="K335" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L335" t="n">
         <v>1</v>
       </c>
@@ -12789,7 +12881,11 @@
       </c>
       <c r="I336" t="inlineStr"/>
       <c r="J336" t="inlineStr"/>
-      <c r="K336" t="inlineStr"/>
+      <c r="K336" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L336" t="n">
         <v>1</v>
       </c>
@@ -12822,7 +12918,11 @@
       </c>
       <c r="I337" t="inlineStr"/>
       <c r="J337" t="inlineStr"/>
-      <c r="K337" t="inlineStr"/>
+      <c r="K337" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L337" t="n">
         <v>1</v>
       </c>
@@ -12855,7 +12955,11 @@
       </c>
       <c r="I338" t="inlineStr"/>
       <c r="J338" t="inlineStr"/>
-      <c r="K338" t="inlineStr"/>
+      <c r="K338" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L338" t="n">
         <v>1</v>
       </c>
@@ -12888,7 +12992,11 @@
       </c>
       <c r="I339" t="inlineStr"/>
       <c r="J339" t="inlineStr"/>
-      <c r="K339" t="inlineStr"/>
+      <c r="K339" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L339" t="n">
         <v>1</v>
       </c>
@@ -12921,7 +13029,11 @@
       </c>
       <c r="I340" t="inlineStr"/>
       <c r="J340" t="inlineStr"/>
-      <c r="K340" t="inlineStr"/>
+      <c r="K340" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L340" t="n">
         <v>1</v>
       </c>
@@ -12954,7 +13066,11 @@
       </c>
       <c r="I341" t="inlineStr"/>
       <c r="J341" t="inlineStr"/>
-      <c r="K341" t="inlineStr"/>
+      <c r="K341" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L341" t="n">
         <v>1</v>
       </c>
@@ -12987,7 +13103,11 @@
       </c>
       <c r="I342" t="inlineStr"/>
       <c r="J342" t="inlineStr"/>
-      <c r="K342" t="inlineStr"/>
+      <c r="K342" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L342" t="n">
         <v>1</v>
       </c>
@@ -13020,7 +13140,11 @@
       </c>
       <c r="I343" t="inlineStr"/>
       <c r="J343" t="inlineStr"/>
-      <c r="K343" t="inlineStr"/>
+      <c r="K343" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L343" t="n">
         <v>1</v>
       </c>
@@ -13053,7 +13177,11 @@
       </c>
       <c r="I344" t="inlineStr"/>
       <c r="J344" t="inlineStr"/>
-      <c r="K344" t="inlineStr"/>
+      <c r="K344" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L344" t="n">
         <v>1</v>
       </c>
@@ -13086,7 +13214,11 @@
       </c>
       <c r="I345" t="inlineStr"/>
       <c r="J345" t="inlineStr"/>
-      <c r="K345" t="inlineStr"/>
+      <c r="K345" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L345" t="n">
         <v>1</v>
       </c>
@@ -13119,7 +13251,11 @@
       </c>
       <c r="I346" t="inlineStr"/>
       <c r="J346" t="inlineStr"/>
-      <c r="K346" t="inlineStr"/>
+      <c r="K346" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L346" t="n">
         <v>1</v>
       </c>
@@ -13152,7 +13288,11 @@
       </c>
       <c r="I347" t="inlineStr"/>
       <c r="J347" t="inlineStr"/>
-      <c r="K347" t="inlineStr"/>
+      <c r="K347" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L347" t="n">
         <v>1</v>
       </c>
@@ -13185,7 +13325,11 @@
       </c>
       <c r="I348" t="inlineStr"/>
       <c r="J348" t="inlineStr"/>
-      <c r="K348" t="inlineStr"/>
+      <c r="K348" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L348" t="n">
         <v>1</v>
       </c>
@@ -13218,7 +13362,11 @@
       </c>
       <c r="I349" t="inlineStr"/>
       <c r="J349" t="inlineStr"/>
-      <c r="K349" t="inlineStr"/>
+      <c r="K349" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L349" t="n">
         <v>1</v>
       </c>
@@ -13251,7 +13399,11 @@
       </c>
       <c r="I350" t="inlineStr"/>
       <c r="J350" t="inlineStr"/>
-      <c r="K350" t="inlineStr"/>
+      <c r="K350" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L350" t="n">
         <v>1</v>
       </c>
@@ -13284,7 +13436,11 @@
       </c>
       <c r="I351" t="inlineStr"/>
       <c r="J351" t="inlineStr"/>
-      <c r="K351" t="inlineStr"/>
+      <c r="K351" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L351" t="n">
         <v>1</v>
       </c>
@@ -13317,7 +13473,11 @@
       </c>
       <c r="I352" t="inlineStr"/>
       <c r="J352" t="inlineStr"/>
-      <c r="K352" t="inlineStr"/>
+      <c r="K352" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L352" t="n">
         <v>1</v>
       </c>
@@ -13350,7 +13510,11 @@
       </c>
       <c r="I353" t="inlineStr"/>
       <c r="J353" t="inlineStr"/>
-      <c r="K353" t="inlineStr"/>
+      <c r="K353" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L353" t="n">
         <v>1</v>
       </c>
@@ -13383,7 +13547,11 @@
       </c>
       <c r="I354" t="inlineStr"/>
       <c r="J354" t="inlineStr"/>
-      <c r="K354" t="inlineStr"/>
+      <c r="K354" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L354" t="n">
         <v>1</v>
       </c>
@@ -13416,7 +13584,11 @@
       </c>
       <c r="I355" t="inlineStr"/>
       <c r="J355" t="inlineStr"/>
-      <c r="K355" t="inlineStr"/>
+      <c r="K355" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L355" t="n">
         <v>1</v>
       </c>
@@ -13449,7 +13621,11 @@
       </c>
       <c r="I356" t="inlineStr"/>
       <c r="J356" t="inlineStr"/>
-      <c r="K356" t="inlineStr"/>
+      <c r="K356" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L356" t="n">
         <v>1</v>
       </c>
@@ -13482,7 +13658,11 @@
       </c>
       <c r="I357" t="inlineStr"/>
       <c r="J357" t="inlineStr"/>
-      <c r="K357" t="inlineStr"/>
+      <c r="K357" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L357" t="n">
         <v>1</v>
       </c>
@@ -13515,7 +13695,11 @@
       </c>
       <c r="I358" t="inlineStr"/>
       <c r="J358" t="inlineStr"/>
-      <c r="K358" t="inlineStr"/>
+      <c r="K358" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L358" t="n">
         <v>1</v>
       </c>
@@ -13548,7 +13732,11 @@
       </c>
       <c r="I359" t="inlineStr"/>
       <c r="J359" t="inlineStr"/>
-      <c r="K359" t="inlineStr"/>
+      <c r="K359" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L359" t="n">
         <v>1</v>
       </c>
@@ -13581,7 +13769,11 @@
       </c>
       <c r="I360" t="inlineStr"/>
       <c r="J360" t="inlineStr"/>
-      <c r="K360" t="inlineStr"/>
+      <c r="K360" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L360" t="n">
         <v>1</v>
       </c>
@@ -13614,7 +13806,11 @@
       </c>
       <c r="I361" t="inlineStr"/>
       <c r="J361" t="inlineStr"/>
-      <c r="K361" t="inlineStr"/>
+      <c r="K361" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L361" t="n">
         <v>1</v>
       </c>
@@ -13647,7 +13843,11 @@
       </c>
       <c r="I362" t="inlineStr"/>
       <c r="J362" t="inlineStr"/>
-      <c r="K362" t="inlineStr"/>
+      <c r="K362" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L362" t="n">
         <v>1</v>
       </c>
@@ -13680,7 +13880,11 @@
       </c>
       <c r="I363" t="inlineStr"/>
       <c r="J363" t="inlineStr"/>
-      <c r="K363" t="inlineStr"/>
+      <c r="K363" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L363" t="n">
         <v>1</v>
       </c>
@@ -13713,7 +13917,11 @@
       </c>
       <c r="I364" t="inlineStr"/>
       <c r="J364" t="inlineStr"/>
-      <c r="K364" t="inlineStr"/>
+      <c r="K364" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L364" t="n">
         <v>1</v>
       </c>
@@ -13746,7 +13954,11 @@
       </c>
       <c r="I365" t="inlineStr"/>
       <c r="J365" t="inlineStr"/>
-      <c r="K365" t="inlineStr"/>
+      <c r="K365" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L365" t="n">
         <v>1</v>
       </c>
@@ -13779,7 +13991,11 @@
       </c>
       <c r="I366" t="inlineStr"/>
       <c r="J366" t="inlineStr"/>
-      <c r="K366" t="inlineStr"/>
+      <c r="K366" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L366" t="n">
         <v>1</v>
       </c>
@@ -13812,7 +14028,11 @@
       </c>
       <c r="I367" t="inlineStr"/>
       <c r="J367" t="inlineStr"/>
-      <c r="K367" t="inlineStr"/>
+      <c r="K367" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L367" t="n">
         <v>1</v>
       </c>
@@ -13845,7 +14065,11 @@
       </c>
       <c r="I368" t="inlineStr"/>
       <c r="J368" t="inlineStr"/>
-      <c r="K368" t="inlineStr"/>
+      <c r="K368" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L368" t="n">
         <v>1</v>
       </c>
@@ -13878,7 +14102,11 @@
       </c>
       <c r="I369" t="inlineStr"/>
       <c r="J369" t="inlineStr"/>
-      <c r="K369" t="inlineStr"/>
+      <c r="K369" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L369" t="n">
         <v>1</v>
       </c>
@@ -13911,7 +14139,11 @@
       </c>
       <c r="I370" t="inlineStr"/>
       <c r="J370" t="inlineStr"/>
-      <c r="K370" t="inlineStr"/>
+      <c r="K370" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L370" t="n">
         <v>1</v>
       </c>
@@ -13940,11 +14172,15 @@
         <v>226794.3258241783</v>
       </c>
       <c r="H371" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I371" t="inlineStr"/>
       <c r="J371" t="inlineStr"/>
-      <c r="K371" t="inlineStr"/>
+      <c r="K371" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L371" t="n">
         <v>1</v>
       </c>
@@ -13973,11 +14209,15 @@
         <v>205435.3168241783</v>
       </c>
       <c r="H372" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I372" t="inlineStr"/>
       <c r="J372" t="inlineStr"/>
-      <c r="K372" t="inlineStr"/>
+      <c r="K372" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L372" t="n">
         <v>1</v>
       </c>
@@ -14006,11 +14246,15 @@
         <v>197703.4013241783</v>
       </c>
       <c r="H373" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I373" t="inlineStr"/>
       <c r="J373" t="inlineStr"/>
-      <c r="K373" t="inlineStr"/>
+      <c r="K373" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L373" t="n">
         <v>1</v>
       </c>
@@ -14039,11 +14283,15 @@
         <v>173287.9609808379</v>
       </c>
       <c r="H374" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I374" t="inlineStr"/>
       <c r="J374" t="inlineStr"/>
-      <c r="K374" t="inlineStr"/>
+      <c r="K374" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L374" t="n">
         <v>1</v>
       </c>
@@ -14072,11 +14320,15 @@
         <v>179753.0620349931</v>
       </c>
       <c r="H375" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I375" t="inlineStr"/>
       <c r="J375" t="inlineStr"/>
-      <c r="K375" t="inlineStr"/>
+      <c r="K375" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L375" t="n">
         <v>1</v>
       </c>
@@ -14109,7 +14361,11 @@
       </c>
       <c r="I376" t="inlineStr"/>
       <c r="J376" t="inlineStr"/>
-      <c r="K376" t="inlineStr"/>
+      <c r="K376" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L376" t="n">
         <v>1</v>
       </c>
@@ -14142,7 +14398,11 @@
       </c>
       <c r="I377" t="inlineStr"/>
       <c r="J377" t="inlineStr"/>
-      <c r="K377" t="inlineStr"/>
+      <c r="K377" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L377" t="n">
         <v>1</v>
       </c>
@@ -14175,7 +14435,11 @@
       </c>
       <c r="I378" t="inlineStr"/>
       <c r="J378" t="inlineStr"/>
-      <c r="K378" t="inlineStr"/>
+      <c r="K378" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L378" t="n">
         <v>1</v>
       </c>
@@ -14208,7 +14472,11 @@
       </c>
       <c r="I379" t="inlineStr"/>
       <c r="J379" t="inlineStr"/>
-      <c r="K379" t="inlineStr"/>
+      <c r="K379" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L379" t="n">
         <v>1</v>
       </c>
@@ -14241,7 +14509,11 @@
       </c>
       <c r="I380" t="inlineStr"/>
       <c r="J380" t="inlineStr"/>
-      <c r="K380" t="inlineStr"/>
+      <c r="K380" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L380" t="n">
         <v>1</v>
       </c>
@@ -14274,7 +14546,11 @@
       </c>
       <c r="I381" t="inlineStr"/>
       <c r="J381" t="inlineStr"/>
-      <c r="K381" t="inlineStr"/>
+      <c r="K381" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L381" t="n">
         <v>1</v>
       </c>
@@ -14307,7 +14583,11 @@
       </c>
       <c r="I382" t="inlineStr"/>
       <c r="J382" t="inlineStr"/>
-      <c r="K382" t="inlineStr"/>
+      <c r="K382" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L382" t="n">
         <v>1</v>
       </c>
@@ -14340,7 +14620,11 @@
       </c>
       <c r="I383" t="inlineStr"/>
       <c r="J383" t="inlineStr"/>
-      <c r="K383" t="inlineStr"/>
+      <c r="K383" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L383" t="n">
         <v>1</v>
       </c>
@@ -14373,7 +14657,11 @@
       </c>
       <c r="I384" t="inlineStr"/>
       <c r="J384" t="inlineStr"/>
-      <c r="K384" t="inlineStr"/>
+      <c r="K384" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L384" t="n">
         <v>1</v>
       </c>
@@ -14406,7 +14694,11 @@
       </c>
       <c r="I385" t="inlineStr"/>
       <c r="J385" t="inlineStr"/>
-      <c r="K385" t="inlineStr"/>
+      <c r="K385" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L385" t="n">
         <v>1</v>
       </c>
@@ -14439,7 +14731,11 @@
       </c>
       <c r="I386" t="inlineStr"/>
       <c r="J386" t="inlineStr"/>
-      <c r="K386" t="inlineStr"/>
+      <c r="K386" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L386" t="n">
         <v>1</v>
       </c>
@@ -14472,7 +14768,11 @@
       </c>
       <c r="I387" t="inlineStr"/>
       <c r="J387" t="inlineStr"/>
-      <c r="K387" t="inlineStr"/>
+      <c r="K387" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L387" t="n">
         <v>1</v>
       </c>
@@ -14505,7 +14805,11 @@
       </c>
       <c r="I388" t="inlineStr"/>
       <c r="J388" t="inlineStr"/>
-      <c r="K388" t="inlineStr"/>
+      <c r="K388" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L388" t="n">
         <v>1</v>
       </c>
@@ -14534,14 +14838,16 @@
         <v>178237.4060787181</v>
       </c>
       <c r="H389" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I389" t="inlineStr"/>
       <c r="J389" t="inlineStr"/>
-      <c r="K389" t="inlineStr"/>
-      <c r="L389" t="n">
-        <v>1</v>
-      </c>
+      <c r="K389" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="L389" t="inlineStr"/>
       <c r="M389" t="inlineStr"/>
     </row>
     <row r="390">
@@ -14567,7 +14873,7 @@
         <v>221163.2024787181</v>
       </c>
       <c r="H390" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I390" t="inlineStr"/>
       <c r="J390" t="inlineStr"/>
@@ -14600,7 +14906,7 @@
         <v>244396.9204059647</v>
       </c>
       <c r="H391" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I391" t="inlineStr"/>
       <c r="J391" t="inlineStr"/>
@@ -14633,7 +14939,7 @@
         <v>199342.5493554588</v>
       </c>
       <c r="H392" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I392" t="inlineStr"/>
       <c r="J392" t="inlineStr"/>
@@ -14666,7 +14972,7 @@
         <v>164824.2778280447</v>
       </c>
       <c r="H393" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I393" t="inlineStr"/>
       <c r="J393" t="inlineStr"/>
@@ -14699,7 +15005,7 @@
         <v>184946.1906280447</v>
       </c>
       <c r="H394" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I394" t="inlineStr"/>
       <c r="J394" t="inlineStr"/>
@@ -14732,7 +15038,7 @@
         <v>95976.78174121109</v>
       </c>
       <c r="H395" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I395" t="inlineStr"/>
       <c r="J395" t="inlineStr"/>
@@ -14765,7 +15071,7 @@
         <v>19217.76634121109</v>
       </c>
       <c r="H396" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I396" t="inlineStr"/>
       <c r="J396" t="inlineStr"/>
@@ -14798,7 +15104,7 @@
         <v>70379.26954121108</v>
       </c>
       <c r="H397" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I397" t="inlineStr"/>
       <c r="J397" t="inlineStr"/>
@@ -14831,7 +15137,7 @@
         <v>30199.22335951219</v>
       </c>
       <c r="H398" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I398" t="inlineStr"/>
       <c r="J398" t="inlineStr"/>
@@ -14864,7 +15170,7 @@
         <v>42045.11655951219</v>
       </c>
       <c r="H399" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I399" t="inlineStr"/>
       <c r="J399" t="inlineStr"/>
@@ -14897,7 +15203,7 @@
         <v>42047.11655951219</v>
       </c>
       <c r="H400" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I400" t="inlineStr"/>
       <c r="J400" t="inlineStr"/>
@@ -14930,7 +15236,7 @@
         <v>71604.64575951219</v>
       </c>
       <c r="H401" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I401" t="inlineStr"/>
       <c r="J401" t="inlineStr"/>
@@ -14963,7 +15269,7 @@
         <v>58680.1388282341</v>
       </c>
       <c r="H402" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I402" t="inlineStr"/>
       <c r="J402" t="inlineStr"/>
@@ -14996,7 +15302,7 @@
         <v>73548.96512823409</v>
       </c>
       <c r="H403" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I403" t="inlineStr"/>
       <c r="J403" t="inlineStr"/>
@@ -15029,7 +15335,7 @@
         <v>118556.461547383</v>
       </c>
       <c r="H404" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I404" t="inlineStr"/>
       <c r="J404" t="inlineStr"/>
@@ -15062,7 +15368,7 @@
         <v>81621.71405448204</v>
       </c>
       <c r="H405" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I405" t="inlineStr"/>
       <c r="J405" t="inlineStr"/>
@@ -15095,7 +15401,7 @@
         <v>90396.7935628713</v>
       </c>
       <c r="H406" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I406" t="inlineStr"/>
       <c r="J406" t="inlineStr"/>
@@ -15128,7 +15434,7 @@
         <v>81498.50533514447</v>
       </c>
       <c r="H407" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I407" t="inlineStr"/>
       <c r="J407" t="inlineStr"/>
@@ -15161,7 +15467,7 @@
         <v>85962.55003514446</v>
       </c>
       <c r="H408" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I408" t="inlineStr"/>
       <c r="J408" t="inlineStr"/>
@@ -15194,7 +15500,7 @@
         <v>85743.61203514447</v>
       </c>
       <c r="H409" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I409" t="inlineStr"/>
       <c r="J409" t="inlineStr"/>
@@ -15227,7 +15533,7 @@
         <v>90319.47623514447</v>
       </c>
       <c r="H410" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I410" t="inlineStr"/>
       <c r="J410" t="inlineStr"/>
@@ -15260,7 +15566,7 @@
         <v>90319.47623514447</v>
       </c>
       <c r="H411" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I411" t="inlineStr"/>
       <c r="J411" t="inlineStr"/>
@@ -15293,7 +15599,7 @@
         <v>90319.47623514447</v>
       </c>
       <c r="H412" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I412" t="inlineStr"/>
       <c r="J412" t="inlineStr"/>
@@ -15326,7 +15632,7 @@
         <v>84001.36753514447</v>
       </c>
       <c r="H413" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I413" t="inlineStr"/>
       <c r="J413" t="inlineStr"/>
@@ -15359,7 +15665,7 @@
         <v>82992.01246464394</v>
       </c>
       <c r="H414" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I414" t="inlineStr"/>
       <c r="J414" t="inlineStr"/>
@@ -15392,7 +15698,7 @@
         <v>126461.0390941434</v>
       </c>
       <c r="H415" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I415" t="inlineStr"/>
       <c r="J415" t="inlineStr"/>
@@ -15425,7 +15731,7 @@
         <v>173947.5469300079</v>
       </c>
       <c r="H416" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I416" t="inlineStr"/>
       <c r="J416" t="inlineStr"/>
@@ -15458,7 +15764,7 @@
         <v>141521.7324683796</v>
       </c>
       <c r="H417" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I417" t="inlineStr"/>
       <c r="J417" t="inlineStr"/>
@@ -15491,7 +15797,7 @@
         <v>112250.6808860779</v>
       </c>
       <c r="H418" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I418" t="inlineStr"/>
       <c r="J418" t="inlineStr"/>
@@ -15524,7 +15830,7 @@
         <v>130764.1240658629</v>
       </c>
       <c r="H419" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I419" t="inlineStr"/>
       <c r="J419" t="inlineStr"/>
@@ -15557,7 +15863,7 @@
         <v>103366.7515948605</v>
       </c>
       <c r="H420" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I420" t="inlineStr"/>
       <c r="J420" t="inlineStr"/>
@@ -15755,7 +16061,7 @@
         <v>105311.8480948605</v>
       </c>
       <c r="H426" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I426" t="inlineStr"/>
       <c r="J426" t="inlineStr"/>
@@ -15821,7 +16127,7 @@
         <v>94720.65309486046</v>
       </c>
       <c r="H428" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I428" t="inlineStr"/>
       <c r="J428" t="inlineStr"/>
@@ -15854,7 +16160,7 @@
         <v>108857.3498948605</v>
       </c>
       <c r="H429" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I429" t="inlineStr"/>
       <c r="J429" t="inlineStr"/>
@@ -15887,7 +16193,7 @@
         <v>126611.5576948605</v>
       </c>
       <c r="H430" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I430" t="inlineStr"/>
       <c r="J430" t="inlineStr"/>
@@ -15920,7 +16226,7 @@
         <v>141800.4868680896</v>
       </c>
       <c r="H431" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I431" t="inlineStr"/>
       <c r="J431" t="inlineStr"/>
@@ -15953,7 +16259,7 @@
         <v>141800.4868680896</v>
       </c>
       <c r="H432" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I432" t="inlineStr"/>
       <c r="J432" t="inlineStr"/>
@@ -15986,7 +16292,7 @@
         <v>140518.0621680896</v>
       </c>
       <c r="H433" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I433" t="inlineStr"/>
       <c r="J433" t="inlineStr"/>
@@ -16019,7 +16325,7 @@
         <v>152293.4529680896</v>
       </c>
       <c r="H434" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I434" t="inlineStr"/>
       <c r="J434" t="inlineStr"/>
@@ -16052,7 +16358,7 @@
         <v>144487.4723680896</v>
       </c>
       <c r="H435" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I435" t="inlineStr"/>
       <c r="J435" t="inlineStr"/>
@@ -16085,7 +16391,7 @@
         <v>151428.3031680896</v>
       </c>
       <c r="H436" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I436" t="inlineStr"/>
       <c r="J436" t="inlineStr"/>
@@ -16118,7 +16424,7 @@
         <v>152754.5411680896</v>
       </c>
       <c r="H437" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I437" t="inlineStr"/>
       <c r="J437" t="inlineStr"/>
@@ -16151,7 +16457,7 @@
         <v>147396.3340680896</v>
       </c>
       <c r="H438" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I438" t="inlineStr"/>
       <c r="J438" t="inlineStr"/>
@@ -16184,7 +16490,7 @@
         <v>147396.3340680896</v>
       </c>
       <c r="H439" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I439" t="inlineStr"/>
       <c r="J439" t="inlineStr"/>
@@ -16217,7 +16523,7 @@
         <v>132482.1346680896</v>
       </c>
       <c r="H440" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I440" t="inlineStr"/>
       <c r="J440" t="inlineStr"/>
@@ -16250,7 +16556,7 @@
         <v>117741.8026680896</v>
       </c>
       <c r="H441" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I441" t="inlineStr"/>
       <c r="J441" t="inlineStr"/>
@@ -16283,7 +16589,7 @@
         <v>146183.3149680896</v>
       </c>
       <c r="H442" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I442" t="inlineStr"/>
       <c r="J442" t="inlineStr"/>
@@ -16316,7 +16622,7 @@
         <v>149722.3535266819</v>
       </c>
       <c r="H443" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I443" t="inlineStr"/>
       <c r="J443" t="inlineStr"/>
@@ -16349,7 +16655,7 @@
         <v>140729.5321266819</v>
       </c>
       <c r="H444" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I444" t="inlineStr"/>
       <c r="J444" t="inlineStr"/>
@@ -16415,7 +16721,7 @@
         <v>157034.3838932163</v>
       </c>
       <c r="H446" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I446" t="inlineStr"/>
       <c r="J446" t="inlineStr"/>
@@ -16514,7 +16820,7 @@
         <v>157342.2073932163</v>
       </c>
       <c r="H449" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I449" t="inlineStr"/>
       <c r="J449" t="inlineStr"/>
@@ -16547,7 +16853,7 @@
         <v>156982.2073932163</v>
       </c>
       <c r="H450" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I450" t="inlineStr"/>
       <c r="J450" t="inlineStr"/>
@@ -16580,7 +16886,7 @@
         <v>151081.9137932163</v>
       </c>
       <c r="H451" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I451" t="inlineStr"/>
       <c r="J451" t="inlineStr"/>
@@ -16613,7 +16919,7 @@
         <v>154200.6672932162</v>
       </c>
       <c r="H452" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I452" t="inlineStr"/>
       <c r="J452" t="inlineStr"/>
@@ -16646,7 +16952,7 @@
         <v>153986.3456932163</v>
       </c>
       <c r="H453" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I453" t="inlineStr"/>
       <c r="J453" t="inlineStr"/>
@@ -16679,7 +16985,7 @@
         <v>153986.3456932163</v>
       </c>
       <c r="H454" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I454" t="inlineStr"/>
       <c r="J454" t="inlineStr"/>
@@ -16712,7 +17018,7 @@
         <v>159307.5719932163</v>
       </c>
       <c r="H455" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I455" t="inlineStr"/>
       <c r="J455" t="inlineStr"/>
@@ -16745,7 +17051,7 @@
         <v>158520.9865932163</v>
       </c>
       <c r="H456" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I456" t="inlineStr"/>
       <c r="J456" t="inlineStr"/>
@@ -16778,7 +17084,7 @@
         <v>162949.0208932162</v>
       </c>
       <c r="H457" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I457" t="inlineStr"/>
       <c r="J457" t="inlineStr"/>
@@ -16811,7 +17117,7 @@
         <v>164944.0428932162</v>
       </c>
       <c r="H458" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I458" t="inlineStr"/>
       <c r="J458" t="inlineStr"/>
@@ -16844,7 +17150,7 @@
         <v>167922.8262932162</v>
       </c>
       <c r="H459" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I459" t="inlineStr"/>
       <c r="J459" t="inlineStr"/>
@@ -16877,7 +17183,7 @@
         <v>167773.6662932162</v>
       </c>
       <c r="H460" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I460" t="inlineStr"/>
       <c r="J460" t="inlineStr"/>
@@ -16910,7 +17216,7 @@
         <v>165746.4060932162</v>
       </c>
       <c r="H461" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I461" t="inlineStr"/>
       <c r="J461" t="inlineStr"/>
@@ -16943,7 +17249,7 @@
         <v>165731.2309932162</v>
       </c>
       <c r="H462" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I462" t="inlineStr"/>
       <c r="J462" t="inlineStr"/>
@@ -16976,7 +17282,7 @@
         <v>167082.5892932162</v>
       </c>
       <c r="H463" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I463" t="inlineStr"/>
       <c r="J463" t="inlineStr"/>
@@ -17009,7 +17315,7 @@
         <v>166010.8259932162</v>
       </c>
       <c r="H464" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I464" t="inlineStr"/>
       <c r="J464" t="inlineStr"/>
@@ -17042,7 +17348,7 @@
         <v>161843.3269932162</v>
       </c>
       <c r="H465" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I465" t="inlineStr"/>
       <c r="J465" t="inlineStr"/>
@@ -17075,7 +17381,7 @@
         <v>162452.4538083066</v>
       </c>
       <c r="H466" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I466" t="inlineStr"/>
       <c r="J466" t="inlineStr"/>
@@ -17108,7 +17414,7 @@
         <v>162352.4538083066</v>
       </c>
       <c r="H467" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I467" t="inlineStr"/>
       <c r="J467" t="inlineStr"/>
@@ -17141,7 +17447,7 @@
         <v>154546.2732083066</v>
       </c>
       <c r="H468" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I468" t="inlineStr"/>
       <c r="J468" t="inlineStr"/>
@@ -17174,7 +17480,7 @@
         <v>163042.3264083066</v>
       </c>
       <c r="H469" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I469" t="inlineStr"/>
       <c r="J469" t="inlineStr"/>
@@ -17207,7 +17513,7 @@
         <v>159528.5097083066</v>
       </c>
       <c r="H470" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I470" t="inlineStr"/>
       <c r="J470" t="inlineStr"/>
@@ -17240,7 +17546,7 @@
         <v>165162.9829083066</v>
       </c>
       <c r="H471" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I471" t="inlineStr"/>
       <c r="J471" t="inlineStr"/>
@@ -17273,7 +17579,7 @@
         <v>163890.8249083066</v>
       </c>
       <c r="H472" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I472" t="inlineStr"/>
       <c r="J472" t="inlineStr"/>
@@ -17306,7 +17612,7 @@
         <v>164290.8249083066</v>
       </c>
       <c r="H473" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I473" t="inlineStr"/>
       <c r="J473" t="inlineStr"/>
@@ -17339,7 +17645,7 @@
         <v>163844.5811083066</v>
       </c>
       <c r="H474" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I474" t="inlineStr"/>
       <c r="J474" t="inlineStr"/>
@@ -17372,7 +17678,7 @@
         <v>163844.5811083066</v>
       </c>
       <c r="H475" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I475" t="inlineStr"/>
       <c r="J475" t="inlineStr"/>
@@ -17405,7 +17711,7 @@
         <v>155645.7643083066</v>
       </c>
       <c r="H476" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I476" t="inlineStr"/>
       <c r="J476" t="inlineStr"/>
@@ -17438,7 +17744,7 @@
         <v>148351.7778083066</v>
       </c>
       <c r="H477" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I477" t="inlineStr"/>
       <c r="J477" t="inlineStr"/>
@@ -17471,7 +17777,7 @@
         <v>149642.6476127756</v>
       </c>
       <c r="H478" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I478" t="inlineStr"/>
       <c r="J478" t="inlineStr"/>
@@ -17504,7 +17810,7 @@
         <v>154118.8904127756</v>
       </c>
       <c r="H479" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I479" t="inlineStr"/>
       <c r="J479" t="inlineStr"/>
@@ -17537,7 +17843,7 @@
         <v>153686.7212212155</v>
       </c>
       <c r="H480" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I480" t="inlineStr"/>
       <c r="J480" t="inlineStr"/>
@@ -17570,7 +17876,7 @@
         <v>153100.6766212155</v>
       </c>
       <c r="H481" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I481" t="inlineStr"/>
       <c r="J481" t="inlineStr"/>
@@ -17603,7 +17909,7 @@
         <v>153100.6766212155</v>
       </c>
       <c r="H482" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I482" t="inlineStr"/>
       <c r="J482" t="inlineStr"/>
@@ -17636,7 +17942,7 @@
         <v>153100.6766212155</v>
       </c>
       <c r="H483" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I483" t="inlineStr"/>
       <c r="J483" t="inlineStr"/>
@@ -17669,7 +17975,7 @@
         <v>148934.0754212155</v>
       </c>
       <c r="H484" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I484" t="inlineStr"/>
       <c r="J484" t="inlineStr"/>
@@ -17702,7 +18008,7 @@
         <v>131773.1255212155</v>
       </c>
       <c r="H485" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I485" t="inlineStr"/>
       <c r="J485" t="inlineStr"/>
@@ -17735,7 +18041,7 @@
         <v>143107.5562212155</v>
       </c>
       <c r="H486" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I486" t="inlineStr"/>
       <c r="J486" t="inlineStr"/>
@@ -17768,7 +18074,7 @@
         <v>109185.0255212155</v>
       </c>
       <c r="H487" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I487" t="inlineStr"/>
       <c r="J487" t="inlineStr"/>
@@ -17801,7 +18107,7 @@
         <v>104037.6242212155</v>
       </c>
       <c r="H488" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I488" t="inlineStr"/>
       <c r="J488" t="inlineStr"/>
@@ -17834,7 +18140,7 @@
         <v>104037.6242212155</v>
       </c>
       <c r="H489" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I489" t="inlineStr"/>
       <c r="J489" t="inlineStr"/>
@@ -17867,7 +18173,7 @@
         <v>115659.1279212155</v>
       </c>
       <c r="H490" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I490" t="inlineStr"/>
       <c r="J490" t="inlineStr"/>
@@ -17900,7 +18206,7 @@
         <v>86677.14952121553</v>
       </c>
       <c r="H491" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I491" t="inlineStr"/>
       <c r="J491" t="inlineStr"/>
@@ -17933,7 +18239,7 @@
         <v>109427.1414212155</v>
       </c>
       <c r="H492" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I492" t="inlineStr"/>
       <c r="J492" t="inlineStr"/>
@@ -17966,7 +18272,7 @@
         <v>108277.1488212155</v>
       </c>
       <c r="H493" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I493" t="inlineStr"/>
       <c r="J493" t="inlineStr"/>
@@ -17999,7 +18305,7 @@
         <v>99937.66312121552</v>
       </c>
       <c r="H494" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I494" t="inlineStr"/>
       <c r="J494" t="inlineStr"/>
@@ -18032,7 +18338,7 @@
         <v>109682.471218563</v>
       </c>
       <c r="H495" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I495" t="inlineStr"/>
       <c r="J495" t="inlineStr"/>
@@ -18065,7 +18371,7 @@
         <v>110359.3704587266</v>
       </c>
       <c r="H496" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I496" t="inlineStr"/>
       <c r="J496" t="inlineStr"/>
@@ -18098,7 +18404,7 @@
         <v>108443.8286356084</v>
       </c>
       <c r="H497" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I497" t="inlineStr"/>
       <c r="J497" t="inlineStr"/>
@@ -18131,7 +18437,7 @@
         <v>106803.1314356084</v>
       </c>
       <c r="H498" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I498" t="inlineStr"/>
       <c r="J498" t="inlineStr"/>
@@ -18164,7 +18470,7 @@
         <v>115354.1833356084</v>
       </c>
       <c r="H499" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I499" t="inlineStr"/>
       <c r="J499" t="inlineStr"/>
@@ -18197,7 +18503,7 @@
         <v>114513.4057356084</v>
       </c>
       <c r="H500" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I500" t="inlineStr"/>
       <c r="J500" t="inlineStr"/>
@@ -18230,7 +18536,7 @@
         <v>114513.4057356084</v>
       </c>
       <c r="H501" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I501" t="inlineStr"/>
       <c r="J501" t="inlineStr"/>
@@ -20441,7 +20747,7 @@
         <v>101625.7910290653</v>
       </c>
       <c r="H568" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I568" t="inlineStr"/>
       <c r="J568" t="inlineStr"/>
@@ -20573,7 +20879,7 @@
         <v>103450.0994290653</v>
       </c>
       <c r="H572" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I572" t="inlineStr"/>
       <c r="J572" t="inlineStr"/>
@@ -20606,7 +20912,7 @@
         <v>103324.4538762072</v>
       </c>
       <c r="H573" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I573" t="inlineStr"/>
       <c r="J573" t="inlineStr"/>
@@ -20936,7 +21242,7 @@
         <v>103173.6699762072</v>
       </c>
       <c r="H583" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I583" t="inlineStr"/>
       <c r="J583" t="inlineStr"/>
@@ -25996,6 +26302,6 @@
       <c r="M736" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-16 BackTest WTC.xlsx
+++ b/BackTest/2020-01-16 BackTest WTC.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -1441,1109 +1441,947 @@
         <v>-69379.69565859994</v>
       </c>
       <c r="H32" t="n">
-        <v>1</v>
-      </c>
-      <c r="I32" t="n">
-        <v>394.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
-      <c r="K32" t="inlineStr">
+      <c r="K32" t="inlineStr"/>
+      <c r="L32" t="n">
+        <v>1</v>
+      </c>
+      <c r="M32" t="inlineStr"/>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="n">
+        <v>394.6</v>
+      </c>
+      <c r="C33" t="n">
+        <v>393.1</v>
+      </c>
+      <c r="D33" t="n">
+        <v>394.6</v>
+      </c>
+      <c r="E33" t="n">
+        <v>393.1</v>
+      </c>
+      <c r="F33" t="n">
+        <v>3215.6939</v>
+      </c>
+      <c r="G33" t="n">
+        <v>-72595.38955859994</v>
+      </c>
+      <c r="H33" t="n">
+        <v>0</v>
+      </c>
+      <c r="I33" t="inlineStr"/>
+      <c r="J33" t="inlineStr"/>
+      <c r="K33" t="inlineStr"/>
+      <c r="L33" t="n">
+        <v>1</v>
+      </c>
+      <c r="M33" t="inlineStr"/>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="n">
+        <v>393</v>
+      </c>
+      <c r="C34" t="n">
+        <v>391.4</v>
+      </c>
+      <c r="D34" t="n">
+        <v>393</v>
+      </c>
+      <c r="E34" t="n">
+        <v>391.4</v>
+      </c>
+      <c r="F34" t="n">
+        <v>204.3945</v>
+      </c>
+      <c r="G34" t="n">
+        <v>-72799.78405859994</v>
+      </c>
+      <c r="H34" t="n">
+        <v>0</v>
+      </c>
+      <c r="I34" t="inlineStr"/>
+      <c r="J34" t="inlineStr"/>
+      <c r="K34" t="inlineStr"/>
+      <c r="L34" t="n">
+        <v>1</v>
+      </c>
+      <c r="M34" t="inlineStr"/>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="n">
+        <v>398.9</v>
+      </c>
+      <c r="C35" t="n">
+        <v>392.5</v>
+      </c>
+      <c r="D35" t="n">
+        <v>419</v>
+      </c>
+      <c r="E35" t="n">
+        <v>392.4</v>
+      </c>
+      <c r="F35" t="n">
+        <v>4453.0761</v>
+      </c>
+      <c r="G35" t="n">
+        <v>-68346.70795859993</v>
+      </c>
+      <c r="H35" t="n">
+        <v>0</v>
+      </c>
+      <c r="I35" t="inlineStr"/>
+      <c r="J35" t="inlineStr"/>
+      <c r="K35" t="inlineStr"/>
+      <c r="L35" t="n">
+        <v>1</v>
+      </c>
+      <c r="M35" t="inlineStr"/>
+    </row>
+    <row r="36">
+      <c r="A36" s="1" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="n">
+        <v>412.4</v>
+      </c>
+      <c r="C36" t="n">
+        <v>392.4</v>
+      </c>
+      <c r="D36" t="n">
+        <v>412.4</v>
+      </c>
+      <c r="E36" t="n">
+        <v>392.4</v>
+      </c>
+      <c r="F36" t="n">
+        <v>222.3152</v>
+      </c>
+      <c r="G36" t="n">
+        <v>-68569.02315859993</v>
+      </c>
+      <c r="H36" t="n">
+        <v>0</v>
+      </c>
+      <c r="I36" t="inlineStr"/>
+      <c r="J36" t="inlineStr"/>
+      <c r="K36" t="inlineStr"/>
+      <c r="L36" t="n">
+        <v>1</v>
+      </c>
+      <c r="M36" t="inlineStr"/>
+    </row>
+    <row r="37">
+      <c r="A37" s="1" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="n">
+        <v>393</v>
+      </c>
+      <c r="C37" t="n">
+        <v>392.4</v>
+      </c>
+      <c r="D37" t="n">
+        <v>393</v>
+      </c>
+      <c r="E37" t="n">
+        <v>392.4</v>
+      </c>
+      <c r="F37" t="n">
+        <v>700</v>
+      </c>
+      <c r="G37" t="n">
+        <v>-68569.02315859993</v>
+      </c>
+      <c r="H37" t="n">
+        <v>0</v>
+      </c>
+      <c r="I37" t="inlineStr"/>
+      <c r="J37" t="inlineStr"/>
+      <c r="K37" t="inlineStr"/>
+      <c r="L37" t="n">
+        <v>1</v>
+      </c>
+      <c r="M37" t="inlineStr"/>
+    </row>
+    <row r="38">
+      <c r="A38" s="1" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="n">
+        <v>395.9</v>
+      </c>
+      <c r="C38" t="n">
+        <v>406.6</v>
+      </c>
+      <c r="D38" t="n">
+        <v>406.6</v>
+      </c>
+      <c r="E38" t="n">
+        <v>395.9</v>
+      </c>
+      <c r="F38" t="n">
+        <v>10.7063</v>
+      </c>
+      <c r="G38" t="n">
+        <v>-68558.31685859992</v>
+      </c>
+      <c r="H38" t="n">
+        <v>0</v>
+      </c>
+      <c r="I38" t="inlineStr"/>
+      <c r="J38" t="inlineStr"/>
+      <c r="K38" t="inlineStr"/>
+      <c r="L38" t="n">
+        <v>1</v>
+      </c>
+      <c r="M38" t="inlineStr"/>
+    </row>
+    <row r="39">
+      <c r="A39" s="1" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="n">
+        <v>392.4</v>
+      </c>
+      <c r="C39" t="n">
+        <v>405.7</v>
+      </c>
+      <c r="D39" t="n">
+        <v>405.7</v>
+      </c>
+      <c r="E39" t="n">
+        <v>391.6</v>
+      </c>
+      <c r="F39" t="n">
+        <v>240.7649</v>
+      </c>
+      <c r="G39" t="n">
+        <v>-68799.08175859992</v>
+      </c>
+      <c r="H39" t="n">
+        <v>0</v>
+      </c>
+      <c r="I39" t="inlineStr"/>
+      <c r="J39" t="inlineStr"/>
+      <c r="K39" t="inlineStr"/>
+      <c r="L39" t="n">
+        <v>1</v>
+      </c>
+      <c r="M39" t="inlineStr"/>
+    </row>
+    <row r="40">
+      <c r="A40" s="1" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="n">
+        <v>396.5</v>
+      </c>
+      <c r="C40" t="n">
+        <v>396.5</v>
+      </c>
+      <c r="D40" t="n">
+        <v>396.5</v>
+      </c>
+      <c r="E40" t="n">
+        <v>396.5</v>
+      </c>
+      <c r="F40" t="n">
+        <v>34</v>
+      </c>
+      <c r="G40" t="n">
+        <v>-68833.08175859992</v>
+      </c>
+      <c r="H40" t="n">
+        <v>0</v>
+      </c>
+      <c r="I40" t="inlineStr"/>
+      <c r="J40" t="inlineStr"/>
+      <c r="K40" t="inlineStr"/>
+      <c r="L40" t="n">
+        <v>1</v>
+      </c>
+      <c r="M40" t="inlineStr"/>
+    </row>
+    <row r="41">
+      <c r="A41" s="1" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="n">
+        <v>397</v>
+      </c>
+      <c r="C41" t="n">
+        <v>397</v>
+      </c>
+      <c r="D41" t="n">
+        <v>397</v>
+      </c>
+      <c r="E41" t="n">
+        <v>397</v>
+      </c>
+      <c r="F41" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="G41" t="n">
+        <v>-68831.78175859991</v>
+      </c>
+      <c r="H41" t="n">
+        <v>0</v>
+      </c>
+      <c r="I41" t="inlineStr"/>
+      <c r="J41" t="inlineStr"/>
+      <c r="K41" t="inlineStr"/>
+      <c r="L41" t="n">
+        <v>1</v>
+      </c>
+      <c r="M41" t="inlineStr"/>
+    </row>
+    <row r="42">
+      <c r="A42" s="1" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="n">
+        <v>397</v>
+      </c>
+      <c r="C42" t="n">
+        <v>397</v>
+      </c>
+      <c r="D42" t="n">
+        <v>397</v>
+      </c>
+      <c r="E42" t="n">
+        <v>397</v>
+      </c>
+      <c r="F42" t="n">
+        <v>16.1326</v>
+      </c>
+      <c r="G42" t="n">
+        <v>-68831.78175859991</v>
+      </c>
+      <c r="H42" t="n">
+        <v>0</v>
+      </c>
+      <c r="I42" t="inlineStr"/>
+      <c r="J42" t="inlineStr"/>
+      <c r="K42" t="inlineStr"/>
+      <c r="L42" t="n">
+        <v>1</v>
+      </c>
+      <c r="M42" t="inlineStr"/>
+    </row>
+    <row r="43">
+      <c r="A43" s="1" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="n">
+        <v>403.6</v>
+      </c>
+      <c r="C43" t="n">
+        <v>406.4</v>
+      </c>
+      <c r="D43" t="n">
+        <v>407.4</v>
+      </c>
+      <c r="E43" t="n">
+        <v>403.6</v>
+      </c>
+      <c r="F43" t="n">
+        <v>1716.3273</v>
+      </c>
+      <c r="G43" t="n">
+        <v>-67115.45445859991</v>
+      </c>
+      <c r="H43" t="n">
+        <v>0</v>
+      </c>
+      <c r="I43" t="inlineStr"/>
+      <c r="J43" t="inlineStr"/>
+      <c r="K43" t="inlineStr"/>
+      <c r="L43" t="n">
+        <v>1</v>
+      </c>
+      <c r="M43" t="inlineStr"/>
+    </row>
+    <row r="44">
+      <c r="A44" s="1" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="n">
+        <v>404</v>
+      </c>
+      <c r="C44" t="n">
+        <v>404</v>
+      </c>
+      <c r="D44" t="n">
+        <v>404</v>
+      </c>
+      <c r="E44" t="n">
+        <v>404</v>
+      </c>
+      <c r="F44" t="n">
+        <v>248.4</v>
+      </c>
+      <c r="G44" t="n">
+        <v>-67363.8544585999</v>
+      </c>
+      <c r="H44" t="n">
+        <v>0</v>
+      </c>
+      <c r="I44" t="inlineStr"/>
+      <c r="J44" t="inlineStr"/>
+      <c r="K44" t="inlineStr"/>
+      <c r="L44" t="n">
+        <v>1</v>
+      </c>
+      <c r="M44" t="inlineStr"/>
+    </row>
+    <row r="45">
+      <c r="A45" s="1" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="n">
+        <v>403.3</v>
+      </c>
+      <c r="C45" t="n">
+        <v>403.3</v>
+      </c>
+      <c r="D45" t="n">
+        <v>403.3</v>
+      </c>
+      <c r="E45" t="n">
+        <v>403.3</v>
+      </c>
+      <c r="F45" t="n">
+        <v>91.52889999999999</v>
+      </c>
+      <c r="G45" t="n">
+        <v>-67455.38335859991</v>
+      </c>
+      <c r="H45" t="n">
+        <v>0</v>
+      </c>
+      <c r="I45" t="inlineStr"/>
+      <c r="J45" t="inlineStr"/>
+      <c r="K45" t="inlineStr"/>
+      <c r="L45" t="n">
+        <v>1</v>
+      </c>
+      <c r="M45" t="inlineStr"/>
+    </row>
+    <row r="46">
+      <c r="A46" s="1" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="n">
+        <v>403.3</v>
+      </c>
+      <c r="C46" t="n">
+        <v>403.3</v>
+      </c>
+      <c r="D46" t="n">
+        <v>403.3</v>
+      </c>
+      <c r="E46" t="n">
+        <v>403.3</v>
+      </c>
+      <c r="F46" t="n">
+        <v>76.2645</v>
+      </c>
+      <c r="G46" t="n">
+        <v>-67455.38335859991</v>
+      </c>
+      <c r="H46" t="n">
+        <v>0</v>
+      </c>
+      <c r="I46" t="inlineStr"/>
+      <c r="J46" t="inlineStr"/>
+      <c r="K46" t="inlineStr"/>
+      <c r="L46" t="n">
+        <v>1</v>
+      </c>
+      <c r="M46" t="inlineStr"/>
+    </row>
+    <row r="47">
+      <c r="A47" s="1" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="n">
+        <v>403.1</v>
+      </c>
+      <c r="C47" t="n">
+        <v>403.1</v>
+      </c>
+      <c r="D47" t="n">
+        <v>403.1</v>
+      </c>
+      <c r="E47" t="n">
+        <v>403.1</v>
+      </c>
+      <c r="F47" t="n">
+        <v>101.3199</v>
+      </c>
+      <c r="G47" t="n">
+        <v>-67556.70325859991</v>
+      </c>
+      <c r="H47" t="n">
+        <v>0</v>
+      </c>
+      <c r="I47" t="inlineStr"/>
+      <c r="J47" t="inlineStr"/>
+      <c r="K47" t="inlineStr"/>
+      <c r="L47" t="n">
+        <v>1</v>
+      </c>
+      <c r="M47" t="inlineStr"/>
+    </row>
+    <row r="48">
+      <c r="A48" s="1" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="n">
+        <v>404</v>
+      </c>
+      <c r="C48" t="n">
+        <v>403.2</v>
+      </c>
+      <c r="D48" t="n">
+        <v>404</v>
+      </c>
+      <c r="E48" t="n">
+        <v>403.2</v>
+      </c>
+      <c r="F48" t="n">
+        <v>572.3368</v>
+      </c>
+      <c r="G48" t="n">
+        <v>-66984.36645859991</v>
+      </c>
+      <c r="H48" t="n">
+        <v>0</v>
+      </c>
+      <c r="I48" t="inlineStr"/>
+      <c r="J48" t="inlineStr"/>
+      <c r="K48" t="inlineStr"/>
+      <c r="L48" t="n">
+        <v>1</v>
+      </c>
+      <c r="M48" t="inlineStr"/>
+    </row>
+    <row r="49">
+      <c r="A49" s="1" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="n">
+        <v>403.2</v>
+      </c>
+      <c r="C49" t="n">
+        <v>403.2</v>
+      </c>
+      <c r="D49" t="n">
+        <v>403.2</v>
+      </c>
+      <c r="E49" t="n">
+        <v>403.2</v>
+      </c>
+      <c r="F49" t="n">
+        <v>78.143</v>
+      </c>
+      <c r="G49" t="n">
+        <v>-66984.36645859991</v>
+      </c>
+      <c r="H49" t="n">
+        <v>0</v>
+      </c>
+      <c r="I49" t="inlineStr"/>
+      <c r="J49" t="inlineStr"/>
+      <c r="K49" t="inlineStr"/>
+      <c r="L49" t="n">
+        <v>1</v>
+      </c>
+      <c r="M49" t="inlineStr"/>
+    </row>
+    <row r="50">
+      <c r="A50" s="1" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="n">
+        <v>403</v>
+      </c>
+      <c r="C50" t="n">
+        <v>403</v>
+      </c>
+      <c r="D50" t="n">
+        <v>403</v>
+      </c>
+      <c r="E50" t="n">
+        <v>403</v>
+      </c>
+      <c r="F50" t="n">
+        <v>89.7274</v>
+      </c>
+      <c r="G50" t="n">
+        <v>-67074.09385859991</v>
+      </c>
+      <c r="H50" t="n">
+        <v>0</v>
+      </c>
+      <c r="I50" t="inlineStr"/>
+      <c r="J50" t="inlineStr"/>
+      <c r="K50" t="inlineStr"/>
+      <c r="L50" t="n">
+        <v>1</v>
+      </c>
+      <c r="M50" t="inlineStr"/>
+    </row>
+    <row r="51">
+      <c r="A51" s="1" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="n">
+        <v>402.1</v>
+      </c>
+      <c r="C51" t="n">
+        <v>398</v>
+      </c>
+      <c r="D51" t="n">
+        <v>402.1</v>
+      </c>
+      <c r="E51" t="n">
+        <v>398</v>
+      </c>
+      <c r="F51" t="n">
+        <v>4579.8775</v>
+      </c>
+      <c r="G51" t="n">
+        <v>-71653.97135859991</v>
+      </c>
+      <c r="H51" t="n">
+        <v>0</v>
+      </c>
+      <c r="I51" t="inlineStr"/>
+      <c r="J51" t="inlineStr"/>
+      <c r="K51" t="inlineStr"/>
+      <c r="L51" t="n">
+        <v>1</v>
+      </c>
+      <c r="M51" t="inlineStr"/>
+    </row>
+    <row r="52">
+      <c r="A52" s="1" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="n">
+        <v>401.1</v>
+      </c>
+      <c r="C52" t="n">
+        <v>401.1</v>
+      </c>
+      <c r="D52" t="n">
+        <v>401.1</v>
+      </c>
+      <c r="E52" t="n">
+        <v>401.1</v>
+      </c>
+      <c r="F52" t="n">
+        <v>2710.5827</v>
+      </c>
+      <c r="G52" t="n">
+        <v>-68943.38865859991</v>
+      </c>
+      <c r="H52" t="n">
+        <v>0</v>
+      </c>
+      <c r="I52" t="inlineStr"/>
+      <c r="J52" t="inlineStr"/>
+      <c r="K52" t="inlineStr"/>
+      <c r="L52" t="n">
+        <v>1</v>
+      </c>
+      <c r="M52" t="inlineStr"/>
+    </row>
+    <row r="53">
+      <c r="A53" s="1" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="n">
+        <v>402.5</v>
+      </c>
+      <c r="C53" t="n">
+        <v>402.5</v>
+      </c>
+      <c r="D53" t="n">
+        <v>402.5</v>
+      </c>
+      <c r="E53" t="n">
+        <v>402.5</v>
+      </c>
+      <c r="F53" t="n">
+        <v>2</v>
+      </c>
+      <c r="G53" t="n">
+        <v>-68941.38865859991</v>
+      </c>
+      <c r="H53" t="n">
+        <v>0</v>
+      </c>
+      <c r="I53" t="inlineStr"/>
+      <c r="J53" t="inlineStr"/>
+      <c r="K53" t="inlineStr"/>
+      <c r="L53" t="n">
+        <v>1</v>
+      </c>
+      <c r="M53" t="inlineStr"/>
+    </row>
+    <row r="54">
+      <c r="A54" s="1" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="n">
+        <v>401</v>
+      </c>
+      <c r="C54" t="n">
+        <v>401</v>
+      </c>
+      <c r="D54" t="n">
+        <v>401</v>
+      </c>
+      <c r="E54" t="n">
+        <v>401</v>
+      </c>
+      <c r="F54" t="n">
+        <v>10</v>
+      </c>
+      <c r="G54" t="n">
+        <v>-68951.38865859991</v>
+      </c>
+      <c r="H54" t="n">
+        <v>0</v>
+      </c>
+      <c r="I54" t="inlineStr"/>
+      <c r="J54" t="inlineStr"/>
+      <c r="K54" t="inlineStr"/>
+      <c r="L54" t="n">
+        <v>1</v>
+      </c>
+      <c r="M54" t="inlineStr"/>
+    </row>
+    <row r="55">
+      <c r="A55" s="1" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="n">
+        <v>401</v>
+      </c>
+      <c r="C55" t="n">
+        <v>401</v>
+      </c>
+      <c r="D55" t="n">
+        <v>401</v>
+      </c>
+      <c r="E55" t="n">
+        <v>401</v>
+      </c>
+      <c r="F55" t="n">
+        <v>24.8753</v>
+      </c>
+      <c r="G55" t="n">
+        <v>-68951.38865859991</v>
+      </c>
+      <c r="H55" t="n">
+        <v>0</v>
+      </c>
+      <c r="I55" t="inlineStr"/>
+      <c r="J55" t="inlineStr"/>
+      <c r="K55" t="inlineStr"/>
+      <c r="L55" t="n">
+        <v>1</v>
+      </c>
+      <c r="M55" t="inlineStr"/>
+    </row>
+    <row r="56">
+      <c r="A56" s="1" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="n">
+        <v>395.9</v>
+      </c>
+      <c r="C56" t="n">
+        <v>395.9</v>
+      </c>
+      <c r="D56" t="n">
+        <v>395.9</v>
+      </c>
+      <c r="E56" t="n">
+        <v>395.9</v>
+      </c>
+      <c r="F56" t="n">
+        <v>205.2213</v>
+      </c>
+      <c r="G56" t="n">
+        <v>-69156.60995859992</v>
+      </c>
+      <c r="H56" t="n">
+        <v>0</v>
+      </c>
+      <c r="I56" t="inlineStr"/>
+      <c r="J56" t="inlineStr"/>
+      <c r="K56" t="inlineStr"/>
+      <c r="L56" t="n">
+        <v>1</v>
+      </c>
+      <c r="M56" t="inlineStr"/>
+    </row>
+    <row r="57">
+      <c r="A57" s="1" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="n">
+        <v>395.8</v>
+      </c>
+      <c r="C57" t="n">
+        <v>395.5</v>
+      </c>
+      <c r="D57" t="n">
+        <v>395.8</v>
+      </c>
+      <c r="E57" t="n">
+        <v>395.5</v>
+      </c>
+      <c r="F57" t="n">
+        <v>3194.8972</v>
+      </c>
+      <c r="G57" t="n">
+        <v>-72351.50715859992</v>
+      </c>
+      <c r="H57" t="n">
+        <v>0</v>
+      </c>
+      <c r="I57" t="inlineStr"/>
+      <c r="J57" t="inlineStr"/>
+      <c r="K57" t="inlineStr"/>
+      <c r="L57" t="n">
+        <v>1</v>
+      </c>
+      <c r="M57" t="inlineStr"/>
+    </row>
+    <row r="58">
+      <c r="A58" s="1" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="n">
+        <v>395</v>
+      </c>
+      <c r="C58" t="n">
+        <v>395</v>
+      </c>
+      <c r="D58" t="n">
+        <v>395</v>
+      </c>
+      <c r="E58" t="n">
+        <v>395</v>
+      </c>
+      <c r="F58" t="n">
+        <v>10</v>
+      </c>
+      <c r="G58" t="n">
+        <v>-72361.50715859992</v>
+      </c>
+      <c r="H58" t="n">
+        <v>0</v>
+      </c>
+      <c r="I58" t="inlineStr"/>
+      <c r="J58" t="inlineStr"/>
+      <c r="K58" t="inlineStr"/>
+      <c r="L58" t="n">
+        <v>1</v>
+      </c>
+      <c r="M58" t="inlineStr"/>
+    </row>
+    <row r="59">
+      <c r="A59" s="1" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="n">
+        <v>395</v>
+      </c>
+      <c r="C59" t="n">
+        <v>395</v>
+      </c>
+      <c r="D59" t="n">
+        <v>395</v>
+      </c>
+      <c r="E59" t="n">
+        <v>395</v>
+      </c>
+      <c r="F59" t="n">
+        <v>9.8727</v>
+      </c>
+      <c r="G59" t="n">
+        <v>-72361.50715859992</v>
+      </c>
+      <c r="H59" t="n">
+        <v>1</v>
+      </c>
+      <c r="I59" t="n">
+        <v>395</v>
+      </c>
+      <c r="J59" t="n">
+        <v>395</v>
+      </c>
+      <c r="K59" t="inlineStr"/>
+      <c r="L59" t="n">
+        <v>1</v>
+      </c>
+      <c r="M59" t="inlineStr"/>
+    </row>
+    <row r="60">
+      <c r="A60" s="1" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="n">
+        <v>392.1</v>
+      </c>
+      <c r="C60" t="n">
+        <v>397</v>
+      </c>
+      <c r="D60" t="n">
+        <v>397</v>
+      </c>
+      <c r="E60" t="n">
+        <v>392.1</v>
+      </c>
+      <c r="F60" t="n">
+        <v>1802</v>
+      </c>
+      <c r="G60" t="n">
+        <v>-70559.50715859992</v>
+      </c>
+      <c r="H60" t="n">
+        <v>1</v>
+      </c>
+      <c r="I60" t="n">
+        <v>395</v>
+      </c>
+      <c r="J60" t="n">
+        <v>395</v>
+      </c>
+      <c r="K60" t="inlineStr">
         <is>
           <t>매수 체결</t>
         </is>
       </c>
-      <c r="L32" t="n">
-        <v>1</v>
-      </c>
-      <c r="M32" t="inlineStr"/>
-    </row>
-    <row r="33">
-      <c r="A33" s="1" t="n">
-        <v>31</v>
-      </c>
-      <c r="B33" t="n">
-        <v>394.6</v>
-      </c>
-      <c r="C33" t="n">
-        <v>393.1</v>
-      </c>
-      <c r="D33" t="n">
-        <v>394.6</v>
-      </c>
-      <c r="E33" t="n">
-        <v>393.1</v>
-      </c>
-      <c r="F33" t="n">
-        <v>3215.6939</v>
-      </c>
-      <c r="G33" t="n">
-        <v>-72595.38955859994</v>
-      </c>
-      <c r="H33" t="n">
-        <v>1</v>
-      </c>
-      <c r="I33" t="n">
-        <v>394.2</v>
-      </c>
-      <c r="J33" t="inlineStr"/>
-      <c r="K33" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L33" t="n">
-        <v>1</v>
-      </c>
-      <c r="M33" t="inlineStr"/>
-    </row>
-    <row r="34">
-      <c r="A34" s="1" t="n">
-        <v>32</v>
-      </c>
-      <c r="B34" t="n">
-        <v>393</v>
-      </c>
-      <c r="C34" t="n">
-        <v>391.4</v>
-      </c>
-      <c r="D34" t="n">
-        <v>393</v>
-      </c>
-      <c r="E34" t="n">
-        <v>391.4</v>
-      </c>
-      <c r="F34" t="n">
-        <v>204.3945</v>
-      </c>
-      <c r="G34" t="n">
-        <v>-72799.78405859994</v>
-      </c>
-      <c r="H34" t="n">
-        <v>1</v>
-      </c>
-      <c r="I34" t="n">
-        <v>393.1</v>
-      </c>
-      <c r="J34" t="inlineStr"/>
-      <c r="K34" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L34" t="n">
-        <v>1</v>
-      </c>
-      <c r="M34" t="inlineStr"/>
-    </row>
-    <row r="35">
-      <c r="A35" s="1" t="n">
-        <v>33</v>
-      </c>
-      <c r="B35" t="n">
-        <v>398.9</v>
-      </c>
-      <c r="C35" t="n">
-        <v>392.5</v>
-      </c>
-      <c r="D35" t="n">
-        <v>419</v>
-      </c>
-      <c r="E35" t="n">
-        <v>392.4</v>
-      </c>
-      <c r="F35" t="n">
-        <v>4453.0761</v>
-      </c>
-      <c r="G35" t="n">
-        <v>-68346.70795859993</v>
-      </c>
-      <c r="H35" t="n">
-        <v>1</v>
-      </c>
-      <c r="I35" t="n">
-        <v>391.4</v>
-      </c>
-      <c r="J35" t="inlineStr"/>
-      <c r="K35" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L35" t="n">
-        <v>1</v>
-      </c>
-      <c r="M35" t="inlineStr"/>
-    </row>
-    <row r="36">
-      <c r="A36" s="1" t="n">
-        <v>34</v>
-      </c>
-      <c r="B36" t="n">
-        <v>412.4</v>
-      </c>
-      <c r="C36" t="n">
-        <v>392.4</v>
-      </c>
-      <c r="D36" t="n">
-        <v>412.4</v>
-      </c>
-      <c r="E36" t="n">
-        <v>392.4</v>
-      </c>
-      <c r="F36" t="n">
-        <v>222.3152</v>
-      </c>
-      <c r="G36" t="n">
-        <v>-68569.02315859993</v>
-      </c>
-      <c r="H36" t="n">
-        <v>1</v>
-      </c>
-      <c r="I36" t="n">
-        <v>392.5</v>
-      </c>
-      <c r="J36" t="inlineStr"/>
-      <c r="K36" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L36" t="n">
-        <v>1</v>
-      </c>
-      <c r="M36" t="inlineStr"/>
-    </row>
-    <row r="37">
-      <c r="A37" s="1" t="n">
-        <v>35</v>
-      </c>
-      <c r="B37" t="n">
-        <v>393</v>
-      </c>
-      <c r="C37" t="n">
-        <v>392.4</v>
-      </c>
-      <c r="D37" t="n">
-        <v>393</v>
-      </c>
-      <c r="E37" t="n">
-        <v>392.4</v>
-      </c>
-      <c r="F37" t="n">
-        <v>700</v>
-      </c>
-      <c r="G37" t="n">
-        <v>-68569.02315859993</v>
-      </c>
-      <c r="H37" t="n">
-        <v>1</v>
-      </c>
-      <c r="I37" t="n">
-        <v>392.4</v>
-      </c>
-      <c r="J37" t="inlineStr"/>
-      <c r="K37" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L37" t="n">
-        <v>1</v>
-      </c>
-      <c r="M37" t="inlineStr"/>
-    </row>
-    <row r="38">
-      <c r="A38" s="1" t="n">
-        <v>36</v>
-      </c>
-      <c r="B38" t="n">
-        <v>395.9</v>
-      </c>
-      <c r="C38" t="n">
-        <v>406.6</v>
-      </c>
-      <c r="D38" t="n">
-        <v>406.6</v>
-      </c>
-      <c r="E38" t="n">
-        <v>395.9</v>
-      </c>
-      <c r="F38" t="n">
-        <v>10.7063</v>
-      </c>
-      <c r="G38" t="n">
-        <v>-68558.31685859992</v>
-      </c>
-      <c r="H38" t="n">
-        <v>1</v>
-      </c>
-      <c r="I38" t="n">
-        <v>392.4</v>
-      </c>
-      <c r="J38" t="inlineStr"/>
-      <c r="K38" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L38" t="n">
-        <v>1</v>
-      </c>
-      <c r="M38" t="inlineStr"/>
-    </row>
-    <row r="39">
-      <c r="A39" s="1" t="n">
-        <v>37</v>
-      </c>
-      <c r="B39" t="n">
-        <v>392.4</v>
-      </c>
-      <c r="C39" t="n">
-        <v>405.7</v>
-      </c>
-      <c r="D39" t="n">
-        <v>405.7</v>
-      </c>
-      <c r="E39" t="n">
-        <v>391.6</v>
-      </c>
-      <c r="F39" t="n">
-        <v>240.7649</v>
-      </c>
-      <c r="G39" t="n">
-        <v>-68799.08175859992</v>
-      </c>
-      <c r="H39" t="n">
-        <v>1</v>
-      </c>
-      <c r="I39" t="n">
-        <v>406.6</v>
-      </c>
-      <c r="J39" t="inlineStr"/>
-      <c r="K39" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L39" t="n">
-        <v>1</v>
-      </c>
-      <c r="M39" t="inlineStr"/>
-    </row>
-    <row r="40">
-      <c r="A40" s="1" t="n">
-        <v>38</v>
-      </c>
-      <c r="B40" t="n">
-        <v>396.5</v>
-      </c>
-      <c r="C40" t="n">
-        <v>396.5</v>
-      </c>
-      <c r="D40" t="n">
-        <v>396.5</v>
-      </c>
-      <c r="E40" t="n">
-        <v>396.5</v>
-      </c>
-      <c r="F40" t="n">
-        <v>34</v>
-      </c>
-      <c r="G40" t="n">
-        <v>-68833.08175859992</v>
-      </c>
-      <c r="H40" t="n">
-        <v>1</v>
-      </c>
-      <c r="I40" t="n">
-        <v>405.7</v>
-      </c>
-      <c r="J40" t="inlineStr"/>
-      <c r="K40" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L40" t="n">
-        <v>1</v>
-      </c>
-      <c r="M40" t="inlineStr"/>
-    </row>
-    <row r="41">
-      <c r="A41" s="1" t="n">
-        <v>39</v>
-      </c>
-      <c r="B41" t="n">
-        <v>397</v>
-      </c>
-      <c r="C41" t="n">
-        <v>397</v>
-      </c>
-      <c r="D41" t="n">
-        <v>397</v>
-      </c>
-      <c r="E41" t="n">
-        <v>397</v>
-      </c>
-      <c r="F41" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="G41" t="n">
-        <v>-68831.78175859991</v>
-      </c>
-      <c r="H41" t="n">
-        <v>1</v>
-      </c>
-      <c r="I41" t="n">
-        <v>396.5</v>
-      </c>
-      <c r="J41" t="inlineStr"/>
-      <c r="K41" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L41" t="n">
-        <v>1</v>
-      </c>
-      <c r="M41" t="inlineStr"/>
-    </row>
-    <row r="42">
-      <c r="A42" s="1" t="n">
-        <v>40</v>
-      </c>
-      <c r="B42" t="n">
-        <v>397</v>
-      </c>
-      <c r="C42" t="n">
-        <v>397</v>
-      </c>
-      <c r="D42" t="n">
-        <v>397</v>
-      </c>
-      <c r="E42" t="n">
-        <v>397</v>
-      </c>
-      <c r="F42" t="n">
-        <v>16.1326</v>
-      </c>
-      <c r="G42" t="n">
-        <v>-68831.78175859991</v>
-      </c>
-      <c r="H42" t="n">
-        <v>1</v>
-      </c>
-      <c r="I42" t="n">
-        <v>397</v>
-      </c>
-      <c r="J42" t="inlineStr"/>
-      <c r="K42" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L42" t="n">
-        <v>1</v>
-      </c>
-      <c r="M42" t="inlineStr"/>
-    </row>
-    <row r="43">
-      <c r="A43" s="1" t="n">
-        <v>41</v>
-      </c>
-      <c r="B43" t="n">
-        <v>403.6</v>
-      </c>
-      <c r="C43" t="n">
-        <v>406.4</v>
-      </c>
-      <c r="D43" t="n">
-        <v>407.4</v>
-      </c>
-      <c r="E43" t="n">
-        <v>403.6</v>
-      </c>
-      <c r="F43" t="n">
-        <v>1716.3273</v>
-      </c>
-      <c r="G43" t="n">
-        <v>-67115.45445859991</v>
-      </c>
-      <c r="H43" t="n">
-        <v>1</v>
-      </c>
-      <c r="I43" t="n">
-        <v>397</v>
-      </c>
-      <c r="J43" t="inlineStr"/>
-      <c r="K43" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L43" t="n">
-        <v>1</v>
-      </c>
-      <c r="M43" t="inlineStr"/>
-    </row>
-    <row r="44">
-      <c r="A44" s="1" t="n">
-        <v>42</v>
-      </c>
-      <c r="B44" t="n">
-        <v>404</v>
-      </c>
-      <c r="C44" t="n">
-        <v>404</v>
-      </c>
-      <c r="D44" t="n">
-        <v>404</v>
-      </c>
-      <c r="E44" t="n">
-        <v>404</v>
-      </c>
-      <c r="F44" t="n">
-        <v>248.4</v>
-      </c>
-      <c r="G44" t="n">
-        <v>-67363.8544585999</v>
-      </c>
-      <c r="H44" t="n">
-        <v>1</v>
-      </c>
-      <c r="I44" t="n">
-        <v>406.4</v>
-      </c>
-      <c r="J44" t="inlineStr"/>
-      <c r="K44" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L44" t="n">
-        <v>1</v>
-      </c>
-      <c r="M44" t="inlineStr"/>
-    </row>
-    <row r="45">
-      <c r="A45" s="1" t="n">
-        <v>43</v>
-      </c>
-      <c r="B45" t="n">
-        <v>403.3</v>
-      </c>
-      <c r="C45" t="n">
-        <v>403.3</v>
-      </c>
-      <c r="D45" t="n">
-        <v>403.3</v>
-      </c>
-      <c r="E45" t="n">
-        <v>403.3</v>
-      </c>
-      <c r="F45" t="n">
-        <v>91.52889999999999</v>
-      </c>
-      <c r="G45" t="n">
-        <v>-67455.38335859991</v>
-      </c>
-      <c r="H45" t="n">
-        <v>1</v>
-      </c>
-      <c r="I45" t="n">
-        <v>404</v>
-      </c>
-      <c r="J45" t="inlineStr"/>
-      <c r="K45" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L45" t="n">
-        <v>1</v>
-      </c>
-      <c r="M45" t="inlineStr"/>
-    </row>
-    <row r="46">
-      <c r="A46" s="1" t="n">
-        <v>44</v>
-      </c>
-      <c r="B46" t="n">
-        <v>403.3</v>
-      </c>
-      <c r="C46" t="n">
-        <v>403.3</v>
-      </c>
-      <c r="D46" t="n">
-        <v>403.3</v>
-      </c>
-      <c r="E46" t="n">
-        <v>403.3</v>
-      </c>
-      <c r="F46" t="n">
-        <v>76.2645</v>
-      </c>
-      <c r="G46" t="n">
-        <v>-67455.38335859991</v>
-      </c>
-      <c r="H46" t="n">
-        <v>1</v>
-      </c>
-      <c r="I46" t="n">
-        <v>403.3</v>
-      </c>
-      <c r="J46" t="inlineStr"/>
-      <c r="K46" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L46" t="n">
-        <v>1</v>
-      </c>
-      <c r="M46" t="inlineStr"/>
-    </row>
-    <row r="47">
-      <c r="A47" s="1" t="n">
-        <v>45</v>
-      </c>
-      <c r="B47" t="n">
-        <v>403.1</v>
-      </c>
-      <c r="C47" t="n">
-        <v>403.1</v>
-      </c>
-      <c r="D47" t="n">
-        <v>403.1</v>
-      </c>
-      <c r="E47" t="n">
-        <v>403.1</v>
-      </c>
-      <c r="F47" t="n">
-        <v>101.3199</v>
-      </c>
-      <c r="G47" t="n">
-        <v>-67556.70325859991</v>
-      </c>
-      <c r="H47" t="n">
-        <v>1</v>
-      </c>
-      <c r="I47" t="n">
-        <v>403.3</v>
-      </c>
-      <c r="J47" t="inlineStr"/>
-      <c r="K47" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L47" t="n">
-        <v>1</v>
-      </c>
-      <c r="M47" t="inlineStr"/>
-    </row>
-    <row r="48">
-      <c r="A48" s="1" t="n">
-        <v>46</v>
-      </c>
-      <c r="B48" t="n">
-        <v>404</v>
-      </c>
-      <c r="C48" t="n">
-        <v>403.2</v>
-      </c>
-      <c r="D48" t="n">
-        <v>404</v>
-      </c>
-      <c r="E48" t="n">
-        <v>403.2</v>
-      </c>
-      <c r="F48" t="n">
-        <v>572.3368</v>
-      </c>
-      <c r="G48" t="n">
-        <v>-66984.36645859991</v>
-      </c>
-      <c r="H48" t="n">
-        <v>1</v>
-      </c>
-      <c r="I48" t="n">
-        <v>403.1</v>
-      </c>
-      <c r="J48" t="inlineStr"/>
-      <c r="K48" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L48" t="n">
-        <v>1</v>
-      </c>
-      <c r="M48" t="inlineStr"/>
-    </row>
-    <row r="49">
-      <c r="A49" s="1" t="n">
-        <v>47</v>
-      </c>
-      <c r="B49" t="n">
-        <v>403.2</v>
-      </c>
-      <c r="C49" t="n">
-        <v>403.2</v>
-      </c>
-      <c r="D49" t="n">
-        <v>403.2</v>
-      </c>
-      <c r="E49" t="n">
-        <v>403.2</v>
-      </c>
-      <c r="F49" t="n">
-        <v>78.143</v>
-      </c>
-      <c r="G49" t="n">
-        <v>-66984.36645859991</v>
-      </c>
-      <c r="H49" t="n">
-        <v>1</v>
-      </c>
-      <c r="I49" t="n">
-        <v>403.2</v>
-      </c>
-      <c r="J49" t="inlineStr"/>
-      <c r="K49" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L49" t="n">
-        <v>1</v>
-      </c>
-      <c r="M49" t="inlineStr"/>
-    </row>
-    <row r="50">
-      <c r="A50" s="1" t="n">
-        <v>48</v>
-      </c>
-      <c r="B50" t="n">
-        <v>403</v>
-      </c>
-      <c r="C50" t="n">
-        <v>403</v>
-      </c>
-      <c r="D50" t="n">
-        <v>403</v>
-      </c>
-      <c r="E50" t="n">
-        <v>403</v>
-      </c>
-      <c r="F50" t="n">
-        <v>89.7274</v>
-      </c>
-      <c r="G50" t="n">
-        <v>-67074.09385859991</v>
-      </c>
-      <c r="H50" t="n">
-        <v>1</v>
-      </c>
-      <c r="I50" t="n">
-        <v>403.2</v>
-      </c>
-      <c r="J50" t="inlineStr"/>
-      <c r="K50" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L50" t="n">
-        <v>1</v>
-      </c>
-      <c r="M50" t="inlineStr"/>
-    </row>
-    <row r="51">
-      <c r="A51" s="1" t="n">
-        <v>49</v>
-      </c>
-      <c r="B51" t="n">
-        <v>402.1</v>
-      </c>
-      <c r="C51" t="n">
-        <v>398</v>
-      </c>
-      <c r="D51" t="n">
-        <v>402.1</v>
-      </c>
-      <c r="E51" t="n">
-        <v>398</v>
-      </c>
-      <c r="F51" t="n">
-        <v>4579.8775</v>
-      </c>
-      <c r="G51" t="n">
-        <v>-71653.97135859991</v>
-      </c>
-      <c r="H51" t="n">
-        <v>1</v>
-      </c>
-      <c r="I51" t="n">
-        <v>403</v>
-      </c>
-      <c r="J51" t="inlineStr"/>
-      <c r="K51" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L51" t="n">
-        <v>1</v>
-      </c>
-      <c r="M51" t="inlineStr"/>
-    </row>
-    <row r="52">
-      <c r="A52" s="1" t="n">
-        <v>50</v>
-      </c>
-      <c r="B52" t="n">
-        <v>401.1</v>
-      </c>
-      <c r="C52" t="n">
-        <v>401.1</v>
-      </c>
-      <c r="D52" t="n">
-        <v>401.1</v>
-      </c>
-      <c r="E52" t="n">
-        <v>401.1</v>
-      </c>
-      <c r="F52" t="n">
-        <v>2710.5827</v>
-      </c>
-      <c r="G52" t="n">
-        <v>-68943.38865859991</v>
-      </c>
-      <c r="H52" t="n">
-        <v>1</v>
-      </c>
-      <c r="I52" t="n">
-        <v>398</v>
-      </c>
-      <c r="J52" t="inlineStr"/>
-      <c r="K52" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L52" t="n">
-        <v>1</v>
-      </c>
-      <c r="M52" t="inlineStr"/>
-    </row>
-    <row r="53">
-      <c r="A53" s="1" t="n">
-        <v>51</v>
-      </c>
-      <c r="B53" t="n">
-        <v>402.5</v>
-      </c>
-      <c r="C53" t="n">
-        <v>402.5</v>
-      </c>
-      <c r="D53" t="n">
-        <v>402.5</v>
-      </c>
-      <c r="E53" t="n">
-        <v>402.5</v>
-      </c>
-      <c r="F53" t="n">
-        <v>2</v>
-      </c>
-      <c r="G53" t="n">
-        <v>-68941.38865859991</v>
-      </c>
-      <c r="H53" t="n">
-        <v>1</v>
-      </c>
-      <c r="I53" t="n">
-        <v>401.1</v>
-      </c>
-      <c r="J53" t="inlineStr"/>
-      <c r="K53" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L53" t="n">
-        <v>1</v>
-      </c>
-      <c r="M53" t="inlineStr"/>
-    </row>
-    <row r="54">
-      <c r="A54" s="1" t="n">
-        <v>52</v>
-      </c>
-      <c r="B54" t="n">
-        <v>401</v>
-      </c>
-      <c r="C54" t="n">
-        <v>401</v>
-      </c>
-      <c r="D54" t="n">
-        <v>401</v>
-      </c>
-      <c r="E54" t="n">
-        <v>401</v>
-      </c>
-      <c r="F54" t="n">
-        <v>10</v>
-      </c>
-      <c r="G54" t="n">
-        <v>-68951.38865859991</v>
-      </c>
-      <c r="H54" t="n">
-        <v>1</v>
-      </c>
-      <c r="I54" t="n">
-        <v>402.5</v>
-      </c>
-      <c r="J54" t="inlineStr"/>
-      <c r="K54" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L54" t="n">
-        <v>1</v>
-      </c>
-      <c r="M54" t="inlineStr"/>
-    </row>
-    <row r="55">
-      <c r="A55" s="1" t="n">
-        <v>53</v>
-      </c>
-      <c r="B55" t="n">
-        <v>401</v>
-      </c>
-      <c r="C55" t="n">
-        <v>401</v>
-      </c>
-      <c r="D55" t="n">
-        <v>401</v>
-      </c>
-      <c r="E55" t="n">
-        <v>401</v>
-      </c>
-      <c r="F55" t="n">
-        <v>24.8753</v>
-      </c>
-      <c r="G55" t="n">
-        <v>-68951.38865859991</v>
-      </c>
-      <c r="H55" t="n">
-        <v>1</v>
-      </c>
-      <c r="I55" t="n">
-        <v>401</v>
-      </c>
-      <c r="J55" t="inlineStr"/>
-      <c r="K55" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L55" t="n">
-        <v>1</v>
-      </c>
-      <c r="M55" t="inlineStr"/>
-    </row>
-    <row r="56">
-      <c r="A56" s="1" t="n">
-        <v>54</v>
-      </c>
-      <c r="B56" t="n">
-        <v>395.9</v>
-      </c>
-      <c r="C56" t="n">
-        <v>395.9</v>
-      </c>
-      <c r="D56" t="n">
-        <v>395.9</v>
-      </c>
-      <c r="E56" t="n">
-        <v>395.9</v>
-      </c>
-      <c r="F56" t="n">
-        <v>205.2213</v>
-      </c>
-      <c r="G56" t="n">
-        <v>-69156.60995859992</v>
-      </c>
-      <c r="H56" t="n">
-        <v>1</v>
-      </c>
-      <c r="I56" t="n">
-        <v>401</v>
-      </c>
-      <c r="J56" t="inlineStr"/>
-      <c r="K56" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L56" t="n">
-        <v>1</v>
-      </c>
-      <c r="M56" t="inlineStr"/>
-    </row>
-    <row r="57">
-      <c r="A57" s="1" t="n">
-        <v>55</v>
-      </c>
-      <c r="B57" t="n">
-        <v>395.8</v>
-      </c>
-      <c r="C57" t="n">
-        <v>395.5</v>
-      </c>
-      <c r="D57" t="n">
-        <v>395.8</v>
-      </c>
-      <c r="E57" t="n">
-        <v>395.5</v>
-      </c>
-      <c r="F57" t="n">
-        <v>3194.8972</v>
-      </c>
-      <c r="G57" t="n">
-        <v>-72351.50715859992</v>
-      </c>
-      <c r="H57" t="n">
-        <v>1</v>
-      </c>
-      <c r="I57" t="n">
-        <v>395.9</v>
-      </c>
-      <c r="J57" t="inlineStr"/>
-      <c r="K57" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L57" t="n">
-        <v>1</v>
-      </c>
-      <c r="M57" t="inlineStr"/>
-    </row>
-    <row r="58">
-      <c r="A58" s="1" t="n">
-        <v>56</v>
-      </c>
-      <c r="B58" t="n">
-        <v>395</v>
-      </c>
-      <c r="C58" t="n">
-        <v>395</v>
-      </c>
-      <c r="D58" t="n">
-        <v>395</v>
-      </c>
-      <c r="E58" t="n">
-        <v>395</v>
-      </c>
-      <c r="F58" t="n">
-        <v>10</v>
-      </c>
-      <c r="G58" t="n">
-        <v>-72361.50715859992</v>
-      </c>
-      <c r="H58" t="n">
-        <v>1</v>
-      </c>
-      <c r="I58" t="n">
-        <v>395.5</v>
-      </c>
-      <c r="J58" t="inlineStr"/>
-      <c r="K58" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L58" t="n">
-        <v>1</v>
-      </c>
-      <c r="M58" t="inlineStr"/>
-    </row>
-    <row r="59">
-      <c r="A59" s="1" t="n">
-        <v>57</v>
-      </c>
-      <c r="B59" t="n">
-        <v>395</v>
-      </c>
-      <c r="C59" t="n">
-        <v>395</v>
-      </c>
-      <c r="D59" t="n">
-        <v>395</v>
-      </c>
-      <c r="E59" t="n">
-        <v>395</v>
-      </c>
-      <c r="F59" t="n">
-        <v>9.8727</v>
-      </c>
-      <c r="G59" t="n">
-        <v>-72361.50715859992</v>
-      </c>
-      <c r="H59" t="n">
-        <v>1</v>
-      </c>
-      <c r="I59" t="n">
-        <v>395</v>
-      </c>
-      <c r="J59" t="inlineStr"/>
-      <c r="K59" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L59" t="n">
-        <v>1</v>
-      </c>
-      <c r="M59" t="inlineStr"/>
-    </row>
-    <row r="60">
-      <c r="A60" s="1" t="n">
-        <v>58</v>
-      </c>
-      <c r="B60" t="n">
-        <v>392.1</v>
-      </c>
-      <c r="C60" t="n">
-        <v>397</v>
-      </c>
-      <c r="D60" t="n">
-        <v>397</v>
-      </c>
-      <c r="E60" t="n">
-        <v>392.1</v>
-      </c>
-      <c r="F60" t="n">
-        <v>1802</v>
-      </c>
-      <c r="G60" t="n">
-        <v>-70559.50715859992</v>
-      </c>
-      <c r="H60" t="n">
-        <v>1</v>
-      </c>
-      <c r="I60" t="n">
-        <v>395</v>
-      </c>
-      <c r="J60" t="inlineStr"/>
-      <c r="K60" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
       <c r="L60" t="n">
         <v>1</v>
       </c>
@@ -2577,7 +2415,9 @@
       <c r="I61" t="n">
         <v>397</v>
       </c>
-      <c r="J61" t="inlineStr"/>
+      <c r="J61" t="n">
+        <v>395</v>
+      </c>
       <c r="K61" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2616,7 +2456,9 @@
       <c r="I62" t="n">
         <v>398</v>
       </c>
-      <c r="J62" t="inlineStr"/>
+      <c r="J62" t="n">
+        <v>395</v>
+      </c>
       <c r="K62" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2655,7 +2497,9 @@
       <c r="I63" t="n">
         <v>398</v>
       </c>
-      <c r="J63" t="inlineStr"/>
+      <c r="J63" t="n">
+        <v>395</v>
+      </c>
       <c r="K63" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2694,7 +2538,9 @@
       <c r="I64" t="n">
         <v>397.2</v>
       </c>
-      <c r="J64" t="inlineStr"/>
+      <c r="J64" t="n">
+        <v>395</v>
+      </c>
       <c r="K64" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2728,12 +2574,12 @@
         <v>-70937.96175859994</v>
       </c>
       <c r="H65" t="n">
-        <v>1</v>
-      </c>
-      <c r="I65" t="n">
-        <v>398.1</v>
-      </c>
-      <c r="J65" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I65" t="inlineStr"/>
+      <c r="J65" t="n">
+        <v>395</v>
+      </c>
       <c r="K65" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2767,12 +2613,12 @@
         <v>-71063.84595859994</v>
       </c>
       <c r="H66" t="n">
-        <v>1</v>
-      </c>
-      <c r="I66" t="n">
-        <v>398</v>
-      </c>
-      <c r="J66" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I66" t="inlineStr"/>
+      <c r="J66" t="n">
+        <v>395</v>
+      </c>
       <c r="K66" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2811,7 +2657,9 @@
       <c r="I67" t="n">
         <v>397.2</v>
       </c>
-      <c r="J67" t="inlineStr"/>
+      <c r="J67" t="n">
+        <v>395</v>
+      </c>
       <c r="K67" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2850,7 +2698,9 @@
       <c r="I68" t="n">
         <v>398</v>
       </c>
-      <c r="J68" t="inlineStr"/>
+      <c r="J68" t="n">
+        <v>395</v>
+      </c>
       <c r="K68" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2889,7 +2739,9 @@
       <c r="I69" t="n">
         <v>397</v>
       </c>
-      <c r="J69" t="inlineStr"/>
+      <c r="J69" t="n">
+        <v>395</v>
+      </c>
       <c r="K69" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2928,7 +2780,9 @@
       <c r="I70" t="n">
         <v>397.8</v>
       </c>
-      <c r="J70" t="inlineStr"/>
+      <c r="J70" t="n">
+        <v>395</v>
+      </c>
       <c r="K70" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2967,7 +2821,9 @@
       <c r="I71" t="n">
         <v>394.3</v>
       </c>
-      <c r="J71" t="inlineStr"/>
+      <c r="J71" t="n">
+        <v>395</v>
+      </c>
       <c r="K71" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3006,7 +2862,9 @@
       <c r="I72" t="n">
         <v>397.8</v>
       </c>
-      <c r="J72" t="inlineStr"/>
+      <c r="J72" t="n">
+        <v>395</v>
+      </c>
       <c r="K72" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3045,7 +2903,9 @@
       <c r="I73" t="n">
         <v>396.2</v>
       </c>
-      <c r="J73" t="inlineStr"/>
+      <c r="J73" t="n">
+        <v>395</v>
+      </c>
       <c r="K73" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3084,7 +2944,9 @@
       <c r="I74" t="n">
         <v>398.9</v>
       </c>
-      <c r="J74" t="inlineStr"/>
+      <c r="J74" t="n">
+        <v>395</v>
+      </c>
       <c r="K74" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3123,7 +2985,9 @@
       <c r="I75" t="n">
         <v>398.9</v>
       </c>
-      <c r="J75" t="inlineStr"/>
+      <c r="J75" t="n">
+        <v>395</v>
+      </c>
       <c r="K75" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3162,7 +3026,9 @@
       <c r="I76" t="n">
         <v>397.9</v>
       </c>
-      <c r="J76" t="inlineStr"/>
+      <c r="J76" t="n">
+        <v>395</v>
+      </c>
       <c r="K76" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3201,7 +3067,9 @@
       <c r="I77" t="n">
         <v>398.8</v>
       </c>
-      <c r="J77" t="inlineStr"/>
+      <c r="J77" t="n">
+        <v>395</v>
+      </c>
       <c r="K77" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3240,7 +3108,9 @@
       <c r="I78" t="n">
         <v>399</v>
       </c>
-      <c r="J78" t="inlineStr"/>
+      <c r="J78" t="n">
+        <v>395</v>
+      </c>
       <c r="K78" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3279,7 +3149,9 @@
       <c r="I79" t="n">
         <v>397</v>
       </c>
-      <c r="J79" t="inlineStr"/>
+      <c r="J79" t="n">
+        <v>395</v>
+      </c>
       <c r="K79" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3318,7 +3190,9 @@
       <c r="I80" t="n">
         <v>398.9</v>
       </c>
-      <c r="J80" t="inlineStr"/>
+      <c r="J80" t="n">
+        <v>395</v>
+      </c>
       <c r="K80" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3352,12 +3226,12 @@
         <v>-66756.80255027703</v>
       </c>
       <c r="H81" t="n">
-        <v>1</v>
-      </c>
-      <c r="I81" t="n">
-        <v>398.9</v>
-      </c>
-      <c r="J81" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I81" t="inlineStr"/>
+      <c r="J81" t="n">
+        <v>395</v>
+      </c>
       <c r="K81" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3396,7 +3270,9 @@
       <c r="I82" t="n">
         <v>398</v>
       </c>
-      <c r="J82" t="inlineStr"/>
+      <c r="J82" t="n">
+        <v>395</v>
+      </c>
       <c r="K82" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3435,7 +3311,9 @@
       <c r="I83" t="n">
         <v>397.9</v>
       </c>
-      <c r="J83" t="inlineStr"/>
+      <c r="J83" t="n">
+        <v>395</v>
+      </c>
       <c r="K83" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3474,7 +3352,9 @@
       <c r="I84" t="n">
         <v>397.7</v>
       </c>
-      <c r="J84" t="inlineStr"/>
+      <c r="J84" t="n">
+        <v>395</v>
+      </c>
       <c r="K84" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3513,7 +3393,9 @@
       <c r="I85" t="n">
         <v>398.8</v>
       </c>
-      <c r="J85" t="inlineStr"/>
+      <c r="J85" t="n">
+        <v>395</v>
+      </c>
       <c r="K85" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3552,7 +3434,9 @@
       <c r="I86" t="n">
         <v>399</v>
       </c>
-      <c r="J86" t="inlineStr"/>
+      <c r="J86" t="n">
+        <v>395</v>
+      </c>
       <c r="K86" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3586,10 +3470,14 @@
         <v>-56081.69255027704</v>
       </c>
       <c r="H87" t="n">
-        <v>0</v>
-      </c>
-      <c r="I87" t="inlineStr"/>
-      <c r="J87" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I87" t="n">
+        <v>400</v>
+      </c>
+      <c r="J87" t="n">
+        <v>395</v>
+      </c>
       <c r="K87" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3628,7 +3516,9 @@
       <c r="I88" t="n">
         <v>400</v>
       </c>
-      <c r="J88" t="inlineStr"/>
+      <c r="J88" t="n">
+        <v>395</v>
+      </c>
       <c r="K88" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3662,10 +3552,14 @@
         <v>-55680.64404195415</v>
       </c>
       <c r="H89" t="n">
-        <v>0</v>
-      </c>
-      <c r="I89" t="inlineStr"/>
-      <c r="J89" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I89" t="n">
+        <v>400.1</v>
+      </c>
+      <c r="J89" t="n">
+        <v>395</v>
+      </c>
       <c r="K89" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3704,7 +3598,9 @@
       <c r="I90" t="n">
         <v>400.4</v>
       </c>
-      <c r="J90" t="inlineStr"/>
+      <c r="J90" t="n">
+        <v>395</v>
+      </c>
       <c r="K90" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3743,7 +3639,9 @@
       <c r="I91" t="n">
         <v>403.4</v>
       </c>
-      <c r="J91" t="inlineStr"/>
+      <c r="J91" t="n">
+        <v>395</v>
+      </c>
       <c r="K91" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3782,7 +3680,9 @@
       <c r="I92" t="n">
         <v>405.6</v>
       </c>
-      <c r="J92" t="inlineStr"/>
+      <c r="J92" t="n">
+        <v>395</v>
+      </c>
       <c r="K92" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3821,7 +3721,9 @@
       <c r="I93" t="n">
         <v>405.7</v>
       </c>
-      <c r="J93" t="inlineStr"/>
+      <c r="J93" t="n">
+        <v>395</v>
+      </c>
       <c r="K93" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3860,7 +3762,9 @@
       <c r="I94" t="n">
         <v>406</v>
       </c>
-      <c r="J94" t="inlineStr"/>
+      <c r="J94" t="n">
+        <v>395</v>
+      </c>
       <c r="K94" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3899,7 +3803,9 @@
       <c r="I95" t="n">
         <v>409.7</v>
       </c>
-      <c r="J95" t="inlineStr"/>
+      <c r="J95" t="n">
+        <v>395</v>
+      </c>
       <c r="K95" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3938,7 +3844,9 @@
       <c r="I96" t="n">
         <v>408.9</v>
       </c>
-      <c r="J96" t="inlineStr"/>
+      <c r="J96" t="n">
+        <v>395</v>
+      </c>
       <c r="K96" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3977,7 +3885,9 @@
       <c r="I97" t="n">
         <v>400.8</v>
       </c>
-      <c r="J97" t="inlineStr"/>
+      <c r="J97" t="n">
+        <v>395</v>
+      </c>
       <c r="K97" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4016,7 +3926,9 @@
       <c r="I98" t="n">
         <v>400.7</v>
       </c>
-      <c r="J98" t="inlineStr"/>
+      <c r="J98" t="n">
+        <v>395</v>
+      </c>
       <c r="K98" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4050,12 +3962,12 @@
         <v>-53856.89244195416</v>
       </c>
       <c r="H99" t="n">
-        <v>1</v>
-      </c>
-      <c r="I99" t="n">
-        <v>408.1</v>
-      </c>
-      <c r="J99" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I99" t="inlineStr"/>
+      <c r="J99" t="n">
+        <v>395</v>
+      </c>
       <c r="K99" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4094,7 +4006,9 @@
       <c r="I100" t="n">
         <v>400.9</v>
       </c>
-      <c r="J100" t="inlineStr"/>
+      <c r="J100" t="n">
+        <v>395</v>
+      </c>
       <c r="K100" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4133,7 +4047,9 @@
       <c r="I101" t="n">
         <v>400.7</v>
       </c>
-      <c r="J101" t="inlineStr"/>
+      <c r="J101" t="n">
+        <v>395</v>
+      </c>
       <c r="K101" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4172,7 +4088,9 @@
       <c r="I102" t="n">
         <v>400</v>
       </c>
-      <c r="J102" t="inlineStr"/>
+      <c r="J102" t="n">
+        <v>395</v>
+      </c>
       <c r="K102" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4211,7 +4129,9 @@
       <c r="I103" t="n">
         <v>400</v>
       </c>
-      <c r="J103" t="inlineStr"/>
+      <c r="J103" t="n">
+        <v>395</v>
+      </c>
       <c r="K103" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4250,7 +4170,9 @@
       <c r="I104" t="n">
         <v>403.9</v>
       </c>
-      <c r="J104" t="inlineStr"/>
+      <c r="J104" t="n">
+        <v>395</v>
+      </c>
       <c r="K104" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4289,7 +4211,9 @@
       <c r="I105" t="n">
         <v>403.9</v>
       </c>
-      <c r="J105" t="inlineStr"/>
+      <c r="J105" t="n">
+        <v>395</v>
+      </c>
       <c r="K105" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4328,7 +4252,9 @@
       <c r="I106" t="n">
         <v>403.8</v>
       </c>
-      <c r="J106" t="inlineStr"/>
+      <c r="J106" t="n">
+        <v>395</v>
+      </c>
       <c r="K106" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4367,7 +4293,9 @@
       <c r="I107" t="n">
         <v>400.3</v>
       </c>
-      <c r="J107" t="inlineStr"/>
+      <c r="J107" t="n">
+        <v>395</v>
+      </c>
       <c r="K107" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4406,7 +4334,9 @@
       <c r="I108" t="n">
         <v>401.2</v>
       </c>
-      <c r="J108" t="inlineStr"/>
+      <c r="J108" t="n">
+        <v>395</v>
+      </c>
       <c r="K108" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4445,7 +4375,9 @@
       <c r="I109" t="n">
         <v>395</v>
       </c>
-      <c r="J109" t="inlineStr"/>
+      <c r="J109" t="n">
+        <v>395</v>
+      </c>
       <c r="K109" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4484,7 +4416,9 @@
       <c r="I110" t="n">
         <v>395</v>
       </c>
-      <c r="J110" t="inlineStr"/>
+      <c r="J110" t="n">
+        <v>395</v>
+      </c>
       <c r="K110" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4523,7 +4457,9 @@
       <c r="I111" t="n">
         <v>397.9</v>
       </c>
-      <c r="J111" t="inlineStr"/>
+      <c r="J111" t="n">
+        <v>395</v>
+      </c>
       <c r="K111" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4562,7 +4498,9 @@
       <c r="I112" t="n">
         <v>392.1</v>
       </c>
-      <c r="J112" t="inlineStr"/>
+      <c r="J112" t="n">
+        <v>395</v>
+      </c>
       <c r="K112" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4601,7 +4539,9 @@
       <c r="I113" t="n">
         <v>392.1</v>
       </c>
-      <c r="J113" t="inlineStr"/>
+      <c r="J113" t="n">
+        <v>395</v>
+      </c>
       <c r="K113" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4640,7 +4580,9 @@
       <c r="I114" t="n">
         <v>398</v>
       </c>
-      <c r="J114" t="inlineStr"/>
+      <c r="J114" t="n">
+        <v>395</v>
+      </c>
       <c r="K114" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4679,7 +4621,9 @@
       <c r="I115" t="n">
         <v>399</v>
       </c>
-      <c r="J115" t="inlineStr"/>
+      <c r="J115" t="n">
+        <v>395</v>
+      </c>
       <c r="K115" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4718,7 +4662,9 @@
       <c r="I116" t="n">
         <v>401.9</v>
       </c>
-      <c r="J116" t="inlineStr"/>
+      <c r="J116" t="n">
+        <v>395</v>
+      </c>
       <c r="K116" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4757,7 +4703,9 @@
       <c r="I117" t="n">
         <v>399</v>
       </c>
-      <c r="J117" t="inlineStr"/>
+      <c r="J117" t="n">
+        <v>395</v>
+      </c>
       <c r="K117" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4796,7 +4744,9 @@
       <c r="I118" t="n">
         <v>401.4</v>
       </c>
-      <c r="J118" t="inlineStr"/>
+      <c r="J118" t="n">
+        <v>395</v>
+      </c>
       <c r="K118" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4830,12 +4780,12 @@
         <v>-55619.16994195415</v>
       </c>
       <c r="H119" t="n">
-        <v>1</v>
-      </c>
-      <c r="I119" t="n">
-        <v>406.1</v>
-      </c>
-      <c r="J119" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I119" t="inlineStr"/>
+      <c r="J119" t="n">
+        <v>395</v>
+      </c>
       <c r="K119" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4869,12 +4819,12 @@
         <v>-55619.16994195415</v>
       </c>
       <c r="H120" t="n">
-        <v>1</v>
-      </c>
-      <c r="I120" t="n">
-        <v>406.1</v>
-      </c>
-      <c r="J120" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I120" t="inlineStr"/>
+      <c r="J120" t="n">
+        <v>395</v>
+      </c>
       <c r="K120" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4908,12 +4858,12 @@
         <v>-54710.08494195416</v>
       </c>
       <c r="H121" t="n">
-        <v>1</v>
-      </c>
-      <c r="I121" t="n">
-        <v>406.1</v>
-      </c>
-      <c r="J121" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I121" t="inlineStr"/>
+      <c r="J121" t="n">
+        <v>395</v>
+      </c>
       <c r="K121" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4947,12 +4897,12 @@
         <v>-55139.35264195415</v>
       </c>
       <c r="H122" t="n">
-        <v>1</v>
-      </c>
-      <c r="I122" t="n">
-        <v>414</v>
-      </c>
-      <c r="J122" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I122" t="inlineStr"/>
+      <c r="J122" t="n">
+        <v>395</v>
+      </c>
       <c r="K122" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4989,7 +4939,9 @@
         <v>0</v>
       </c>
       <c r="I123" t="inlineStr"/>
-      <c r="J123" t="inlineStr"/>
+      <c r="J123" t="n">
+        <v>395</v>
+      </c>
       <c r="K123" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5023,12 +4975,12 @@
         <v>-54868.92844195415</v>
       </c>
       <c r="H124" t="n">
-        <v>1</v>
-      </c>
-      <c r="I124" t="n">
-        <v>406.1</v>
-      </c>
-      <c r="J124" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I124" t="inlineStr"/>
+      <c r="J124" t="n">
+        <v>395</v>
+      </c>
       <c r="K124" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5062,12 +5014,12 @@
         <v>-55138.01924195415</v>
       </c>
       <c r="H125" t="n">
-        <v>1</v>
-      </c>
-      <c r="I125" t="n">
-        <v>407</v>
-      </c>
-      <c r="J125" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I125" t="inlineStr"/>
+      <c r="J125" t="n">
+        <v>395</v>
+      </c>
       <c r="K125" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5101,12 +5053,12 @@
         <v>-56488.01924195415</v>
       </c>
       <c r="H126" t="n">
-        <v>1</v>
-      </c>
-      <c r="I126" t="n">
-        <v>406.2</v>
-      </c>
-      <c r="J126" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I126" t="inlineStr"/>
+      <c r="J126" t="n">
+        <v>395</v>
+      </c>
       <c r="K126" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5140,12 +5092,12 @@
         <v>-56455.41024195415</v>
       </c>
       <c r="H127" t="n">
-        <v>1</v>
-      </c>
-      <c r="I127" t="n">
-        <v>406.1</v>
-      </c>
-      <c r="J127" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I127" t="inlineStr"/>
+      <c r="J127" t="n">
+        <v>395</v>
+      </c>
       <c r="K127" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5179,12 +5131,12 @@
         <v>54723.74665804585</v>
       </c>
       <c r="H128" t="n">
-        <v>1</v>
-      </c>
-      <c r="I128" t="n">
-        <v>406.2</v>
-      </c>
-      <c r="J128" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I128" t="inlineStr"/>
+      <c r="J128" t="n">
+        <v>395</v>
+      </c>
       <c r="K128" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5221,7 +5173,9 @@
         <v>0</v>
       </c>
       <c r="I129" t="inlineStr"/>
-      <c r="J129" t="inlineStr"/>
+      <c r="J129" t="n">
+        <v>395</v>
+      </c>
       <c r="K129" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5255,19 +5209,23 @@
         <v>-21160.433666821</v>
       </c>
       <c r="H130" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I130" t="inlineStr"/>
-      <c r="J130" t="inlineStr"/>
+      <c r="J130" t="n">
+        <v>395</v>
+      </c>
       <c r="K130" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매도 체결</t>
         </is>
       </c>
       <c r="L130" t="n">
-        <v>1</v>
-      </c>
-      <c r="M130" t="inlineStr"/>
+        <v>1.108670886075949</v>
+      </c>
+      <c r="M130" t="n">
+        <v>1.088400613183444</v>
+      </c>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
@@ -5296,11 +5254,7 @@
       </c>
       <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
-      <c r="K131" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K131" t="inlineStr"/>
       <c r="L131" t="n">
         <v>1</v>
       </c>
@@ -5329,15 +5283,11 @@
         <v>141555.0159423261</v>
       </c>
       <c r="H132" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
-      <c r="K132" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K132" t="inlineStr"/>
       <c r="L132" t="n">
         <v>1</v>
       </c>
@@ -5366,15 +5316,11 @@
         <v>23264.69801944308</v>
       </c>
       <c r="H133" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
-      <c r="K133" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K133" t="inlineStr"/>
       <c r="L133" t="n">
         <v>1</v>
       </c>
@@ -5403,15 +5349,11 @@
         <v>104329.9446292272</v>
       </c>
       <c r="H134" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
-      <c r="K134" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K134" t="inlineStr"/>
       <c r="L134" t="n">
         <v>1</v>
       </c>
@@ -5440,15 +5382,11 @@
         <v>75972.54761158749</v>
       </c>
       <c r="H135" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
-      <c r="K135" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K135" t="inlineStr"/>
       <c r="L135" t="n">
         <v>1</v>
       </c>
@@ -5477,15 +5415,11 @@
         <v>60207.25371158749</v>
       </c>
       <c r="H136" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
-      <c r="K136" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K136" t="inlineStr"/>
       <c r="L136" t="n">
         <v>1</v>
       </c>
@@ -5514,15 +5448,11 @@
         <v>47863.19841158749</v>
       </c>
       <c r="H137" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
-      <c r="K137" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K137" t="inlineStr"/>
       <c r="L137" t="n">
         <v>1</v>
       </c>
@@ -5551,15 +5481,11 @@
         <v>33164.88291158748</v>
       </c>
       <c r="H138" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
-      <c r="K138" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K138" t="inlineStr"/>
       <c r="L138" t="n">
         <v>1</v>
       </c>
@@ -5588,15 +5514,11 @@
         <v>18918.19021158748</v>
       </c>
       <c r="H139" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
-      <c r="K139" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K139" t="inlineStr"/>
       <c r="L139" t="n">
         <v>1</v>
       </c>
@@ -5629,11 +5551,7 @@
       </c>
       <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
-      <c r="K140" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K140" t="inlineStr"/>
       <c r="L140" t="n">
         <v>1</v>
       </c>
@@ -5666,11 +5584,7 @@
       </c>
       <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
-      <c r="K141" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K141" t="inlineStr"/>
       <c r="L141" t="n">
         <v>1</v>
       </c>
@@ -5703,11 +5617,7 @@
       </c>
       <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
-      <c r="K142" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K142" t="inlineStr"/>
       <c r="L142" t="n">
         <v>1</v>
       </c>
@@ -5740,11 +5650,7 @@
       </c>
       <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
-      <c r="K143" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K143" t="inlineStr"/>
       <c r="L143" t="n">
         <v>1</v>
       </c>
@@ -5777,11 +5683,7 @@
       </c>
       <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
-      <c r="K144" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K144" t="inlineStr"/>
       <c r="L144" t="n">
         <v>1</v>
       </c>
@@ -5814,11 +5716,7 @@
       </c>
       <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr"/>
-      <c r="K145" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K145" t="inlineStr"/>
       <c r="L145" t="n">
         <v>1</v>
       </c>
@@ -5851,11 +5749,7 @@
       </c>
       <c r="I146" t="inlineStr"/>
       <c r="J146" t="inlineStr"/>
-      <c r="K146" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K146" t="inlineStr"/>
       <c r="L146" t="n">
         <v>1</v>
       </c>
@@ -5888,11 +5782,7 @@
       </c>
       <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr"/>
-      <c r="K147" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K147" t="inlineStr"/>
       <c r="L147" t="n">
         <v>1</v>
       </c>
@@ -5925,11 +5815,7 @@
       </c>
       <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr"/>
-      <c r="K148" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K148" t="inlineStr"/>
       <c r="L148" t="n">
         <v>1</v>
       </c>
@@ -5962,11 +5848,7 @@
       </c>
       <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr"/>
-      <c r="K149" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K149" t="inlineStr"/>
       <c r="L149" t="n">
         <v>1</v>
       </c>
@@ -5999,11 +5881,7 @@
       </c>
       <c r="I150" t="inlineStr"/>
       <c r="J150" t="inlineStr"/>
-      <c r="K150" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K150" t="inlineStr"/>
       <c r="L150" t="n">
         <v>1</v>
       </c>
@@ -6036,11 +5914,7 @@
       </c>
       <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr"/>
-      <c r="K151" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K151" t="inlineStr"/>
       <c r="L151" t="n">
         <v>1</v>
       </c>
@@ -6073,11 +5947,7 @@
       </c>
       <c r="I152" t="inlineStr"/>
       <c r="J152" t="inlineStr"/>
-      <c r="K152" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K152" t="inlineStr"/>
       <c r="L152" t="n">
         <v>1</v>
       </c>
@@ -6110,11 +5980,7 @@
       </c>
       <c r="I153" t="inlineStr"/>
       <c r="J153" t="inlineStr"/>
-      <c r="K153" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K153" t="inlineStr"/>
       <c r="L153" t="n">
         <v>1</v>
       </c>
@@ -6147,11 +6013,7 @@
       </c>
       <c r="I154" t="inlineStr"/>
       <c r="J154" t="inlineStr"/>
-      <c r="K154" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K154" t="inlineStr"/>
       <c r="L154" t="n">
         <v>1</v>
       </c>
@@ -6184,11 +6046,7 @@
       </c>
       <c r="I155" t="inlineStr"/>
       <c r="J155" t="inlineStr"/>
-      <c r="K155" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K155" t="inlineStr"/>
       <c r="L155" t="n">
         <v>1</v>
       </c>
@@ -6217,15 +6075,11 @@
         <v>104479.4822115875</v>
       </c>
       <c r="H156" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I156" t="inlineStr"/>
       <c r="J156" t="inlineStr"/>
-      <c r="K156" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K156" t="inlineStr"/>
       <c r="L156" t="n">
         <v>1</v>
       </c>
@@ -6254,15 +6108,11 @@
         <v>106287.7229115875</v>
       </c>
       <c r="H157" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I157" t="inlineStr"/>
       <c r="J157" t="inlineStr"/>
-      <c r="K157" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K157" t="inlineStr"/>
       <c r="L157" t="n">
         <v>1</v>
       </c>
@@ -6291,15 +6141,11 @@
         <v>105196.3430115875</v>
       </c>
       <c r="H158" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I158" t="inlineStr"/>
       <c r="J158" t="inlineStr"/>
-      <c r="K158" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K158" t="inlineStr"/>
       <c r="L158" t="n">
         <v>1</v>
       </c>
@@ -6328,15 +6174,11 @@
         <v>100179.5457115875</v>
       </c>
       <c r="H159" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I159" t="inlineStr"/>
       <c r="J159" t="inlineStr"/>
-      <c r="K159" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K159" t="inlineStr"/>
       <c r="L159" t="n">
         <v>1</v>
       </c>
@@ -6365,15 +6207,11 @@
         <v>98622.29571158747</v>
       </c>
       <c r="H160" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I160" t="inlineStr"/>
       <c r="J160" t="inlineStr"/>
-      <c r="K160" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K160" t="inlineStr"/>
       <c r="L160" t="n">
         <v>1</v>
       </c>
@@ -6402,15 +6240,11 @@
         <v>108740.0917115875</v>
       </c>
       <c r="H161" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I161" t="inlineStr"/>
       <c r="J161" t="inlineStr"/>
-      <c r="K161" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K161" t="inlineStr"/>
       <c r="L161" t="n">
         <v>1</v>
       </c>
@@ -6439,15 +6273,11 @@
         <v>81996.85301158747</v>
       </c>
       <c r="H162" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I162" t="inlineStr"/>
       <c r="J162" t="inlineStr"/>
-      <c r="K162" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K162" t="inlineStr"/>
       <c r="L162" t="n">
         <v>1</v>
       </c>
@@ -6480,11 +6310,7 @@
       </c>
       <c r="I163" t="inlineStr"/>
       <c r="J163" t="inlineStr"/>
-      <c r="K163" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K163" t="inlineStr"/>
       <c r="L163" t="n">
         <v>1</v>
       </c>
@@ -6517,11 +6343,7 @@
       </c>
       <c r="I164" t="inlineStr"/>
       <c r="J164" t="inlineStr"/>
-      <c r="K164" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K164" t="inlineStr"/>
       <c r="L164" t="n">
         <v>1</v>
       </c>
@@ -6550,15 +6372,11 @@
         <v>96998.05491158747</v>
       </c>
       <c r="H165" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I165" t="inlineStr"/>
       <c r="J165" t="inlineStr"/>
-      <c r="K165" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K165" t="inlineStr"/>
       <c r="L165" t="n">
         <v>1</v>
       </c>
@@ -6587,15 +6405,11 @@
         <v>94122.01711158747</v>
       </c>
       <c r="H166" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I166" t="inlineStr"/>
       <c r="J166" t="inlineStr"/>
-      <c r="K166" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K166" t="inlineStr"/>
       <c r="L166" t="n">
         <v>1</v>
       </c>
@@ -6628,11 +6442,7 @@
       </c>
       <c r="I167" t="inlineStr"/>
       <c r="J167" t="inlineStr"/>
-      <c r="K167" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K167" t="inlineStr"/>
       <c r="L167" t="n">
         <v>1</v>
       </c>
@@ -6665,11 +6475,7 @@
       </c>
       <c r="I168" t="inlineStr"/>
       <c r="J168" t="inlineStr"/>
-      <c r="K168" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K168" t="inlineStr"/>
       <c r="L168" t="n">
         <v>1</v>
       </c>
@@ -6702,11 +6508,7 @@
       </c>
       <c r="I169" t="inlineStr"/>
       <c r="J169" t="inlineStr"/>
-      <c r="K169" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K169" t="inlineStr"/>
       <c r="L169" t="n">
         <v>1</v>
       </c>
@@ -6739,11 +6541,7 @@
       </c>
       <c r="I170" t="inlineStr"/>
       <c r="J170" t="inlineStr"/>
-      <c r="K170" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K170" t="inlineStr"/>
       <c r="L170" t="n">
         <v>1</v>
       </c>
@@ -6776,11 +6574,7 @@
       </c>
       <c r="I171" t="inlineStr"/>
       <c r="J171" t="inlineStr"/>
-      <c r="K171" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K171" t="inlineStr"/>
       <c r="L171" t="n">
         <v>1</v>
       </c>
@@ -6813,11 +6607,7 @@
       </c>
       <c r="I172" t="inlineStr"/>
       <c r="J172" t="inlineStr"/>
-      <c r="K172" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K172" t="inlineStr"/>
       <c r="L172" t="n">
         <v>1</v>
       </c>
@@ -6850,11 +6640,7 @@
       </c>
       <c r="I173" t="inlineStr"/>
       <c r="J173" t="inlineStr"/>
-      <c r="K173" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K173" t="inlineStr"/>
       <c r="L173" t="n">
         <v>1</v>
       </c>
@@ -6887,11 +6673,7 @@
       </c>
       <c r="I174" t="inlineStr"/>
       <c r="J174" t="inlineStr"/>
-      <c r="K174" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K174" t="inlineStr"/>
       <c r="L174" t="n">
         <v>1</v>
       </c>
@@ -6924,11 +6706,7 @@
       </c>
       <c r="I175" t="inlineStr"/>
       <c r="J175" t="inlineStr"/>
-      <c r="K175" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K175" t="inlineStr"/>
       <c r="L175" t="n">
         <v>1</v>
       </c>
@@ -6961,11 +6739,7 @@
       </c>
       <c r="I176" t="inlineStr"/>
       <c r="J176" t="inlineStr"/>
-      <c r="K176" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K176" t="inlineStr"/>
       <c r="L176" t="n">
         <v>1</v>
       </c>
@@ -6998,11 +6772,7 @@
       </c>
       <c r="I177" t="inlineStr"/>
       <c r="J177" t="inlineStr"/>
-      <c r="K177" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K177" t="inlineStr"/>
       <c r="L177" t="n">
         <v>1</v>
       </c>
@@ -7035,11 +6805,7 @@
       </c>
       <c r="I178" t="inlineStr"/>
       <c r="J178" t="inlineStr"/>
-      <c r="K178" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K178" t="inlineStr"/>
       <c r="L178" t="n">
         <v>1</v>
       </c>
@@ -7072,11 +6838,7 @@
       </c>
       <c r="I179" t="inlineStr"/>
       <c r="J179" t="inlineStr"/>
-      <c r="K179" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K179" t="inlineStr"/>
       <c r="L179" t="n">
         <v>1</v>
       </c>
@@ -7109,11 +6871,7 @@
       </c>
       <c r="I180" t="inlineStr"/>
       <c r="J180" t="inlineStr"/>
-      <c r="K180" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K180" t="inlineStr"/>
       <c r="L180" t="n">
         <v>1</v>
       </c>
@@ -7146,11 +6904,7 @@
       </c>
       <c r="I181" t="inlineStr"/>
       <c r="J181" t="inlineStr"/>
-      <c r="K181" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K181" t="inlineStr"/>
       <c r="L181" t="n">
         <v>1</v>
       </c>
@@ -7183,11 +6937,7 @@
       </c>
       <c r="I182" t="inlineStr"/>
       <c r="J182" t="inlineStr"/>
-      <c r="K182" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K182" t="inlineStr"/>
       <c r="L182" t="n">
         <v>1</v>
       </c>
@@ -7220,11 +6970,7 @@
       </c>
       <c r="I183" t="inlineStr"/>
       <c r="J183" t="inlineStr"/>
-      <c r="K183" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K183" t="inlineStr"/>
       <c r="L183" t="n">
         <v>1</v>
       </c>
@@ -7257,11 +7003,7 @@
       </c>
       <c r="I184" t="inlineStr"/>
       <c r="J184" t="inlineStr"/>
-      <c r="K184" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K184" t="inlineStr"/>
       <c r="L184" t="n">
         <v>1</v>
       </c>
@@ -7294,11 +7036,7 @@
       </c>
       <c r="I185" t="inlineStr"/>
       <c r="J185" t="inlineStr"/>
-      <c r="K185" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K185" t="inlineStr"/>
       <c r="L185" t="n">
         <v>1</v>
       </c>
@@ -7331,11 +7069,7 @@
       </c>
       <c r="I186" t="inlineStr"/>
       <c r="J186" t="inlineStr"/>
-      <c r="K186" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K186" t="inlineStr"/>
       <c r="L186" t="n">
         <v>1</v>
       </c>
@@ -7368,11 +7102,7 @@
       </c>
       <c r="I187" t="inlineStr"/>
       <c r="J187" t="inlineStr"/>
-      <c r="K187" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K187" t="inlineStr"/>
       <c r="L187" t="n">
         <v>1</v>
       </c>
@@ -7405,11 +7135,7 @@
       </c>
       <c r="I188" t="inlineStr"/>
       <c r="J188" t="inlineStr"/>
-      <c r="K188" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K188" t="inlineStr"/>
       <c r="L188" t="n">
         <v>1</v>
       </c>
@@ -7442,11 +7168,7 @@
       </c>
       <c r="I189" t="inlineStr"/>
       <c r="J189" t="inlineStr"/>
-      <c r="K189" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K189" t="inlineStr"/>
       <c r="L189" t="n">
         <v>1</v>
       </c>
@@ -7479,11 +7201,7 @@
       </c>
       <c r="I190" t="inlineStr"/>
       <c r="J190" t="inlineStr"/>
-      <c r="K190" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K190" t="inlineStr"/>
       <c r="L190" t="n">
         <v>1</v>
       </c>
@@ -7516,11 +7234,7 @@
       </c>
       <c r="I191" t="inlineStr"/>
       <c r="J191" t="inlineStr"/>
-      <c r="K191" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K191" t="inlineStr"/>
       <c r="L191" t="n">
         <v>1</v>
       </c>
@@ -7553,11 +7267,7 @@
       </c>
       <c r="I192" t="inlineStr"/>
       <c r="J192" t="inlineStr"/>
-      <c r="K192" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K192" t="inlineStr"/>
       <c r="L192" t="n">
         <v>1</v>
       </c>
@@ -7590,11 +7300,7 @@
       </c>
       <c r="I193" t="inlineStr"/>
       <c r="J193" t="inlineStr"/>
-      <c r="K193" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K193" t="inlineStr"/>
       <c r="L193" t="n">
         <v>1</v>
       </c>
@@ -7627,11 +7333,7 @@
       </c>
       <c r="I194" t="inlineStr"/>
       <c r="J194" t="inlineStr"/>
-      <c r="K194" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K194" t="inlineStr"/>
       <c r="L194" t="n">
         <v>1</v>
       </c>
@@ -7664,11 +7366,7 @@
       </c>
       <c r="I195" t="inlineStr"/>
       <c r="J195" t="inlineStr"/>
-      <c r="K195" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K195" t="inlineStr"/>
       <c r="L195" t="n">
         <v>1</v>
       </c>
@@ -7701,11 +7399,7 @@
       </c>
       <c r="I196" t="inlineStr"/>
       <c r="J196" t="inlineStr"/>
-      <c r="K196" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K196" t="inlineStr"/>
       <c r="L196" t="n">
         <v>1</v>
       </c>
@@ -7738,11 +7432,7 @@
       </c>
       <c r="I197" t="inlineStr"/>
       <c r="J197" t="inlineStr"/>
-      <c r="K197" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K197" t="inlineStr"/>
       <c r="L197" t="n">
         <v>1</v>
       </c>
@@ -7775,11 +7465,7 @@
       </c>
       <c r="I198" t="inlineStr"/>
       <c r="J198" t="inlineStr"/>
-      <c r="K198" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K198" t="inlineStr"/>
       <c r="L198" t="n">
         <v>1</v>
       </c>
@@ -7812,11 +7498,7 @@
       </c>
       <c r="I199" t="inlineStr"/>
       <c r="J199" t="inlineStr"/>
-      <c r="K199" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K199" t="inlineStr"/>
       <c r="L199" t="n">
         <v>1</v>
       </c>
@@ -7849,11 +7531,7 @@
       </c>
       <c r="I200" t="inlineStr"/>
       <c r="J200" t="inlineStr"/>
-      <c r="K200" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K200" t="inlineStr"/>
       <c r="L200" t="n">
         <v>1</v>
       </c>
@@ -7886,11 +7564,7 @@
       </c>
       <c r="I201" t="inlineStr"/>
       <c r="J201" t="inlineStr"/>
-      <c r="K201" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K201" t="inlineStr"/>
       <c r="L201" t="n">
         <v>1</v>
       </c>
@@ -7923,11 +7597,7 @@
       </c>
       <c r="I202" t="inlineStr"/>
       <c r="J202" t="inlineStr"/>
-      <c r="K202" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K202" t="inlineStr"/>
       <c r="L202" t="n">
         <v>1</v>
       </c>
@@ -7960,11 +7630,7 @@
       </c>
       <c r="I203" t="inlineStr"/>
       <c r="J203" t="inlineStr"/>
-      <c r="K203" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K203" t="inlineStr"/>
       <c r="L203" t="n">
         <v>1</v>
       </c>
@@ -7997,11 +7663,7 @@
       </c>
       <c r="I204" t="inlineStr"/>
       <c r="J204" t="inlineStr"/>
-      <c r="K204" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K204" t="inlineStr"/>
       <c r="L204" t="n">
         <v>1</v>
       </c>
@@ -8034,11 +7696,7 @@
       </c>
       <c r="I205" t="inlineStr"/>
       <c r="J205" t="inlineStr"/>
-      <c r="K205" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K205" t="inlineStr"/>
       <c r="L205" t="n">
         <v>1</v>
       </c>
@@ -8071,11 +7729,7 @@
       </c>
       <c r="I206" t="inlineStr"/>
       <c r="J206" t="inlineStr"/>
-      <c r="K206" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K206" t="inlineStr"/>
       <c r="L206" t="n">
         <v>1</v>
       </c>
@@ -8108,11 +7762,7 @@
       </c>
       <c r="I207" t="inlineStr"/>
       <c r="J207" t="inlineStr"/>
-      <c r="K207" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K207" t="inlineStr"/>
       <c r="L207" t="n">
         <v>1</v>
       </c>
@@ -8145,11 +7795,7 @@
       </c>
       <c r="I208" t="inlineStr"/>
       <c r="J208" t="inlineStr"/>
-      <c r="K208" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K208" t="inlineStr"/>
       <c r="L208" t="n">
         <v>1</v>
       </c>
@@ -8182,11 +7828,7 @@
       </c>
       <c r="I209" t="inlineStr"/>
       <c r="J209" t="inlineStr"/>
-      <c r="K209" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K209" t="inlineStr"/>
       <c r="L209" t="n">
         <v>1</v>
       </c>
@@ -8219,11 +7861,7 @@
       </c>
       <c r="I210" t="inlineStr"/>
       <c r="J210" t="inlineStr"/>
-      <c r="K210" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K210" t="inlineStr"/>
       <c r="L210" t="n">
         <v>1</v>
       </c>
@@ -8256,11 +7894,7 @@
       </c>
       <c r="I211" t="inlineStr"/>
       <c r="J211" t="inlineStr"/>
-      <c r="K211" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K211" t="inlineStr"/>
       <c r="L211" t="n">
         <v>1</v>
       </c>
@@ -8293,11 +7927,7 @@
       </c>
       <c r="I212" t="inlineStr"/>
       <c r="J212" t="inlineStr"/>
-      <c r="K212" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K212" t="inlineStr"/>
       <c r="L212" t="n">
         <v>1</v>
       </c>
@@ -8330,11 +7960,7 @@
       </c>
       <c r="I213" t="inlineStr"/>
       <c r="J213" t="inlineStr"/>
-      <c r="K213" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K213" t="inlineStr"/>
       <c r="L213" t="n">
         <v>1</v>
       </c>
@@ -8367,11 +7993,7 @@
       </c>
       <c r="I214" t="inlineStr"/>
       <c r="J214" t="inlineStr"/>
-      <c r="K214" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K214" t="inlineStr"/>
       <c r="L214" t="n">
         <v>1</v>
       </c>
@@ -8404,11 +8026,7 @@
       </c>
       <c r="I215" t="inlineStr"/>
       <c r="J215" t="inlineStr"/>
-      <c r="K215" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K215" t="inlineStr"/>
       <c r="L215" t="n">
         <v>1</v>
       </c>
@@ -8441,11 +8059,7 @@
       </c>
       <c r="I216" t="inlineStr"/>
       <c r="J216" t="inlineStr"/>
-      <c r="K216" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K216" t="inlineStr"/>
       <c r="L216" t="n">
         <v>1</v>
       </c>
@@ -8478,11 +8092,7 @@
       </c>
       <c r="I217" t="inlineStr"/>
       <c r="J217" t="inlineStr"/>
-      <c r="K217" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K217" t="inlineStr"/>
       <c r="L217" t="n">
         <v>1</v>
       </c>
@@ -8515,11 +8125,7 @@
       </c>
       <c r="I218" t="inlineStr"/>
       <c r="J218" t="inlineStr"/>
-      <c r="K218" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K218" t="inlineStr"/>
       <c r="L218" t="n">
         <v>1</v>
       </c>
@@ -8552,11 +8158,7 @@
       </c>
       <c r="I219" t="inlineStr"/>
       <c r="J219" t="inlineStr"/>
-      <c r="K219" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K219" t="inlineStr"/>
       <c r="L219" t="n">
         <v>1</v>
       </c>
@@ -8589,11 +8191,7 @@
       </c>
       <c r="I220" t="inlineStr"/>
       <c r="J220" t="inlineStr"/>
-      <c r="K220" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K220" t="inlineStr"/>
       <c r="L220" t="n">
         <v>1</v>
       </c>
@@ -8626,11 +8224,7 @@
       </c>
       <c r="I221" t="inlineStr"/>
       <c r="J221" t="inlineStr"/>
-      <c r="K221" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K221" t="inlineStr"/>
       <c r="L221" t="n">
         <v>1</v>
       </c>
@@ -8663,11 +8257,7 @@
       </c>
       <c r="I222" t="inlineStr"/>
       <c r="J222" t="inlineStr"/>
-      <c r="K222" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K222" t="inlineStr"/>
       <c r="L222" t="n">
         <v>1</v>
       </c>
@@ -8700,11 +8290,7 @@
       </c>
       <c r="I223" t="inlineStr"/>
       <c r="J223" t="inlineStr"/>
-      <c r="K223" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K223" t="inlineStr"/>
       <c r="L223" t="n">
         <v>1</v>
       </c>
@@ -8737,11 +8323,7 @@
       </c>
       <c r="I224" t="inlineStr"/>
       <c r="J224" t="inlineStr"/>
-      <c r="K224" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K224" t="inlineStr"/>
       <c r="L224" t="n">
         <v>1</v>
       </c>
@@ -8774,11 +8356,7 @@
       </c>
       <c r="I225" t="inlineStr"/>
       <c r="J225" t="inlineStr"/>
-      <c r="K225" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K225" t="inlineStr"/>
       <c r="L225" t="n">
         <v>1</v>
       </c>
@@ -8811,11 +8389,7 @@
       </c>
       <c r="I226" t="inlineStr"/>
       <c r="J226" t="inlineStr"/>
-      <c r="K226" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K226" t="inlineStr"/>
       <c r="L226" t="n">
         <v>1</v>
       </c>
@@ -8848,11 +8422,7 @@
       </c>
       <c r="I227" t="inlineStr"/>
       <c r="J227" t="inlineStr"/>
-      <c r="K227" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K227" t="inlineStr"/>
       <c r="L227" t="n">
         <v>1</v>
       </c>
@@ -8885,11 +8455,7 @@
       </c>
       <c r="I228" t="inlineStr"/>
       <c r="J228" t="inlineStr"/>
-      <c r="K228" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K228" t="inlineStr"/>
       <c r="L228" t="n">
         <v>1</v>
       </c>
@@ -8922,11 +8488,7 @@
       </c>
       <c r="I229" t="inlineStr"/>
       <c r="J229" t="inlineStr"/>
-      <c r="K229" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K229" t="inlineStr"/>
       <c r="L229" t="n">
         <v>1</v>
       </c>
@@ -8959,11 +8521,7 @@
       </c>
       <c r="I230" t="inlineStr"/>
       <c r="J230" t="inlineStr"/>
-      <c r="K230" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K230" t="inlineStr"/>
       <c r="L230" t="n">
         <v>1</v>
       </c>
@@ -8996,11 +8554,7 @@
       </c>
       <c r="I231" t="inlineStr"/>
       <c r="J231" t="inlineStr"/>
-      <c r="K231" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K231" t="inlineStr"/>
       <c r="L231" t="n">
         <v>1</v>
       </c>
@@ -9033,11 +8587,7 @@
       </c>
       <c r="I232" t="inlineStr"/>
       <c r="J232" t="inlineStr"/>
-      <c r="K232" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K232" t="inlineStr"/>
       <c r="L232" t="n">
         <v>1</v>
       </c>
@@ -9070,11 +8620,7 @@
       </c>
       <c r="I233" t="inlineStr"/>
       <c r="J233" t="inlineStr"/>
-      <c r="K233" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K233" t="inlineStr"/>
       <c r="L233" t="n">
         <v>1</v>
       </c>
@@ -9107,11 +8653,7 @@
       </c>
       <c r="I234" t="inlineStr"/>
       <c r="J234" t="inlineStr"/>
-      <c r="K234" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K234" t="inlineStr"/>
       <c r="L234" t="n">
         <v>1</v>
       </c>
@@ -9144,11 +8686,7 @@
       </c>
       <c r="I235" t="inlineStr"/>
       <c r="J235" t="inlineStr"/>
-      <c r="K235" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K235" t="inlineStr"/>
       <c r="L235" t="n">
         <v>1</v>
       </c>
@@ -9181,11 +8719,7 @@
       </c>
       <c r="I236" t="inlineStr"/>
       <c r="J236" t="inlineStr"/>
-      <c r="K236" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K236" t="inlineStr"/>
       <c r="L236" t="n">
         <v>1</v>
       </c>
@@ -9218,11 +8752,7 @@
       </c>
       <c r="I237" t="inlineStr"/>
       <c r="J237" t="inlineStr"/>
-      <c r="K237" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K237" t="inlineStr"/>
       <c r="L237" t="n">
         <v>1</v>
       </c>
@@ -9255,11 +8785,7 @@
       </c>
       <c r="I238" t="inlineStr"/>
       <c r="J238" t="inlineStr"/>
-      <c r="K238" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K238" t="inlineStr"/>
       <c r="L238" t="n">
         <v>1</v>
       </c>
@@ -9292,11 +8818,7 @@
       </c>
       <c r="I239" t="inlineStr"/>
       <c r="J239" t="inlineStr"/>
-      <c r="K239" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K239" t="inlineStr"/>
       <c r="L239" t="n">
         <v>1</v>
       </c>
@@ -9329,11 +8851,7 @@
       </c>
       <c r="I240" t="inlineStr"/>
       <c r="J240" t="inlineStr"/>
-      <c r="K240" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K240" t="inlineStr"/>
       <c r="L240" t="n">
         <v>1</v>
       </c>
@@ -9366,11 +8884,7 @@
       </c>
       <c r="I241" t="inlineStr"/>
       <c r="J241" t="inlineStr"/>
-      <c r="K241" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K241" t="inlineStr"/>
       <c r="L241" t="n">
         <v>1</v>
       </c>
@@ -9403,11 +8917,7 @@
       </c>
       <c r="I242" t="inlineStr"/>
       <c r="J242" t="inlineStr"/>
-      <c r="K242" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K242" t="inlineStr"/>
       <c r="L242" t="n">
         <v>1</v>
       </c>
@@ -9440,11 +8950,7 @@
       </c>
       <c r="I243" t="inlineStr"/>
       <c r="J243" t="inlineStr"/>
-      <c r="K243" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K243" t="inlineStr"/>
       <c r="L243" t="n">
         <v>1</v>
       </c>
@@ -9477,11 +8983,7 @@
       </c>
       <c r="I244" t="inlineStr"/>
       <c r="J244" t="inlineStr"/>
-      <c r="K244" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K244" t="inlineStr"/>
       <c r="L244" t="n">
         <v>1</v>
       </c>
@@ -9514,11 +9016,7 @@
       </c>
       <c r="I245" t="inlineStr"/>
       <c r="J245" t="inlineStr"/>
-      <c r="K245" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K245" t="inlineStr"/>
       <c r="L245" t="n">
         <v>1</v>
       </c>
@@ -9551,11 +9049,7 @@
       </c>
       <c r="I246" t="inlineStr"/>
       <c r="J246" t="inlineStr"/>
-      <c r="K246" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K246" t="inlineStr"/>
       <c r="L246" t="n">
         <v>1</v>
       </c>
@@ -9588,11 +9082,7 @@
       </c>
       <c r="I247" t="inlineStr"/>
       <c r="J247" t="inlineStr"/>
-      <c r="K247" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K247" t="inlineStr"/>
       <c r="L247" t="n">
         <v>1</v>
       </c>
@@ -9625,11 +9115,7 @@
       </c>
       <c r="I248" t="inlineStr"/>
       <c r="J248" t="inlineStr"/>
-      <c r="K248" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K248" t="inlineStr"/>
       <c r="L248" t="n">
         <v>1</v>
       </c>
@@ -9662,11 +9148,7 @@
       </c>
       <c r="I249" t="inlineStr"/>
       <c r="J249" t="inlineStr"/>
-      <c r="K249" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K249" t="inlineStr"/>
       <c r="L249" t="n">
         <v>1</v>
       </c>
@@ -9699,11 +9181,7 @@
       </c>
       <c r="I250" t="inlineStr"/>
       <c r="J250" t="inlineStr"/>
-      <c r="K250" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K250" t="inlineStr"/>
       <c r="L250" t="n">
         <v>1</v>
       </c>
@@ -9736,11 +9214,7 @@
       </c>
       <c r="I251" t="inlineStr"/>
       <c r="J251" t="inlineStr"/>
-      <c r="K251" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K251" t="inlineStr"/>
       <c r="L251" t="n">
         <v>1</v>
       </c>
@@ -9773,11 +9247,7 @@
       </c>
       <c r="I252" t="inlineStr"/>
       <c r="J252" t="inlineStr"/>
-      <c r="K252" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K252" t="inlineStr"/>
       <c r="L252" t="n">
         <v>1</v>
       </c>
@@ -9810,11 +9280,7 @@
       </c>
       <c r="I253" t="inlineStr"/>
       <c r="J253" t="inlineStr"/>
-      <c r="K253" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K253" t="inlineStr"/>
       <c r="L253" t="n">
         <v>1</v>
       </c>
@@ -9847,11 +9313,7 @@
       </c>
       <c r="I254" t="inlineStr"/>
       <c r="J254" t="inlineStr"/>
-      <c r="K254" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K254" t="inlineStr"/>
       <c r="L254" t="n">
         <v>1</v>
       </c>
@@ -9884,11 +9346,7 @@
       </c>
       <c r="I255" t="inlineStr"/>
       <c r="J255" t="inlineStr"/>
-      <c r="K255" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K255" t="inlineStr"/>
       <c r="L255" t="n">
         <v>1</v>
       </c>
@@ -9921,11 +9379,7 @@
       </c>
       <c r="I256" t="inlineStr"/>
       <c r="J256" t="inlineStr"/>
-      <c r="K256" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K256" t="inlineStr"/>
       <c r="L256" t="n">
         <v>1</v>
       </c>
@@ -9958,11 +9412,7 @@
       </c>
       <c r="I257" t="inlineStr"/>
       <c r="J257" t="inlineStr"/>
-      <c r="K257" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K257" t="inlineStr"/>
       <c r="L257" t="n">
         <v>1</v>
       </c>
@@ -9995,11 +9445,7 @@
       </c>
       <c r="I258" t="inlineStr"/>
       <c r="J258" t="inlineStr"/>
-      <c r="K258" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K258" t="inlineStr"/>
       <c r="L258" t="n">
         <v>1</v>
       </c>
@@ -10032,11 +9478,7 @@
       </c>
       <c r="I259" t="inlineStr"/>
       <c r="J259" t="inlineStr"/>
-      <c r="K259" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K259" t="inlineStr"/>
       <c r="L259" t="n">
         <v>1</v>
       </c>
@@ -10069,11 +9511,7 @@
       </c>
       <c r="I260" t="inlineStr"/>
       <c r="J260" t="inlineStr"/>
-      <c r="K260" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K260" t="inlineStr"/>
       <c r="L260" t="n">
         <v>1</v>
       </c>
@@ -10106,11 +9544,7 @@
       </c>
       <c r="I261" t="inlineStr"/>
       <c r="J261" t="inlineStr"/>
-      <c r="K261" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K261" t="inlineStr"/>
       <c r="L261" t="n">
         <v>1</v>
       </c>
@@ -10143,11 +9577,7 @@
       </c>
       <c r="I262" t="inlineStr"/>
       <c r="J262" t="inlineStr"/>
-      <c r="K262" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K262" t="inlineStr"/>
       <c r="L262" t="n">
         <v>1</v>
       </c>
@@ -10180,11 +9610,7 @@
       </c>
       <c r="I263" t="inlineStr"/>
       <c r="J263" t="inlineStr"/>
-      <c r="K263" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K263" t="inlineStr"/>
       <c r="L263" t="n">
         <v>1</v>
       </c>
@@ -10217,11 +9643,7 @@
       </c>
       <c r="I264" t="inlineStr"/>
       <c r="J264" t="inlineStr"/>
-      <c r="K264" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K264" t="inlineStr"/>
       <c r="L264" t="n">
         <v>1</v>
       </c>
@@ -10254,11 +9676,7 @@
       </c>
       <c r="I265" t="inlineStr"/>
       <c r="J265" t="inlineStr"/>
-      <c r="K265" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K265" t="inlineStr"/>
       <c r="L265" t="n">
         <v>1</v>
       </c>
@@ -10291,11 +9709,7 @@
       </c>
       <c r="I266" t="inlineStr"/>
       <c r="J266" t="inlineStr"/>
-      <c r="K266" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K266" t="inlineStr"/>
       <c r="L266" t="n">
         <v>1</v>
       </c>
@@ -10328,11 +9742,7 @@
       </c>
       <c r="I267" t="inlineStr"/>
       <c r="J267" t="inlineStr"/>
-      <c r="K267" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K267" t="inlineStr"/>
       <c r="L267" t="n">
         <v>1</v>
       </c>
@@ -10365,11 +9775,7 @@
       </c>
       <c r="I268" t="inlineStr"/>
       <c r="J268" t="inlineStr"/>
-      <c r="K268" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K268" t="inlineStr"/>
       <c r="L268" t="n">
         <v>1</v>
       </c>
@@ -10402,11 +9808,7 @@
       </c>
       <c r="I269" t="inlineStr"/>
       <c r="J269" t="inlineStr"/>
-      <c r="K269" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K269" t="inlineStr"/>
       <c r="L269" t="n">
         <v>1</v>
       </c>
@@ -10439,11 +9841,7 @@
       </c>
       <c r="I270" t="inlineStr"/>
       <c r="J270" t="inlineStr"/>
-      <c r="K270" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K270" t="inlineStr"/>
       <c r="L270" t="n">
         <v>1</v>
       </c>
@@ -10476,11 +9874,7 @@
       </c>
       <c r="I271" t="inlineStr"/>
       <c r="J271" t="inlineStr"/>
-      <c r="K271" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K271" t="inlineStr"/>
       <c r="L271" t="n">
         <v>1</v>
       </c>
@@ -10513,11 +9907,7 @@
       </c>
       <c r="I272" t="inlineStr"/>
       <c r="J272" t="inlineStr"/>
-      <c r="K272" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K272" t="inlineStr"/>
       <c r="L272" t="n">
         <v>1</v>
       </c>
@@ -10550,11 +9940,7 @@
       </c>
       <c r="I273" t="inlineStr"/>
       <c r="J273" t="inlineStr"/>
-      <c r="K273" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K273" t="inlineStr"/>
       <c r="L273" t="n">
         <v>1</v>
       </c>
@@ -10587,11 +9973,7 @@
       </c>
       <c r="I274" t="inlineStr"/>
       <c r="J274" t="inlineStr"/>
-      <c r="K274" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K274" t="inlineStr"/>
       <c r="L274" t="n">
         <v>1</v>
       </c>
@@ -10624,11 +10006,7 @@
       </c>
       <c r="I275" t="inlineStr"/>
       <c r="J275" t="inlineStr"/>
-      <c r="K275" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K275" t="inlineStr"/>
       <c r="L275" t="n">
         <v>1</v>
       </c>
@@ -10661,11 +10039,7 @@
       </c>
       <c r="I276" t="inlineStr"/>
       <c r="J276" t="inlineStr"/>
-      <c r="K276" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K276" t="inlineStr"/>
       <c r="L276" t="n">
         <v>1</v>
       </c>
@@ -10698,11 +10072,7 @@
       </c>
       <c r="I277" t="inlineStr"/>
       <c r="J277" t="inlineStr"/>
-      <c r="K277" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K277" t="inlineStr"/>
       <c r="L277" t="n">
         <v>1</v>
       </c>
@@ -10735,11 +10105,7 @@
       </c>
       <c r="I278" t="inlineStr"/>
       <c r="J278" t="inlineStr"/>
-      <c r="K278" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K278" t="inlineStr"/>
       <c r="L278" t="n">
         <v>1</v>
       </c>
@@ -10772,11 +10138,7 @@
       </c>
       <c r="I279" t="inlineStr"/>
       <c r="J279" t="inlineStr"/>
-      <c r="K279" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K279" t="inlineStr"/>
       <c r="L279" t="n">
         <v>1</v>
       </c>
@@ -10809,11 +10171,7 @@
       </c>
       <c r="I280" t="inlineStr"/>
       <c r="J280" t="inlineStr"/>
-      <c r="K280" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K280" t="inlineStr"/>
       <c r="L280" t="n">
         <v>1</v>
       </c>
@@ -10846,11 +10204,7 @@
       </c>
       <c r="I281" t="inlineStr"/>
       <c r="J281" t="inlineStr"/>
-      <c r="K281" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K281" t="inlineStr"/>
       <c r="L281" t="n">
         <v>1</v>
       </c>
@@ -10883,11 +10237,7 @@
       </c>
       <c r="I282" t="inlineStr"/>
       <c r="J282" t="inlineStr"/>
-      <c r="K282" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K282" t="inlineStr"/>
       <c r="L282" t="n">
         <v>1</v>
       </c>
@@ -10920,11 +10270,7 @@
       </c>
       <c r="I283" t="inlineStr"/>
       <c r="J283" t="inlineStr"/>
-      <c r="K283" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K283" t="inlineStr"/>
       <c r="L283" t="n">
         <v>1</v>
       </c>
@@ -10957,11 +10303,7 @@
       </c>
       <c r="I284" t="inlineStr"/>
       <c r="J284" t="inlineStr"/>
-      <c r="K284" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K284" t="inlineStr"/>
       <c r="L284" t="n">
         <v>1</v>
       </c>
@@ -10994,11 +10336,7 @@
       </c>
       <c r="I285" t="inlineStr"/>
       <c r="J285" t="inlineStr"/>
-      <c r="K285" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K285" t="inlineStr"/>
       <c r="L285" t="n">
         <v>1</v>
       </c>
@@ -11031,11 +10369,7 @@
       </c>
       <c r="I286" t="inlineStr"/>
       <c r="J286" t="inlineStr"/>
-      <c r="K286" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K286" t="inlineStr"/>
       <c r="L286" t="n">
         <v>1</v>
       </c>
@@ -11068,11 +10402,7 @@
       </c>
       <c r="I287" t="inlineStr"/>
       <c r="J287" t="inlineStr"/>
-      <c r="K287" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K287" t="inlineStr"/>
       <c r="L287" t="n">
         <v>1</v>
       </c>
@@ -11105,11 +10435,7 @@
       </c>
       <c r="I288" t="inlineStr"/>
       <c r="J288" t="inlineStr"/>
-      <c r="K288" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K288" t="inlineStr"/>
       <c r="L288" t="n">
         <v>1</v>
       </c>
@@ -11142,11 +10468,7 @@
       </c>
       <c r="I289" t="inlineStr"/>
       <c r="J289" t="inlineStr"/>
-      <c r="K289" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K289" t="inlineStr"/>
       <c r="L289" t="n">
         <v>1</v>
       </c>
@@ -11179,11 +10501,7 @@
       </c>
       <c r="I290" t="inlineStr"/>
       <c r="J290" t="inlineStr"/>
-      <c r="K290" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K290" t="inlineStr"/>
       <c r="L290" t="n">
         <v>1</v>
       </c>
@@ -11216,11 +10534,7 @@
       </c>
       <c r="I291" t="inlineStr"/>
       <c r="J291" t="inlineStr"/>
-      <c r="K291" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K291" t="inlineStr"/>
       <c r="L291" t="n">
         <v>1</v>
       </c>
@@ -11253,11 +10567,7 @@
       </c>
       <c r="I292" t="inlineStr"/>
       <c r="J292" t="inlineStr"/>
-      <c r="K292" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K292" t="inlineStr"/>
       <c r="L292" t="n">
         <v>1</v>
       </c>
@@ -11290,11 +10600,7 @@
       </c>
       <c r="I293" t="inlineStr"/>
       <c r="J293" t="inlineStr"/>
-      <c r="K293" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K293" t="inlineStr"/>
       <c r="L293" t="n">
         <v>1</v>
       </c>
@@ -11327,11 +10633,7 @@
       </c>
       <c r="I294" t="inlineStr"/>
       <c r="J294" t="inlineStr"/>
-      <c r="K294" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K294" t="inlineStr"/>
       <c r="L294" t="n">
         <v>1</v>
       </c>
@@ -11364,11 +10666,7 @@
       </c>
       <c r="I295" t="inlineStr"/>
       <c r="J295" t="inlineStr"/>
-      <c r="K295" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K295" t="inlineStr"/>
       <c r="L295" t="n">
         <v>1</v>
       </c>
@@ -11401,11 +10699,7 @@
       </c>
       <c r="I296" t="inlineStr"/>
       <c r="J296" t="inlineStr"/>
-      <c r="K296" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K296" t="inlineStr"/>
       <c r="L296" t="n">
         <v>1</v>
       </c>
@@ -11438,11 +10732,7 @@
       </c>
       <c r="I297" t="inlineStr"/>
       <c r="J297" t="inlineStr"/>
-      <c r="K297" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K297" t="inlineStr"/>
       <c r="L297" t="n">
         <v>1</v>
       </c>
@@ -11475,11 +10765,7 @@
       </c>
       <c r="I298" t="inlineStr"/>
       <c r="J298" t="inlineStr"/>
-      <c r="K298" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K298" t="inlineStr"/>
       <c r="L298" t="n">
         <v>1</v>
       </c>
@@ -11512,11 +10798,7 @@
       </c>
       <c r="I299" t="inlineStr"/>
       <c r="J299" t="inlineStr"/>
-      <c r="K299" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K299" t="inlineStr"/>
       <c r="L299" t="n">
         <v>1</v>
       </c>
@@ -11549,11 +10831,7 @@
       </c>
       <c r="I300" t="inlineStr"/>
       <c r="J300" t="inlineStr"/>
-      <c r="K300" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K300" t="inlineStr"/>
       <c r="L300" t="n">
         <v>1</v>
       </c>
@@ -11586,11 +10864,7 @@
       </c>
       <c r="I301" t="inlineStr"/>
       <c r="J301" t="inlineStr"/>
-      <c r="K301" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K301" t="inlineStr"/>
       <c r="L301" t="n">
         <v>1</v>
       </c>
@@ -11623,11 +10897,7 @@
       </c>
       <c r="I302" t="inlineStr"/>
       <c r="J302" t="inlineStr"/>
-      <c r="K302" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K302" t="inlineStr"/>
       <c r="L302" t="n">
         <v>1</v>
       </c>
@@ -11660,11 +10930,7 @@
       </c>
       <c r="I303" t="inlineStr"/>
       <c r="J303" t="inlineStr"/>
-      <c r="K303" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K303" t="inlineStr"/>
       <c r="L303" t="n">
         <v>1</v>
       </c>
@@ -11697,11 +10963,7 @@
       </c>
       <c r="I304" t="inlineStr"/>
       <c r="J304" t="inlineStr"/>
-      <c r="K304" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K304" t="inlineStr"/>
       <c r="L304" t="n">
         <v>1</v>
       </c>
@@ -11734,11 +10996,7 @@
       </c>
       <c r="I305" t="inlineStr"/>
       <c r="J305" t="inlineStr"/>
-      <c r="K305" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K305" t="inlineStr"/>
       <c r="L305" t="n">
         <v>1</v>
       </c>
@@ -11771,11 +11029,7 @@
       </c>
       <c r="I306" t="inlineStr"/>
       <c r="J306" t="inlineStr"/>
-      <c r="K306" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K306" t="inlineStr"/>
       <c r="L306" t="n">
         <v>1</v>
       </c>
@@ -11808,11 +11062,7 @@
       </c>
       <c r="I307" t="inlineStr"/>
       <c r="J307" t="inlineStr"/>
-      <c r="K307" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K307" t="inlineStr"/>
       <c r="L307" t="n">
         <v>1</v>
       </c>
@@ -11845,11 +11095,7 @@
       </c>
       <c r="I308" t="inlineStr"/>
       <c r="J308" t="inlineStr"/>
-      <c r="K308" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K308" t="inlineStr"/>
       <c r="L308" t="n">
         <v>1</v>
       </c>
@@ -11882,11 +11128,7 @@
       </c>
       <c r="I309" t="inlineStr"/>
       <c r="J309" t="inlineStr"/>
-      <c r="K309" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K309" t="inlineStr"/>
       <c r="L309" t="n">
         <v>1</v>
       </c>
@@ -11919,11 +11161,7 @@
       </c>
       <c r="I310" t="inlineStr"/>
       <c r="J310" t="inlineStr"/>
-      <c r="K310" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K310" t="inlineStr"/>
       <c r="L310" t="n">
         <v>1</v>
       </c>
@@ -11956,11 +11194,7 @@
       </c>
       <c r="I311" t="inlineStr"/>
       <c r="J311" t="inlineStr"/>
-      <c r="K311" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K311" t="inlineStr"/>
       <c r="L311" t="n">
         <v>1</v>
       </c>
@@ -11993,11 +11227,7 @@
       </c>
       <c r="I312" t="inlineStr"/>
       <c r="J312" t="inlineStr"/>
-      <c r="K312" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K312" t="inlineStr"/>
       <c r="L312" t="n">
         <v>1</v>
       </c>
@@ -12030,11 +11260,7 @@
       </c>
       <c r="I313" t="inlineStr"/>
       <c r="J313" t="inlineStr"/>
-      <c r="K313" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K313" t="inlineStr"/>
       <c r="L313" t="n">
         <v>1</v>
       </c>
@@ -12067,11 +11293,7 @@
       </c>
       <c r="I314" t="inlineStr"/>
       <c r="J314" t="inlineStr"/>
-      <c r="K314" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K314" t="inlineStr"/>
       <c r="L314" t="n">
         <v>1</v>
       </c>
@@ -12104,11 +11326,7 @@
       </c>
       <c r="I315" t="inlineStr"/>
       <c r="J315" t="inlineStr"/>
-      <c r="K315" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K315" t="inlineStr"/>
       <c r="L315" t="n">
         <v>1</v>
       </c>
@@ -12141,11 +11359,7 @@
       </c>
       <c r="I316" t="inlineStr"/>
       <c r="J316" t="inlineStr"/>
-      <c r="K316" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K316" t="inlineStr"/>
       <c r="L316" t="n">
         <v>1</v>
       </c>
@@ -12178,11 +11392,7 @@
       </c>
       <c r="I317" t="inlineStr"/>
       <c r="J317" t="inlineStr"/>
-      <c r="K317" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K317" t="inlineStr"/>
       <c r="L317" t="n">
         <v>1</v>
       </c>
@@ -12215,11 +11425,7 @@
       </c>
       <c r="I318" t="inlineStr"/>
       <c r="J318" t="inlineStr"/>
-      <c r="K318" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K318" t="inlineStr"/>
       <c r="L318" t="n">
         <v>1</v>
       </c>
@@ -12252,11 +11458,7 @@
       </c>
       <c r="I319" t="inlineStr"/>
       <c r="J319" t="inlineStr"/>
-      <c r="K319" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K319" t="inlineStr"/>
       <c r="L319" t="n">
         <v>1</v>
       </c>
@@ -12289,11 +11491,7 @@
       </c>
       <c r="I320" t="inlineStr"/>
       <c r="J320" t="inlineStr"/>
-      <c r="K320" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K320" t="inlineStr"/>
       <c r="L320" t="n">
         <v>1</v>
       </c>
@@ -12326,11 +11524,7 @@
       </c>
       <c r="I321" t="inlineStr"/>
       <c r="J321" t="inlineStr"/>
-      <c r="K321" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K321" t="inlineStr"/>
       <c r="L321" t="n">
         <v>1</v>
       </c>
@@ -12363,11 +11557,7 @@
       </c>
       <c r="I322" t="inlineStr"/>
       <c r="J322" t="inlineStr"/>
-      <c r="K322" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K322" t="inlineStr"/>
       <c r="L322" t="n">
         <v>1</v>
       </c>
@@ -12400,11 +11590,7 @@
       </c>
       <c r="I323" t="inlineStr"/>
       <c r="J323" t="inlineStr"/>
-      <c r="K323" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K323" t="inlineStr"/>
       <c r="L323" t="n">
         <v>1</v>
       </c>
@@ -12437,11 +11623,7 @@
       </c>
       <c r="I324" t="inlineStr"/>
       <c r="J324" t="inlineStr"/>
-      <c r="K324" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K324" t="inlineStr"/>
       <c r="L324" t="n">
         <v>1</v>
       </c>
@@ -12474,11 +11656,7 @@
       </c>
       <c r="I325" t="inlineStr"/>
       <c r="J325" t="inlineStr"/>
-      <c r="K325" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K325" t="inlineStr"/>
       <c r="L325" t="n">
         <v>1</v>
       </c>
@@ -12511,11 +11689,7 @@
       </c>
       <c r="I326" t="inlineStr"/>
       <c r="J326" t="inlineStr"/>
-      <c r="K326" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K326" t="inlineStr"/>
       <c r="L326" t="n">
         <v>1</v>
       </c>
@@ -12548,11 +11722,7 @@
       </c>
       <c r="I327" t="inlineStr"/>
       <c r="J327" t="inlineStr"/>
-      <c r="K327" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K327" t="inlineStr"/>
       <c r="L327" t="n">
         <v>1</v>
       </c>
@@ -12585,11 +11755,7 @@
       </c>
       <c r="I328" t="inlineStr"/>
       <c r="J328" t="inlineStr"/>
-      <c r="K328" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K328" t="inlineStr"/>
       <c r="L328" t="n">
         <v>1</v>
       </c>
@@ -12622,11 +11788,7 @@
       </c>
       <c r="I329" t="inlineStr"/>
       <c r="J329" t="inlineStr"/>
-      <c r="K329" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K329" t="inlineStr"/>
       <c r="L329" t="n">
         <v>1</v>
       </c>
@@ -12659,11 +11821,7 @@
       </c>
       <c r="I330" t="inlineStr"/>
       <c r="J330" t="inlineStr"/>
-      <c r="K330" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K330" t="inlineStr"/>
       <c r="L330" t="n">
         <v>1</v>
       </c>
@@ -12696,11 +11854,7 @@
       </c>
       <c r="I331" t="inlineStr"/>
       <c r="J331" t="inlineStr"/>
-      <c r="K331" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K331" t="inlineStr"/>
       <c r="L331" t="n">
         <v>1</v>
       </c>
@@ -12733,11 +11887,7 @@
       </c>
       <c r="I332" t="inlineStr"/>
       <c r="J332" t="inlineStr"/>
-      <c r="K332" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K332" t="inlineStr"/>
       <c r="L332" t="n">
         <v>1</v>
       </c>
@@ -12770,11 +11920,7 @@
       </c>
       <c r="I333" t="inlineStr"/>
       <c r="J333" t="inlineStr"/>
-      <c r="K333" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K333" t="inlineStr"/>
       <c r="L333" t="n">
         <v>1</v>
       </c>
@@ -12807,11 +11953,7 @@
       </c>
       <c r="I334" t="inlineStr"/>
       <c r="J334" t="inlineStr"/>
-      <c r="K334" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K334" t="inlineStr"/>
       <c r="L334" t="n">
         <v>1</v>
       </c>
@@ -12844,11 +11986,7 @@
       </c>
       <c r="I335" t="inlineStr"/>
       <c r="J335" t="inlineStr"/>
-      <c r="K335" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K335" t="inlineStr"/>
       <c r="L335" t="n">
         <v>1</v>
       </c>
@@ -12881,11 +12019,7 @@
       </c>
       <c r="I336" t="inlineStr"/>
       <c r="J336" t="inlineStr"/>
-      <c r="K336" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K336" t="inlineStr"/>
       <c r="L336" t="n">
         <v>1</v>
       </c>
@@ -12918,11 +12052,7 @@
       </c>
       <c r="I337" t="inlineStr"/>
       <c r="J337" t="inlineStr"/>
-      <c r="K337" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K337" t="inlineStr"/>
       <c r="L337" t="n">
         <v>1</v>
       </c>
@@ -12955,11 +12085,7 @@
       </c>
       <c r="I338" t="inlineStr"/>
       <c r="J338" t="inlineStr"/>
-      <c r="K338" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K338" t="inlineStr"/>
       <c r="L338" t="n">
         <v>1</v>
       </c>
@@ -12992,11 +12118,7 @@
       </c>
       <c r="I339" t="inlineStr"/>
       <c r="J339" t="inlineStr"/>
-      <c r="K339" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K339" t="inlineStr"/>
       <c r="L339" t="n">
         <v>1</v>
       </c>
@@ -13029,11 +12151,7 @@
       </c>
       <c r="I340" t="inlineStr"/>
       <c r="J340" t="inlineStr"/>
-      <c r="K340" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K340" t="inlineStr"/>
       <c r="L340" t="n">
         <v>1</v>
       </c>
@@ -13066,11 +12184,7 @@
       </c>
       <c r="I341" t="inlineStr"/>
       <c r="J341" t="inlineStr"/>
-      <c r="K341" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K341" t="inlineStr"/>
       <c r="L341" t="n">
         <v>1</v>
       </c>
@@ -13103,11 +12217,7 @@
       </c>
       <c r="I342" t="inlineStr"/>
       <c r="J342" t="inlineStr"/>
-      <c r="K342" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K342" t="inlineStr"/>
       <c r="L342" t="n">
         <v>1</v>
       </c>
@@ -13140,11 +12250,7 @@
       </c>
       <c r="I343" t="inlineStr"/>
       <c r="J343" t="inlineStr"/>
-      <c r="K343" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K343" t="inlineStr"/>
       <c r="L343" t="n">
         <v>1</v>
       </c>
@@ -13177,11 +12283,7 @@
       </c>
       <c r="I344" t="inlineStr"/>
       <c r="J344" t="inlineStr"/>
-      <c r="K344" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K344" t="inlineStr"/>
       <c r="L344" t="n">
         <v>1</v>
       </c>
@@ -13214,11 +12316,7 @@
       </c>
       <c r="I345" t="inlineStr"/>
       <c r="J345" t="inlineStr"/>
-      <c r="K345" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K345" t="inlineStr"/>
       <c r="L345" t="n">
         <v>1</v>
       </c>
@@ -13251,11 +12349,7 @@
       </c>
       <c r="I346" t="inlineStr"/>
       <c r="J346" t="inlineStr"/>
-      <c r="K346" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K346" t="inlineStr"/>
       <c r="L346" t="n">
         <v>1</v>
       </c>
@@ -13288,11 +12382,7 @@
       </c>
       <c r="I347" t="inlineStr"/>
       <c r="J347" t="inlineStr"/>
-      <c r="K347" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K347" t="inlineStr"/>
       <c r="L347" t="n">
         <v>1</v>
       </c>
@@ -13325,11 +12415,7 @@
       </c>
       <c r="I348" t="inlineStr"/>
       <c r="J348" t="inlineStr"/>
-      <c r="K348" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K348" t="inlineStr"/>
       <c r="L348" t="n">
         <v>1</v>
       </c>
@@ -13362,11 +12448,7 @@
       </c>
       <c r="I349" t="inlineStr"/>
       <c r="J349" t="inlineStr"/>
-      <c r="K349" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K349" t="inlineStr"/>
       <c r="L349" t="n">
         <v>1</v>
       </c>
@@ -13399,11 +12481,7 @@
       </c>
       <c r="I350" t="inlineStr"/>
       <c r="J350" t="inlineStr"/>
-      <c r="K350" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K350" t="inlineStr"/>
       <c r="L350" t="n">
         <v>1</v>
       </c>
@@ -13436,11 +12514,7 @@
       </c>
       <c r="I351" t="inlineStr"/>
       <c r="J351" t="inlineStr"/>
-      <c r="K351" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K351" t="inlineStr"/>
       <c r="L351" t="n">
         <v>1</v>
       </c>
@@ -13473,11 +12547,7 @@
       </c>
       <c r="I352" t="inlineStr"/>
       <c r="J352" t="inlineStr"/>
-      <c r="K352" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K352" t="inlineStr"/>
       <c r="L352" t="n">
         <v>1</v>
       </c>
@@ -13510,11 +12580,7 @@
       </c>
       <c r="I353" t="inlineStr"/>
       <c r="J353" t="inlineStr"/>
-      <c r="K353" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K353" t="inlineStr"/>
       <c r="L353" t="n">
         <v>1</v>
       </c>
@@ -13547,11 +12613,7 @@
       </c>
       <c r="I354" t="inlineStr"/>
       <c r="J354" t="inlineStr"/>
-      <c r="K354" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K354" t="inlineStr"/>
       <c r="L354" t="n">
         <v>1</v>
       </c>
@@ -13584,11 +12646,7 @@
       </c>
       <c r="I355" t="inlineStr"/>
       <c r="J355" t="inlineStr"/>
-      <c r="K355" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K355" t="inlineStr"/>
       <c r="L355" t="n">
         <v>1</v>
       </c>
@@ -13621,11 +12679,7 @@
       </c>
       <c r="I356" t="inlineStr"/>
       <c r="J356" t="inlineStr"/>
-      <c r="K356" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K356" t="inlineStr"/>
       <c r="L356" t="n">
         <v>1</v>
       </c>
@@ -13658,11 +12712,7 @@
       </c>
       <c r="I357" t="inlineStr"/>
       <c r="J357" t="inlineStr"/>
-      <c r="K357" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K357" t="inlineStr"/>
       <c r="L357" t="n">
         <v>1</v>
       </c>
@@ -13695,11 +12745,7 @@
       </c>
       <c r="I358" t="inlineStr"/>
       <c r="J358" t="inlineStr"/>
-      <c r="K358" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K358" t="inlineStr"/>
       <c r="L358" t="n">
         <v>1</v>
       </c>
@@ -13732,11 +12778,7 @@
       </c>
       <c r="I359" t="inlineStr"/>
       <c r="J359" t="inlineStr"/>
-      <c r="K359" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K359" t="inlineStr"/>
       <c r="L359" t="n">
         <v>1</v>
       </c>
@@ -13769,11 +12811,7 @@
       </c>
       <c r="I360" t="inlineStr"/>
       <c r="J360" t="inlineStr"/>
-      <c r="K360" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K360" t="inlineStr"/>
       <c r="L360" t="n">
         <v>1</v>
       </c>
@@ -13806,11 +12844,7 @@
       </c>
       <c r="I361" t="inlineStr"/>
       <c r="J361" t="inlineStr"/>
-      <c r="K361" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K361" t="inlineStr"/>
       <c r="L361" t="n">
         <v>1</v>
       </c>
@@ -13843,11 +12877,7 @@
       </c>
       <c r="I362" t="inlineStr"/>
       <c r="J362" t="inlineStr"/>
-      <c r="K362" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K362" t="inlineStr"/>
       <c r="L362" t="n">
         <v>1</v>
       </c>
@@ -13880,11 +12910,7 @@
       </c>
       <c r="I363" t="inlineStr"/>
       <c r="J363" t="inlineStr"/>
-      <c r="K363" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K363" t="inlineStr"/>
       <c r="L363" t="n">
         <v>1</v>
       </c>
@@ -13917,11 +12943,7 @@
       </c>
       <c r="I364" t="inlineStr"/>
       <c r="J364" t="inlineStr"/>
-      <c r="K364" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K364" t="inlineStr"/>
       <c r="L364" t="n">
         <v>1</v>
       </c>
@@ -13954,11 +12976,7 @@
       </c>
       <c r="I365" t="inlineStr"/>
       <c r="J365" t="inlineStr"/>
-      <c r="K365" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K365" t="inlineStr"/>
       <c r="L365" t="n">
         <v>1</v>
       </c>
@@ -13991,11 +13009,7 @@
       </c>
       <c r="I366" t="inlineStr"/>
       <c r="J366" t="inlineStr"/>
-      <c r="K366" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K366" t="inlineStr"/>
       <c r="L366" t="n">
         <v>1</v>
       </c>
@@ -14028,11 +13042,7 @@
       </c>
       <c r="I367" t="inlineStr"/>
       <c r="J367" t="inlineStr"/>
-      <c r="K367" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K367" t="inlineStr"/>
       <c r="L367" t="n">
         <v>1</v>
       </c>
@@ -14065,11 +13075,7 @@
       </c>
       <c r="I368" t="inlineStr"/>
       <c r="J368" t="inlineStr"/>
-      <c r="K368" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K368" t="inlineStr"/>
       <c r="L368" t="n">
         <v>1</v>
       </c>
@@ -14102,11 +13108,7 @@
       </c>
       <c r="I369" t="inlineStr"/>
       <c r="J369" t="inlineStr"/>
-      <c r="K369" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K369" t="inlineStr"/>
       <c r="L369" t="n">
         <v>1</v>
       </c>
@@ -14135,15 +13137,11 @@
         <v>218890.4689901919</v>
       </c>
       <c r="H370" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I370" t="inlineStr"/>
       <c r="J370" t="inlineStr"/>
-      <c r="K370" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K370" t="inlineStr"/>
       <c r="L370" t="n">
         <v>1</v>
       </c>
@@ -14172,15 +13170,11 @@
         <v>226794.3258241783</v>
       </c>
       <c r="H371" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I371" t="inlineStr"/>
       <c r="J371" t="inlineStr"/>
-      <c r="K371" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K371" t="inlineStr"/>
       <c r="L371" t="n">
         <v>1</v>
       </c>
@@ -14213,11 +13207,7 @@
       </c>
       <c r="I372" t="inlineStr"/>
       <c r="J372" t="inlineStr"/>
-      <c r="K372" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K372" t="inlineStr"/>
       <c r="L372" t="n">
         <v>1</v>
       </c>
@@ -14250,11 +13240,7 @@
       </c>
       <c r="I373" t="inlineStr"/>
       <c r="J373" t="inlineStr"/>
-      <c r="K373" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K373" t="inlineStr"/>
       <c r="L373" t="n">
         <v>1</v>
       </c>
@@ -14287,11 +13273,7 @@
       </c>
       <c r="I374" t="inlineStr"/>
       <c r="J374" t="inlineStr"/>
-      <c r="K374" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K374" t="inlineStr"/>
       <c r="L374" t="n">
         <v>1</v>
       </c>
@@ -14324,11 +13306,7 @@
       </c>
       <c r="I375" t="inlineStr"/>
       <c r="J375" t="inlineStr"/>
-      <c r="K375" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K375" t="inlineStr"/>
       <c r="L375" t="n">
         <v>1</v>
       </c>
@@ -14361,11 +13339,7 @@
       </c>
       <c r="I376" t="inlineStr"/>
       <c r="J376" t="inlineStr"/>
-      <c r="K376" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K376" t="inlineStr"/>
       <c r="L376" t="n">
         <v>1</v>
       </c>
@@ -14398,11 +13372,7 @@
       </c>
       <c r="I377" t="inlineStr"/>
       <c r="J377" t="inlineStr"/>
-      <c r="K377" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K377" t="inlineStr"/>
       <c r="L377" t="n">
         <v>1</v>
       </c>
@@ -14435,11 +13405,7 @@
       </c>
       <c r="I378" t="inlineStr"/>
       <c r="J378" t="inlineStr"/>
-      <c r="K378" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K378" t="inlineStr"/>
       <c r="L378" t="n">
         <v>1</v>
       </c>
@@ -14472,11 +13438,7 @@
       </c>
       <c r="I379" t="inlineStr"/>
       <c r="J379" t="inlineStr"/>
-      <c r="K379" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K379" t="inlineStr"/>
       <c r="L379" t="n">
         <v>1</v>
       </c>
@@ -14509,11 +13471,7 @@
       </c>
       <c r="I380" t="inlineStr"/>
       <c r="J380" t="inlineStr"/>
-      <c r="K380" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K380" t="inlineStr"/>
       <c r="L380" t="n">
         <v>1</v>
       </c>
@@ -14546,11 +13504,7 @@
       </c>
       <c r="I381" t="inlineStr"/>
       <c r="J381" t="inlineStr"/>
-      <c r="K381" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K381" t="inlineStr"/>
       <c r="L381" t="n">
         <v>1</v>
       </c>
@@ -14583,11 +13537,7 @@
       </c>
       <c r="I382" t="inlineStr"/>
       <c r="J382" t="inlineStr"/>
-      <c r="K382" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K382" t="inlineStr"/>
       <c r="L382" t="n">
         <v>1</v>
       </c>
@@ -14620,11 +13570,7 @@
       </c>
       <c r="I383" t="inlineStr"/>
       <c r="J383" t="inlineStr"/>
-      <c r="K383" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K383" t="inlineStr"/>
       <c r="L383" t="n">
         <v>1</v>
       </c>
@@ -14657,11 +13603,7 @@
       </c>
       <c r="I384" t="inlineStr"/>
       <c r="J384" t="inlineStr"/>
-      <c r="K384" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K384" t="inlineStr"/>
       <c r="L384" t="n">
         <v>1</v>
       </c>
@@ -14694,11 +13636,7 @@
       </c>
       <c r="I385" t="inlineStr"/>
       <c r="J385" t="inlineStr"/>
-      <c r="K385" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K385" t="inlineStr"/>
       <c r="L385" t="n">
         <v>1</v>
       </c>
@@ -14731,11 +13669,7 @@
       </c>
       <c r="I386" t="inlineStr"/>
       <c r="J386" t="inlineStr"/>
-      <c r="K386" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K386" t="inlineStr"/>
       <c r="L386" t="n">
         <v>1</v>
       </c>
@@ -14768,11 +13702,7 @@
       </c>
       <c r="I387" t="inlineStr"/>
       <c r="J387" t="inlineStr"/>
-      <c r="K387" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K387" t="inlineStr"/>
       <c r="L387" t="n">
         <v>1</v>
       </c>
@@ -14805,11 +13735,7 @@
       </c>
       <c r="I388" t="inlineStr"/>
       <c r="J388" t="inlineStr"/>
-      <c r="K388" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K388" t="inlineStr"/>
       <c r="L388" t="n">
         <v>1</v>
       </c>
@@ -14838,16 +13764,14 @@
         <v>178237.4060787181</v>
       </c>
       <c r="H389" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I389" t="inlineStr"/>
       <c r="J389" t="inlineStr"/>
-      <c r="K389" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="L389" t="inlineStr"/>
+      <c r="K389" t="inlineStr"/>
+      <c r="L389" t="n">
+        <v>1</v>
+      </c>
       <c r="M389" t="inlineStr"/>
     </row>
     <row r="390">
@@ -14873,7 +13797,7 @@
         <v>221163.2024787181</v>
       </c>
       <c r="H390" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I390" t="inlineStr"/>
       <c r="J390" t="inlineStr"/>
@@ -14906,7 +13830,7 @@
         <v>244396.9204059647</v>
       </c>
       <c r="H391" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I391" t="inlineStr"/>
       <c r="J391" t="inlineStr"/>
@@ -14939,7 +13863,7 @@
         <v>199342.5493554588</v>
       </c>
       <c r="H392" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I392" t="inlineStr"/>
       <c r="J392" t="inlineStr"/>
@@ -14972,7 +13896,7 @@
         <v>164824.2778280447</v>
       </c>
       <c r="H393" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I393" t="inlineStr"/>
       <c r="J393" t="inlineStr"/>
@@ -15005,7 +13929,7 @@
         <v>184946.1906280447</v>
       </c>
       <c r="H394" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I394" t="inlineStr"/>
       <c r="J394" t="inlineStr"/>
@@ -15038,7 +13962,7 @@
         <v>95976.78174121109</v>
       </c>
       <c r="H395" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I395" t="inlineStr"/>
       <c r="J395" t="inlineStr"/>
@@ -15071,7 +13995,7 @@
         <v>19217.76634121109</v>
       </c>
       <c r="H396" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I396" t="inlineStr"/>
       <c r="J396" t="inlineStr"/>
@@ -15104,7 +14028,7 @@
         <v>70379.26954121108</v>
       </c>
       <c r="H397" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I397" t="inlineStr"/>
       <c r="J397" t="inlineStr"/>
@@ -15137,7 +14061,7 @@
         <v>30199.22335951219</v>
       </c>
       <c r="H398" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I398" t="inlineStr"/>
       <c r="J398" t="inlineStr"/>
@@ -15170,7 +14094,7 @@
         <v>42045.11655951219</v>
       </c>
       <c r="H399" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I399" t="inlineStr"/>
       <c r="J399" t="inlineStr"/>
@@ -15269,7 +14193,7 @@
         <v>58680.1388282341</v>
       </c>
       <c r="H402" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I402" t="inlineStr"/>
       <c r="J402" t="inlineStr"/>
@@ -15302,7 +14226,7 @@
         <v>73548.96512823409</v>
       </c>
       <c r="H403" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I403" t="inlineStr"/>
       <c r="J403" t="inlineStr"/>
@@ -15335,7 +14259,7 @@
         <v>118556.461547383</v>
       </c>
       <c r="H404" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I404" t="inlineStr"/>
       <c r="J404" t="inlineStr"/>
@@ -15368,7 +14292,7 @@
         <v>81621.71405448204</v>
       </c>
       <c r="H405" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I405" t="inlineStr"/>
       <c r="J405" t="inlineStr"/>
@@ -15401,7 +14325,7 @@
         <v>90396.7935628713</v>
       </c>
       <c r="H406" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I406" t="inlineStr"/>
       <c r="J406" t="inlineStr"/>
@@ -15434,7 +14358,7 @@
         <v>81498.50533514447</v>
       </c>
       <c r="H407" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I407" t="inlineStr"/>
       <c r="J407" t="inlineStr"/>
@@ -15467,7 +14391,7 @@
         <v>85962.55003514446</v>
       </c>
       <c r="H408" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I408" t="inlineStr"/>
       <c r="J408" t="inlineStr"/>
@@ -15500,7 +14424,7 @@
         <v>85743.61203514447</v>
       </c>
       <c r="H409" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I409" t="inlineStr"/>
       <c r="J409" t="inlineStr"/>
@@ -15533,7 +14457,7 @@
         <v>90319.47623514447</v>
       </c>
       <c r="H410" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I410" t="inlineStr"/>
       <c r="J410" t="inlineStr"/>
@@ -15566,7 +14490,7 @@
         <v>90319.47623514447</v>
       </c>
       <c r="H411" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I411" t="inlineStr"/>
       <c r="J411" t="inlineStr"/>
@@ -15599,7 +14523,7 @@
         <v>90319.47623514447</v>
       </c>
       <c r="H412" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I412" t="inlineStr"/>
       <c r="J412" t="inlineStr"/>
@@ -15632,7 +14556,7 @@
         <v>84001.36753514447</v>
       </c>
       <c r="H413" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I413" t="inlineStr"/>
       <c r="J413" t="inlineStr"/>
@@ -15797,7 +14721,7 @@
         <v>112250.6808860779</v>
       </c>
       <c r="H418" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I418" t="inlineStr"/>
       <c r="J418" t="inlineStr"/>
@@ -15830,7 +14754,7 @@
         <v>130764.1240658629</v>
       </c>
       <c r="H419" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I419" t="inlineStr"/>
       <c r="J419" t="inlineStr"/>
@@ -15863,7 +14787,7 @@
         <v>103366.7515948605</v>
       </c>
       <c r="H420" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I420" t="inlineStr"/>
       <c r="J420" t="inlineStr"/>
@@ -16061,7 +14985,7 @@
         <v>105311.8480948605</v>
       </c>
       <c r="H426" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I426" t="inlineStr"/>
       <c r="J426" t="inlineStr"/>
@@ -16127,7 +15051,7 @@
         <v>94720.65309486046</v>
       </c>
       <c r="H428" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I428" t="inlineStr"/>
       <c r="J428" t="inlineStr"/>
@@ -16160,7 +15084,7 @@
         <v>108857.3498948605</v>
       </c>
       <c r="H429" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I429" t="inlineStr"/>
       <c r="J429" t="inlineStr"/>
@@ -16193,7 +15117,7 @@
         <v>126611.5576948605</v>
       </c>
       <c r="H430" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I430" t="inlineStr"/>
       <c r="J430" t="inlineStr"/>
@@ -16226,7 +15150,7 @@
         <v>141800.4868680896</v>
       </c>
       <c r="H431" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I431" t="inlineStr"/>
       <c r="J431" t="inlineStr"/>
@@ -16259,7 +15183,7 @@
         <v>141800.4868680896</v>
       </c>
       <c r="H432" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I432" t="inlineStr"/>
       <c r="J432" t="inlineStr"/>
@@ -16292,7 +15216,7 @@
         <v>140518.0621680896</v>
       </c>
       <c r="H433" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I433" t="inlineStr"/>
       <c r="J433" t="inlineStr"/>
@@ -16325,7 +15249,7 @@
         <v>152293.4529680896</v>
       </c>
       <c r="H434" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I434" t="inlineStr"/>
       <c r="J434" t="inlineStr"/>
@@ -16358,7 +15282,7 @@
         <v>144487.4723680896</v>
       </c>
       <c r="H435" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I435" t="inlineStr"/>
       <c r="J435" t="inlineStr"/>
@@ -16391,7 +15315,7 @@
         <v>151428.3031680896</v>
       </c>
       <c r="H436" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I436" t="inlineStr"/>
       <c r="J436" t="inlineStr"/>
@@ -16424,7 +15348,7 @@
         <v>152754.5411680896</v>
       </c>
       <c r="H437" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I437" t="inlineStr"/>
       <c r="J437" t="inlineStr"/>
@@ -16457,7 +15381,7 @@
         <v>147396.3340680896</v>
       </c>
       <c r="H438" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I438" t="inlineStr"/>
       <c r="J438" t="inlineStr"/>
@@ -16490,7 +15414,7 @@
         <v>147396.3340680896</v>
       </c>
       <c r="H439" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I439" t="inlineStr"/>
       <c r="J439" t="inlineStr"/>
@@ -16523,7 +15447,7 @@
         <v>132482.1346680896</v>
       </c>
       <c r="H440" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I440" t="inlineStr"/>
       <c r="J440" t="inlineStr"/>
@@ -16556,7 +15480,7 @@
         <v>117741.8026680896</v>
       </c>
       <c r="H441" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I441" t="inlineStr"/>
       <c r="J441" t="inlineStr"/>
@@ -16589,7 +15513,7 @@
         <v>146183.3149680896</v>
       </c>
       <c r="H442" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I442" t="inlineStr"/>
       <c r="J442" t="inlineStr"/>
@@ -16622,7 +15546,7 @@
         <v>149722.3535266819</v>
       </c>
       <c r="H443" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I443" t="inlineStr"/>
       <c r="J443" t="inlineStr"/>
@@ -16655,7 +15579,7 @@
         <v>140729.5321266819</v>
       </c>
       <c r="H444" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I444" t="inlineStr"/>
       <c r="J444" t="inlineStr"/>
@@ -16721,7 +15645,7 @@
         <v>157034.3838932163</v>
       </c>
       <c r="H446" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I446" t="inlineStr"/>
       <c r="J446" t="inlineStr"/>
@@ -16820,7 +15744,7 @@
         <v>157342.2073932163</v>
       </c>
       <c r="H449" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I449" t="inlineStr"/>
       <c r="J449" t="inlineStr"/>
@@ -16853,7 +15777,7 @@
         <v>156982.2073932163</v>
       </c>
       <c r="H450" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I450" t="inlineStr"/>
       <c r="J450" t="inlineStr"/>
@@ -16886,7 +15810,7 @@
         <v>151081.9137932163</v>
       </c>
       <c r="H451" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I451" t="inlineStr"/>
       <c r="J451" t="inlineStr"/>
@@ -16919,7 +15843,7 @@
         <v>154200.6672932162</v>
       </c>
       <c r="H452" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I452" t="inlineStr"/>
       <c r="J452" t="inlineStr"/>
@@ -16952,7 +15876,7 @@
         <v>153986.3456932163</v>
       </c>
       <c r="H453" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I453" t="inlineStr"/>
       <c r="J453" t="inlineStr"/>
@@ -16985,7 +15909,7 @@
         <v>153986.3456932163</v>
       </c>
       <c r="H454" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I454" t="inlineStr"/>
       <c r="J454" t="inlineStr"/>
@@ -17018,7 +15942,7 @@
         <v>159307.5719932163</v>
       </c>
       <c r="H455" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I455" t="inlineStr"/>
       <c r="J455" t="inlineStr"/>
@@ -17051,7 +15975,7 @@
         <v>158520.9865932163</v>
       </c>
       <c r="H456" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I456" t="inlineStr"/>
       <c r="J456" t="inlineStr"/>
@@ -17084,7 +16008,7 @@
         <v>162949.0208932162</v>
       </c>
       <c r="H457" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I457" t="inlineStr"/>
       <c r="J457" t="inlineStr"/>
@@ -17117,7 +16041,7 @@
         <v>164944.0428932162</v>
       </c>
       <c r="H458" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I458" t="inlineStr"/>
       <c r="J458" t="inlineStr"/>
@@ -17150,7 +16074,7 @@
         <v>167922.8262932162</v>
       </c>
       <c r="H459" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I459" t="inlineStr"/>
       <c r="J459" t="inlineStr"/>
@@ -17183,7 +16107,7 @@
         <v>167773.6662932162</v>
       </c>
       <c r="H460" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I460" t="inlineStr"/>
       <c r="J460" t="inlineStr"/>
@@ -17216,7 +16140,7 @@
         <v>165746.4060932162</v>
       </c>
       <c r="H461" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I461" t="inlineStr"/>
       <c r="J461" t="inlineStr"/>
@@ -17249,7 +16173,7 @@
         <v>165731.2309932162</v>
       </c>
       <c r="H462" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I462" t="inlineStr"/>
       <c r="J462" t="inlineStr"/>
@@ -17282,7 +16206,7 @@
         <v>167082.5892932162</v>
       </c>
       <c r="H463" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I463" t="inlineStr"/>
       <c r="J463" t="inlineStr"/>
@@ -17315,7 +16239,7 @@
         <v>166010.8259932162</v>
       </c>
       <c r="H464" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I464" t="inlineStr"/>
       <c r="J464" t="inlineStr"/>
@@ -17348,7 +16272,7 @@
         <v>161843.3269932162</v>
       </c>
       <c r="H465" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I465" t="inlineStr"/>
       <c r="J465" t="inlineStr"/>
@@ -17381,7 +16305,7 @@
         <v>162452.4538083066</v>
       </c>
       <c r="H466" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I466" t="inlineStr"/>
       <c r="J466" t="inlineStr"/>
@@ -17414,7 +16338,7 @@
         <v>162352.4538083066</v>
       </c>
       <c r="H467" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I467" t="inlineStr"/>
       <c r="J467" t="inlineStr"/>
@@ -17447,7 +16371,7 @@
         <v>154546.2732083066</v>
       </c>
       <c r="H468" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I468" t="inlineStr"/>
       <c r="J468" t="inlineStr"/>
@@ -17480,7 +16404,7 @@
         <v>163042.3264083066</v>
       </c>
       <c r="H469" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I469" t="inlineStr"/>
       <c r="J469" t="inlineStr"/>
@@ -17513,7 +16437,7 @@
         <v>159528.5097083066</v>
       </c>
       <c r="H470" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I470" t="inlineStr"/>
       <c r="J470" t="inlineStr"/>
@@ -17546,7 +16470,7 @@
         <v>165162.9829083066</v>
       </c>
       <c r="H471" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I471" t="inlineStr"/>
       <c r="J471" t="inlineStr"/>
@@ -17579,7 +16503,7 @@
         <v>163890.8249083066</v>
       </c>
       <c r="H472" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I472" t="inlineStr"/>
       <c r="J472" t="inlineStr"/>
@@ -17612,7 +16536,7 @@
         <v>164290.8249083066</v>
       </c>
       <c r="H473" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I473" t="inlineStr"/>
       <c r="J473" t="inlineStr"/>
@@ -17645,7 +16569,7 @@
         <v>163844.5811083066</v>
       </c>
       <c r="H474" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I474" t="inlineStr"/>
       <c r="J474" t="inlineStr"/>
@@ -17678,7 +16602,7 @@
         <v>163844.5811083066</v>
       </c>
       <c r="H475" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I475" t="inlineStr"/>
       <c r="J475" t="inlineStr"/>
@@ -17711,7 +16635,7 @@
         <v>155645.7643083066</v>
       </c>
       <c r="H476" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I476" t="inlineStr"/>
       <c r="J476" t="inlineStr"/>
@@ -17744,7 +16668,7 @@
         <v>148351.7778083066</v>
       </c>
       <c r="H477" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I477" t="inlineStr"/>
       <c r="J477" t="inlineStr"/>
@@ -17777,7 +16701,7 @@
         <v>149642.6476127756</v>
       </c>
       <c r="H478" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I478" t="inlineStr"/>
       <c r="J478" t="inlineStr"/>
@@ -17810,7 +16734,7 @@
         <v>154118.8904127756</v>
       </c>
       <c r="H479" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I479" t="inlineStr"/>
       <c r="J479" t="inlineStr"/>
@@ -17843,7 +16767,7 @@
         <v>153686.7212212155</v>
       </c>
       <c r="H480" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I480" t="inlineStr"/>
       <c r="J480" t="inlineStr"/>
@@ -17876,7 +16800,7 @@
         <v>153100.6766212155</v>
       </c>
       <c r="H481" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I481" t="inlineStr"/>
       <c r="J481" t="inlineStr"/>
@@ -17909,7 +16833,7 @@
         <v>153100.6766212155</v>
       </c>
       <c r="H482" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I482" t="inlineStr"/>
       <c r="J482" t="inlineStr"/>
@@ -17942,7 +16866,7 @@
         <v>153100.6766212155</v>
       </c>
       <c r="H483" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I483" t="inlineStr"/>
       <c r="J483" t="inlineStr"/>
@@ -17975,7 +16899,7 @@
         <v>148934.0754212155</v>
       </c>
       <c r="H484" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I484" t="inlineStr"/>
       <c r="J484" t="inlineStr"/>
@@ -18008,7 +16932,7 @@
         <v>131773.1255212155</v>
       </c>
       <c r="H485" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I485" t="inlineStr"/>
       <c r="J485" t="inlineStr"/>
@@ -18041,7 +16965,7 @@
         <v>143107.5562212155</v>
       </c>
       <c r="H486" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I486" t="inlineStr"/>
       <c r="J486" t="inlineStr"/>
@@ -18074,7 +16998,7 @@
         <v>109185.0255212155</v>
       </c>
       <c r="H487" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I487" t="inlineStr"/>
       <c r="J487" t="inlineStr"/>
@@ -18107,7 +17031,7 @@
         <v>104037.6242212155</v>
       </c>
       <c r="H488" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I488" t="inlineStr"/>
       <c r="J488" t="inlineStr"/>
@@ -18140,7 +17064,7 @@
         <v>104037.6242212155</v>
       </c>
       <c r="H489" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I489" t="inlineStr"/>
       <c r="J489" t="inlineStr"/>
@@ -18173,7 +17097,7 @@
         <v>115659.1279212155</v>
       </c>
       <c r="H490" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I490" t="inlineStr"/>
       <c r="J490" t="inlineStr"/>
@@ -18206,7 +17130,7 @@
         <v>86677.14952121553</v>
       </c>
       <c r="H491" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I491" t="inlineStr"/>
       <c r="J491" t="inlineStr"/>
@@ -18239,7 +17163,7 @@
         <v>109427.1414212155</v>
       </c>
       <c r="H492" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I492" t="inlineStr"/>
       <c r="J492" t="inlineStr"/>
@@ -18272,7 +17196,7 @@
         <v>108277.1488212155</v>
       </c>
       <c r="H493" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I493" t="inlineStr"/>
       <c r="J493" t="inlineStr"/>
@@ -18305,7 +17229,7 @@
         <v>99937.66312121552</v>
       </c>
       <c r="H494" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I494" t="inlineStr"/>
       <c r="J494" t="inlineStr"/>
@@ -18338,7 +17262,7 @@
         <v>109682.471218563</v>
       </c>
       <c r="H495" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I495" t="inlineStr"/>
       <c r="J495" t="inlineStr"/>
@@ -18371,7 +17295,7 @@
         <v>110359.3704587266</v>
       </c>
       <c r="H496" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I496" t="inlineStr"/>
       <c r="J496" t="inlineStr"/>
@@ -18404,7 +17328,7 @@
         <v>108443.8286356084</v>
       </c>
       <c r="H497" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I497" t="inlineStr"/>
       <c r="J497" t="inlineStr"/>
@@ -18437,7 +17361,7 @@
         <v>106803.1314356084</v>
       </c>
       <c r="H498" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I498" t="inlineStr"/>
       <c r="J498" t="inlineStr"/>
@@ -18470,7 +17394,7 @@
         <v>115354.1833356084</v>
       </c>
       <c r="H499" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I499" t="inlineStr"/>
       <c r="J499" t="inlineStr"/>
@@ -18503,7 +17427,7 @@
         <v>114513.4057356084</v>
       </c>
       <c r="H500" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I500" t="inlineStr"/>
       <c r="J500" t="inlineStr"/>
@@ -18536,7 +17460,7 @@
         <v>114513.4057356084</v>
       </c>
       <c r="H501" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I501" t="inlineStr"/>
       <c r="J501" t="inlineStr"/>
@@ -26302,6 +25226,6 @@
       <c r="M736" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-16 BackTest WTC.xlsx
+++ b/BackTest/2020-01-16 BackTest WTC.xlsx
@@ -2200,10 +2200,14 @@
         <v>-68951.38865859991</v>
       </c>
       <c r="H55" t="n">
-        <v>0</v>
-      </c>
-      <c r="I55" t="inlineStr"/>
-      <c r="J55" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I55" t="n">
+        <v>401</v>
+      </c>
+      <c r="J55" t="n">
+        <v>401</v>
+      </c>
       <c r="K55" t="inlineStr"/>
       <c r="L55" t="n">
         <v>1</v>
@@ -2233,11 +2237,19 @@
         <v>-69156.60995859992</v>
       </c>
       <c r="H56" t="n">
-        <v>0</v>
-      </c>
-      <c r="I56" t="inlineStr"/>
-      <c r="J56" t="inlineStr"/>
-      <c r="K56" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I56" t="n">
+        <v>401</v>
+      </c>
+      <c r="J56" t="n">
+        <v>401</v>
+      </c>
+      <c r="K56" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L56" t="n">
         <v>1</v>
       </c>
@@ -2266,11 +2278,19 @@
         <v>-72351.50715859992</v>
       </c>
       <c r="H57" t="n">
-        <v>0</v>
-      </c>
-      <c r="I57" t="inlineStr"/>
-      <c r="J57" t="inlineStr"/>
-      <c r="K57" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I57" t="n">
+        <v>395.9</v>
+      </c>
+      <c r="J57" t="n">
+        <v>401</v>
+      </c>
+      <c r="K57" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L57" t="n">
         <v>1</v>
       </c>
@@ -2299,11 +2319,19 @@
         <v>-72361.50715859992</v>
       </c>
       <c r="H58" t="n">
-        <v>0</v>
-      </c>
-      <c r="I58" t="inlineStr"/>
-      <c r="J58" t="inlineStr"/>
-      <c r="K58" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I58" t="n">
+        <v>395.5</v>
+      </c>
+      <c r="J58" t="n">
+        <v>401</v>
+      </c>
+      <c r="K58" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L58" t="n">
         <v>1</v>
       </c>
@@ -2338,9 +2366,13 @@
         <v>395</v>
       </c>
       <c r="J59" t="n">
-        <v>395</v>
-      </c>
-      <c r="K59" t="inlineStr"/>
+        <v>401</v>
+      </c>
+      <c r="K59" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L59" t="n">
         <v>1</v>
       </c>
@@ -2375,11 +2407,11 @@
         <v>395</v>
       </c>
       <c r="J60" t="n">
-        <v>395</v>
+        <v>401</v>
       </c>
       <c r="K60" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L60" t="n">
@@ -2416,7 +2448,7 @@
         <v>397</v>
       </c>
       <c r="J61" t="n">
-        <v>395</v>
+        <v>401</v>
       </c>
       <c r="K61" t="inlineStr">
         <is>
@@ -2457,7 +2489,7 @@
         <v>398</v>
       </c>
       <c r="J62" t="n">
-        <v>395</v>
+        <v>401</v>
       </c>
       <c r="K62" t="inlineStr">
         <is>
@@ -2498,7 +2530,7 @@
         <v>398</v>
       </c>
       <c r="J63" t="n">
-        <v>395</v>
+        <v>401</v>
       </c>
       <c r="K63" t="inlineStr">
         <is>
@@ -2539,7 +2571,7 @@
         <v>397.2</v>
       </c>
       <c r="J64" t="n">
-        <v>395</v>
+        <v>401</v>
       </c>
       <c r="K64" t="inlineStr">
         <is>
@@ -2574,11 +2606,13 @@
         <v>-70937.96175859994</v>
       </c>
       <c r="H65" t="n">
-        <v>0</v>
-      </c>
-      <c r="I65" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I65" t="n">
+        <v>398.1</v>
+      </c>
       <c r="J65" t="n">
-        <v>395</v>
+        <v>401</v>
       </c>
       <c r="K65" t="inlineStr">
         <is>
@@ -2613,11 +2647,13 @@
         <v>-71063.84595859994</v>
       </c>
       <c r="H66" t="n">
-        <v>0</v>
-      </c>
-      <c r="I66" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I66" t="n">
+        <v>398</v>
+      </c>
       <c r="J66" t="n">
-        <v>395</v>
+        <v>401</v>
       </c>
       <c r="K66" t="inlineStr">
         <is>
@@ -2658,7 +2694,7 @@
         <v>397.2</v>
       </c>
       <c r="J67" t="n">
-        <v>395</v>
+        <v>401</v>
       </c>
       <c r="K67" t="inlineStr">
         <is>
@@ -2699,7 +2735,7 @@
         <v>398</v>
       </c>
       <c r="J68" t="n">
-        <v>395</v>
+        <v>401</v>
       </c>
       <c r="K68" t="inlineStr">
         <is>
@@ -2740,7 +2776,7 @@
         <v>397</v>
       </c>
       <c r="J69" t="n">
-        <v>395</v>
+        <v>401</v>
       </c>
       <c r="K69" t="inlineStr">
         <is>
@@ -2781,7 +2817,7 @@
         <v>397.8</v>
       </c>
       <c r="J70" t="n">
-        <v>395</v>
+        <v>401</v>
       </c>
       <c r="K70" t="inlineStr">
         <is>
@@ -2822,7 +2858,7 @@
         <v>394.3</v>
       </c>
       <c r="J71" t="n">
-        <v>395</v>
+        <v>401</v>
       </c>
       <c r="K71" t="inlineStr">
         <is>
@@ -2863,7 +2899,7 @@
         <v>397.8</v>
       </c>
       <c r="J72" t="n">
-        <v>395</v>
+        <v>401</v>
       </c>
       <c r="K72" t="inlineStr">
         <is>
@@ -2904,7 +2940,7 @@
         <v>396.2</v>
       </c>
       <c r="J73" t="n">
-        <v>395</v>
+        <v>401</v>
       </c>
       <c r="K73" t="inlineStr">
         <is>
@@ -2945,7 +2981,7 @@
         <v>398.9</v>
       </c>
       <c r="J74" t="n">
-        <v>395</v>
+        <v>401</v>
       </c>
       <c r="K74" t="inlineStr">
         <is>
@@ -2986,7 +3022,7 @@
         <v>398.9</v>
       </c>
       <c r="J75" t="n">
-        <v>395</v>
+        <v>401</v>
       </c>
       <c r="K75" t="inlineStr">
         <is>
@@ -3027,7 +3063,7 @@
         <v>397.9</v>
       </c>
       <c r="J76" t="n">
-        <v>395</v>
+        <v>401</v>
       </c>
       <c r="K76" t="inlineStr">
         <is>
@@ -3068,7 +3104,7 @@
         <v>398.8</v>
       </c>
       <c r="J77" t="n">
-        <v>395</v>
+        <v>401</v>
       </c>
       <c r="K77" t="inlineStr">
         <is>
@@ -3109,7 +3145,7 @@
         <v>399</v>
       </c>
       <c r="J78" t="n">
-        <v>395</v>
+        <v>401</v>
       </c>
       <c r="K78" t="inlineStr">
         <is>
@@ -3150,7 +3186,7 @@
         <v>397</v>
       </c>
       <c r="J79" t="n">
-        <v>395</v>
+        <v>401</v>
       </c>
       <c r="K79" t="inlineStr">
         <is>
@@ -3191,7 +3227,7 @@
         <v>398.9</v>
       </c>
       <c r="J80" t="n">
-        <v>395</v>
+        <v>401</v>
       </c>
       <c r="K80" t="inlineStr">
         <is>
@@ -3226,11 +3262,13 @@
         <v>-66756.80255027703</v>
       </c>
       <c r="H81" t="n">
-        <v>0</v>
-      </c>
-      <c r="I81" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I81" t="n">
+        <v>398.9</v>
+      </c>
       <c r="J81" t="n">
-        <v>395</v>
+        <v>401</v>
       </c>
       <c r="K81" t="inlineStr">
         <is>
@@ -3271,7 +3309,7 @@
         <v>398</v>
       </c>
       <c r="J82" t="n">
-        <v>395</v>
+        <v>401</v>
       </c>
       <c r="K82" t="inlineStr">
         <is>
@@ -3312,7 +3350,7 @@
         <v>397.9</v>
       </c>
       <c r="J83" t="n">
-        <v>395</v>
+        <v>401</v>
       </c>
       <c r="K83" t="inlineStr">
         <is>
@@ -3353,7 +3391,7 @@
         <v>397.7</v>
       </c>
       <c r="J84" t="n">
-        <v>395</v>
+        <v>401</v>
       </c>
       <c r="K84" t="inlineStr">
         <is>
@@ -3394,7 +3432,7 @@
         <v>398.8</v>
       </c>
       <c r="J85" t="n">
-        <v>395</v>
+        <v>401</v>
       </c>
       <c r="K85" t="inlineStr">
         <is>
@@ -3435,7 +3473,7 @@
         <v>399</v>
       </c>
       <c r="J86" t="n">
-        <v>395</v>
+        <v>401</v>
       </c>
       <c r="K86" t="inlineStr">
         <is>
@@ -3476,7 +3514,7 @@
         <v>400</v>
       </c>
       <c r="J87" t="n">
-        <v>395</v>
+        <v>401</v>
       </c>
       <c r="K87" t="inlineStr">
         <is>
@@ -3517,7 +3555,7 @@
         <v>400</v>
       </c>
       <c r="J88" t="n">
-        <v>395</v>
+        <v>401</v>
       </c>
       <c r="K88" t="inlineStr">
         <is>
@@ -3558,7 +3596,7 @@
         <v>400.1</v>
       </c>
       <c r="J89" t="n">
-        <v>395</v>
+        <v>401</v>
       </c>
       <c r="K89" t="inlineStr">
         <is>
@@ -3599,7 +3637,7 @@
         <v>400.4</v>
       </c>
       <c r="J90" t="n">
-        <v>395</v>
+        <v>401</v>
       </c>
       <c r="K90" t="inlineStr">
         <is>
@@ -3640,7 +3678,7 @@
         <v>403.4</v>
       </c>
       <c r="J91" t="n">
-        <v>395</v>
+        <v>401</v>
       </c>
       <c r="K91" t="inlineStr">
         <is>
@@ -3681,7 +3719,7 @@
         <v>405.6</v>
       </c>
       <c r="J92" t="n">
-        <v>395</v>
+        <v>401</v>
       </c>
       <c r="K92" t="inlineStr">
         <is>
@@ -3722,7 +3760,7 @@
         <v>405.7</v>
       </c>
       <c r="J93" t="n">
-        <v>395</v>
+        <v>401</v>
       </c>
       <c r="K93" t="inlineStr">
         <is>
@@ -3763,7 +3801,7 @@
         <v>406</v>
       </c>
       <c r="J94" t="n">
-        <v>395</v>
+        <v>401</v>
       </c>
       <c r="K94" t="inlineStr">
         <is>
@@ -3798,13 +3836,11 @@
         <v>-50026.06434195416</v>
       </c>
       <c r="H95" t="n">
-        <v>1</v>
-      </c>
-      <c r="I95" t="n">
-        <v>409.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I95" t="inlineStr"/>
       <c r="J95" t="n">
-        <v>395</v>
+        <v>401</v>
       </c>
       <c r="K95" t="inlineStr">
         <is>
@@ -3839,13 +3875,11 @@
         <v>-51926.06434195416</v>
       </c>
       <c r="H96" t="n">
-        <v>1</v>
-      </c>
-      <c r="I96" t="n">
-        <v>408.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I96" t="inlineStr"/>
       <c r="J96" t="n">
-        <v>395</v>
+        <v>401</v>
       </c>
       <c r="K96" t="inlineStr">
         <is>
@@ -3880,13 +3914,11 @@
         <v>-52027.36434195416</v>
       </c>
       <c r="H97" t="n">
-        <v>1</v>
-      </c>
-      <c r="I97" t="n">
-        <v>400.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I97" t="inlineStr"/>
       <c r="J97" t="n">
-        <v>395</v>
+        <v>401</v>
       </c>
       <c r="K97" t="inlineStr">
         <is>
@@ -3921,13 +3953,11 @@
         <v>-52026.06434195416</v>
       </c>
       <c r="H98" t="n">
-        <v>1</v>
-      </c>
-      <c r="I98" t="n">
-        <v>400.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I98" t="inlineStr"/>
       <c r="J98" t="n">
-        <v>395</v>
+        <v>401</v>
       </c>
       <c r="K98" t="inlineStr">
         <is>
@@ -3966,7 +3996,7 @@
       </c>
       <c r="I99" t="inlineStr"/>
       <c r="J99" t="n">
-        <v>395</v>
+        <v>401</v>
       </c>
       <c r="K99" t="inlineStr">
         <is>
@@ -4001,13 +4031,11 @@
         <v>-57927.15694195416</v>
       </c>
       <c r="H100" t="n">
-        <v>1</v>
-      </c>
-      <c r="I100" t="n">
-        <v>400.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I100" t="inlineStr"/>
       <c r="J100" t="n">
-        <v>395</v>
+        <v>401</v>
       </c>
       <c r="K100" t="inlineStr">
         <is>
@@ -4042,13 +4070,11 @@
         <v>-57929.15694195416</v>
       </c>
       <c r="H101" t="n">
-        <v>1</v>
-      </c>
-      <c r="I101" t="n">
-        <v>400.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I101" t="inlineStr"/>
       <c r="J101" t="n">
-        <v>395</v>
+        <v>401</v>
       </c>
       <c r="K101" t="inlineStr">
         <is>
@@ -4083,13 +4109,11 @@
         <v>-57929.15694195416</v>
       </c>
       <c r="H102" t="n">
-        <v>1</v>
-      </c>
-      <c r="I102" t="n">
-        <v>400</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I102" t="inlineStr"/>
       <c r="J102" t="n">
-        <v>395</v>
+        <v>401</v>
       </c>
       <c r="K102" t="inlineStr">
         <is>
@@ -4124,13 +4148,11 @@
         <v>-57795.35694195415</v>
       </c>
       <c r="H103" t="n">
-        <v>1</v>
-      </c>
-      <c r="I103" t="n">
-        <v>400</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I103" t="inlineStr"/>
       <c r="J103" t="n">
-        <v>395</v>
+        <v>401</v>
       </c>
       <c r="K103" t="inlineStr">
         <is>
@@ -4165,13 +4187,11 @@
         <v>-57795.35694195415</v>
       </c>
       <c r="H104" t="n">
-        <v>1</v>
-      </c>
-      <c r="I104" t="n">
-        <v>403.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I104" t="inlineStr"/>
       <c r="J104" t="n">
-        <v>395</v>
+        <v>401</v>
       </c>
       <c r="K104" t="inlineStr">
         <is>
@@ -4206,13 +4226,11 @@
         <v>-58820.61264195415</v>
       </c>
       <c r="H105" t="n">
-        <v>1</v>
-      </c>
-      <c r="I105" t="n">
-        <v>403.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I105" t="inlineStr"/>
       <c r="J105" t="n">
-        <v>395</v>
+        <v>401</v>
       </c>
       <c r="K105" t="inlineStr">
         <is>
@@ -4247,13 +4265,11 @@
         <v>-63467.55574195416</v>
       </c>
       <c r="H106" t="n">
-        <v>1</v>
-      </c>
-      <c r="I106" t="n">
-        <v>403.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I106" t="inlineStr"/>
       <c r="J106" t="n">
-        <v>395</v>
+        <v>401</v>
       </c>
       <c r="K106" t="inlineStr">
         <is>
@@ -4288,13 +4304,11 @@
         <v>-60392.86524195416</v>
       </c>
       <c r="H107" t="n">
-        <v>1</v>
-      </c>
-      <c r="I107" t="n">
-        <v>400.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I107" t="inlineStr"/>
       <c r="J107" t="n">
-        <v>395</v>
+        <v>401</v>
       </c>
       <c r="K107" t="inlineStr">
         <is>
@@ -4329,13 +4343,11 @@
         <v>-68675.95934195416</v>
       </c>
       <c r="H108" t="n">
-        <v>1</v>
-      </c>
-      <c r="I108" t="n">
-        <v>401.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I108" t="inlineStr"/>
       <c r="J108" t="n">
-        <v>395</v>
+        <v>401</v>
       </c>
       <c r="K108" t="inlineStr">
         <is>
@@ -4370,13 +4382,11 @@
         <v>-68675.95934195416</v>
       </c>
       <c r="H109" t="n">
-        <v>1</v>
-      </c>
-      <c r="I109" t="n">
-        <v>395</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I109" t="inlineStr"/>
       <c r="J109" t="n">
-        <v>395</v>
+        <v>401</v>
       </c>
       <c r="K109" t="inlineStr">
         <is>
@@ -4417,7 +4427,7 @@
         <v>395</v>
       </c>
       <c r="J110" t="n">
-        <v>395</v>
+        <v>401</v>
       </c>
       <c r="K110" t="inlineStr">
         <is>
@@ -4458,7 +4468,7 @@
         <v>397.9</v>
       </c>
       <c r="J111" t="n">
-        <v>395</v>
+        <v>401</v>
       </c>
       <c r="K111" t="inlineStr">
         <is>
@@ -4499,7 +4509,7 @@
         <v>392.1</v>
       </c>
       <c r="J112" t="n">
-        <v>395</v>
+        <v>401</v>
       </c>
       <c r="K112" t="inlineStr">
         <is>
@@ -4540,7 +4550,7 @@
         <v>392.1</v>
       </c>
       <c r="J113" t="n">
-        <v>395</v>
+        <v>401</v>
       </c>
       <c r="K113" t="inlineStr">
         <is>
@@ -4581,7 +4591,7 @@
         <v>398</v>
       </c>
       <c r="J114" t="n">
-        <v>395</v>
+        <v>401</v>
       </c>
       <c r="K114" t="inlineStr">
         <is>
@@ -4622,7 +4632,7 @@
         <v>399</v>
       </c>
       <c r="J115" t="n">
-        <v>395</v>
+        <v>401</v>
       </c>
       <c r="K115" t="inlineStr">
         <is>
@@ -4663,7 +4673,7 @@
         <v>401.9</v>
       </c>
       <c r="J116" t="n">
-        <v>395</v>
+        <v>401</v>
       </c>
       <c r="K116" t="inlineStr">
         <is>
@@ -4704,7 +4714,7 @@
         <v>399</v>
       </c>
       <c r="J117" t="n">
-        <v>395</v>
+        <v>401</v>
       </c>
       <c r="K117" t="inlineStr">
         <is>
@@ -4745,7 +4755,7 @@
         <v>401.4</v>
       </c>
       <c r="J118" t="n">
-        <v>395</v>
+        <v>401</v>
       </c>
       <c r="K118" t="inlineStr">
         <is>
@@ -4780,11 +4790,13 @@
         <v>-55619.16994195415</v>
       </c>
       <c r="H119" t="n">
-        <v>0</v>
-      </c>
-      <c r="I119" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I119" t="n">
+        <v>406.1</v>
+      </c>
       <c r="J119" t="n">
-        <v>395</v>
+        <v>401</v>
       </c>
       <c r="K119" t="inlineStr">
         <is>
@@ -4819,11 +4831,13 @@
         <v>-55619.16994195415</v>
       </c>
       <c r="H120" t="n">
-        <v>0</v>
-      </c>
-      <c r="I120" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I120" t="n">
+        <v>406.1</v>
+      </c>
       <c r="J120" t="n">
-        <v>395</v>
+        <v>401</v>
       </c>
       <c r="K120" t="inlineStr">
         <is>
@@ -4858,11 +4872,13 @@
         <v>-54710.08494195416</v>
       </c>
       <c r="H121" t="n">
-        <v>0</v>
-      </c>
-      <c r="I121" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I121" t="n">
+        <v>406.1</v>
+      </c>
       <c r="J121" t="n">
-        <v>395</v>
+        <v>401</v>
       </c>
       <c r="K121" t="inlineStr">
         <is>
@@ -4901,7 +4917,7 @@
       </c>
       <c r="I122" t="inlineStr"/>
       <c r="J122" t="n">
-        <v>395</v>
+        <v>401</v>
       </c>
       <c r="K122" t="inlineStr">
         <is>
@@ -4940,7 +4956,7 @@
       </c>
       <c r="I123" t="inlineStr"/>
       <c r="J123" t="n">
-        <v>395</v>
+        <v>401</v>
       </c>
       <c r="K123" t="inlineStr">
         <is>
@@ -4979,7 +4995,7 @@
       </c>
       <c r="I124" t="inlineStr"/>
       <c r="J124" t="n">
-        <v>395</v>
+        <v>401</v>
       </c>
       <c r="K124" t="inlineStr">
         <is>
@@ -5018,7 +5034,7 @@
       </c>
       <c r="I125" t="inlineStr"/>
       <c r="J125" t="n">
-        <v>395</v>
+        <v>401</v>
       </c>
       <c r="K125" t="inlineStr">
         <is>
@@ -5057,7 +5073,7 @@
       </c>
       <c r="I126" t="inlineStr"/>
       <c r="J126" t="n">
-        <v>395</v>
+        <v>401</v>
       </c>
       <c r="K126" t="inlineStr">
         <is>
@@ -5096,7 +5112,7 @@
       </c>
       <c r="I127" t="inlineStr"/>
       <c r="J127" t="n">
-        <v>395</v>
+        <v>401</v>
       </c>
       <c r="K127" t="inlineStr">
         <is>
@@ -5135,7 +5151,7 @@
       </c>
       <c r="I128" t="inlineStr"/>
       <c r="J128" t="n">
-        <v>395</v>
+        <v>401</v>
       </c>
       <c r="K128" t="inlineStr">
         <is>
@@ -5174,7 +5190,7 @@
       </c>
       <c r="I129" t="inlineStr"/>
       <c r="J129" t="n">
-        <v>395</v>
+        <v>401</v>
       </c>
       <c r="K129" t="inlineStr">
         <is>
@@ -5209,23 +5225,21 @@
         <v>-21160.433666821</v>
       </c>
       <c r="H130" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I130" t="inlineStr"/>
       <c r="J130" t="n">
-        <v>395</v>
+        <v>401</v>
       </c>
       <c r="K130" t="inlineStr">
         <is>
-          <t>매도 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L130" t="n">
-        <v>1.108670886075949</v>
-      </c>
-      <c r="M130" t="n">
-        <v>1.088400613183444</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="M130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
@@ -5253,8 +5267,14 @@
         <v>0</v>
       </c>
       <c r="I131" t="inlineStr"/>
-      <c r="J131" t="inlineStr"/>
-      <c r="K131" t="inlineStr"/>
+      <c r="J131" t="n">
+        <v>401</v>
+      </c>
+      <c r="K131" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L131" t="n">
         <v>1</v>
       </c>
@@ -5283,11 +5303,17 @@
         <v>141555.0159423261</v>
       </c>
       <c r="H132" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I132" t="inlineStr"/>
-      <c r="J132" t="inlineStr"/>
-      <c r="K132" t="inlineStr"/>
+      <c r="J132" t="n">
+        <v>401</v>
+      </c>
+      <c r="K132" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L132" t="n">
         <v>1</v>
       </c>
@@ -5316,11 +5342,17 @@
         <v>23264.69801944308</v>
       </c>
       <c r="H133" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I133" t="inlineStr"/>
-      <c r="J133" t="inlineStr"/>
-      <c r="K133" t="inlineStr"/>
+      <c r="J133" t="n">
+        <v>401</v>
+      </c>
+      <c r="K133" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L133" t="n">
         <v>1</v>
       </c>
@@ -5349,11 +5381,17 @@
         <v>104329.9446292272</v>
       </c>
       <c r="H134" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I134" t="inlineStr"/>
-      <c r="J134" t="inlineStr"/>
-      <c r="K134" t="inlineStr"/>
+      <c r="J134" t="n">
+        <v>401</v>
+      </c>
+      <c r="K134" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L134" t="n">
         <v>1</v>
       </c>
@@ -5382,11 +5420,17 @@
         <v>75972.54761158749</v>
       </c>
       <c r="H135" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I135" t="inlineStr"/>
-      <c r="J135" t="inlineStr"/>
-      <c r="K135" t="inlineStr"/>
+      <c r="J135" t="n">
+        <v>401</v>
+      </c>
+      <c r="K135" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L135" t="n">
         <v>1</v>
       </c>
@@ -5415,11 +5459,17 @@
         <v>60207.25371158749</v>
       </c>
       <c r="H136" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I136" t="inlineStr"/>
-      <c r="J136" t="inlineStr"/>
-      <c r="K136" t="inlineStr"/>
+      <c r="J136" t="n">
+        <v>401</v>
+      </c>
+      <c r="K136" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L136" t="n">
         <v>1</v>
       </c>
@@ -5448,11 +5498,17 @@
         <v>47863.19841158749</v>
       </c>
       <c r="H137" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I137" t="inlineStr"/>
-      <c r="J137" t="inlineStr"/>
-      <c r="K137" t="inlineStr"/>
+      <c r="J137" t="n">
+        <v>401</v>
+      </c>
+      <c r="K137" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L137" t="n">
         <v>1</v>
       </c>
@@ -5481,11 +5537,17 @@
         <v>33164.88291158748</v>
       </c>
       <c r="H138" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I138" t="inlineStr"/>
-      <c r="J138" t="inlineStr"/>
-      <c r="K138" t="inlineStr"/>
+      <c r="J138" t="n">
+        <v>401</v>
+      </c>
+      <c r="K138" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L138" t="n">
         <v>1</v>
       </c>
@@ -5514,11 +5576,17 @@
         <v>18918.19021158748</v>
       </c>
       <c r="H139" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I139" t="inlineStr"/>
-      <c r="J139" t="inlineStr"/>
-      <c r="K139" t="inlineStr"/>
+      <c r="J139" t="n">
+        <v>401</v>
+      </c>
+      <c r="K139" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L139" t="n">
         <v>1</v>
       </c>
@@ -5550,8 +5618,14 @@
         <v>0</v>
       </c>
       <c r="I140" t="inlineStr"/>
-      <c r="J140" t="inlineStr"/>
-      <c r="K140" t="inlineStr"/>
+      <c r="J140" t="n">
+        <v>401</v>
+      </c>
+      <c r="K140" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L140" t="n">
         <v>1</v>
       </c>
@@ -5583,8 +5657,14 @@
         <v>0</v>
       </c>
       <c r="I141" t="inlineStr"/>
-      <c r="J141" t="inlineStr"/>
-      <c r="K141" t="inlineStr"/>
+      <c r="J141" t="n">
+        <v>401</v>
+      </c>
+      <c r="K141" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L141" t="n">
         <v>1</v>
       </c>
@@ -5616,8 +5696,14 @@
         <v>0</v>
       </c>
       <c r="I142" t="inlineStr"/>
-      <c r="J142" t="inlineStr"/>
-      <c r="K142" t="inlineStr"/>
+      <c r="J142" t="n">
+        <v>401</v>
+      </c>
+      <c r="K142" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L142" t="n">
         <v>1</v>
       </c>
@@ -5649,8 +5735,14 @@
         <v>0</v>
       </c>
       <c r="I143" t="inlineStr"/>
-      <c r="J143" t="inlineStr"/>
-      <c r="K143" t="inlineStr"/>
+      <c r="J143" t="n">
+        <v>401</v>
+      </c>
+      <c r="K143" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L143" t="n">
         <v>1</v>
       </c>
@@ -5682,8 +5774,14 @@
         <v>0</v>
       </c>
       <c r="I144" t="inlineStr"/>
-      <c r="J144" t="inlineStr"/>
-      <c r="K144" t="inlineStr"/>
+      <c r="J144" t="n">
+        <v>401</v>
+      </c>
+      <c r="K144" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L144" t="n">
         <v>1</v>
       </c>
@@ -5715,8 +5813,14 @@
         <v>0</v>
       </c>
       <c r="I145" t="inlineStr"/>
-      <c r="J145" t="inlineStr"/>
-      <c r="K145" t="inlineStr"/>
+      <c r="J145" t="n">
+        <v>401</v>
+      </c>
+      <c r="K145" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L145" t="n">
         <v>1</v>
       </c>
@@ -5748,8 +5852,14 @@
         <v>0</v>
       </c>
       <c r="I146" t="inlineStr"/>
-      <c r="J146" t="inlineStr"/>
-      <c r="K146" t="inlineStr"/>
+      <c r="J146" t="n">
+        <v>401</v>
+      </c>
+      <c r="K146" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L146" t="n">
         <v>1</v>
       </c>
@@ -5781,8 +5891,14 @@
         <v>0</v>
       </c>
       <c r="I147" t="inlineStr"/>
-      <c r="J147" t="inlineStr"/>
-      <c r="K147" t="inlineStr"/>
+      <c r="J147" t="n">
+        <v>401</v>
+      </c>
+      <c r="K147" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L147" t="n">
         <v>1</v>
       </c>
@@ -5814,8 +5930,14 @@
         <v>0</v>
       </c>
       <c r="I148" t="inlineStr"/>
-      <c r="J148" t="inlineStr"/>
-      <c r="K148" t="inlineStr"/>
+      <c r="J148" t="n">
+        <v>401</v>
+      </c>
+      <c r="K148" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L148" t="n">
         <v>1</v>
       </c>
@@ -5847,8 +5969,14 @@
         <v>0</v>
       </c>
       <c r="I149" t="inlineStr"/>
-      <c r="J149" t="inlineStr"/>
-      <c r="K149" t="inlineStr"/>
+      <c r="J149" t="n">
+        <v>401</v>
+      </c>
+      <c r="K149" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L149" t="n">
         <v>1</v>
       </c>
@@ -5880,8 +6008,14 @@
         <v>0</v>
       </c>
       <c r="I150" t="inlineStr"/>
-      <c r="J150" t="inlineStr"/>
-      <c r="K150" t="inlineStr"/>
+      <c r="J150" t="n">
+        <v>401</v>
+      </c>
+      <c r="K150" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L150" t="n">
         <v>1</v>
       </c>
@@ -5913,8 +6047,14 @@
         <v>0</v>
       </c>
       <c r="I151" t="inlineStr"/>
-      <c r="J151" t="inlineStr"/>
-      <c r="K151" t="inlineStr"/>
+      <c r="J151" t="n">
+        <v>401</v>
+      </c>
+      <c r="K151" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L151" t="n">
         <v>1</v>
       </c>
@@ -5946,8 +6086,14 @@
         <v>0</v>
       </c>
       <c r="I152" t="inlineStr"/>
-      <c r="J152" t="inlineStr"/>
-      <c r="K152" t="inlineStr"/>
+      <c r="J152" t="n">
+        <v>401</v>
+      </c>
+      <c r="K152" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L152" t="n">
         <v>1</v>
       </c>
@@ -5979,8 +6125,14 @@
         <v>0</v>
       </c>
       <c r="I153" t="inlineStr"/>
-      <c r="J153" t="inlineStr"/>
-      <c r="K153" t="inlineStr"/>
+      <c r="J153" t="n">
+        <v>401</v>
+      </c>
+      <c r="K153" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L153" t="n">
         <v>1</v>
       </c>
@@ -6012,8 +6164,14 @@
         <v>0</v>
       </c>
       <c r="I154" t="inlineStr"/>
-      <c r="J154" t="inlineStr"/>
-      <c r="K154" t="inlineStr"/>
+      <c r="J154" t="n">
+        <v>401</v>
+      </c>
+      <c r="K154" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L154" t="n">
         <v>1</v>
       </c>
@@ -6045,8 +6203,14 @@
         <v>0</v>
       </c>
       <c r="I155" t="inlineStr"/>
-      <c r="J155" t="inlineStr"/>
-      <c r="K155" t="inlineStr"/>
+      <c r="J155" t="n">
+        <v>401</v>
+      </c>
+      <c r="K155" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L155" t="n">
         <v>1</v>
       </c>
@@ -6075,11 +6239,17 @@
         <v>104479.4822115875</v>
       </c>
       <c r="H156" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I156" t="inlineStr"/>
-      <c r="J156" t="inlineStr"/>
-      <c r="K156" t="inlineStr"/>
+      <c r="J156" t="n">
+        <v>401</v>
+      </c>
+      <c r="K156" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L156" t="n">
         <v>1</v>
       </c>
@@ -6108,11 +6278,17 @@
         <v>106287.7229115875</v>
       </c>
       <c r="H157" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I157" t="inlineStr"/>
-      <c r="J157" t="inlineStr"/>
-      <c r="K157" t="inlineStr"/>
+      <c r="J157" t="n">
+        <v>401</v>
+      </c>
+      <c r="K157" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L157" t="n">
         <v>1</v>
       </c>
@@ -6141,11 +6317,17 @@
         <v>105196.3430115875</v>
       </c>
       <c r="H158" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I158" t="inlineStr"/>
-      <c r="J158" t="inlineStr"/>
-      <c r="K158" t="inlineStr"/>
+      <c r="J158" t="n">
+        <v>401</v>
+      </c>
+      <c r="K158" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L158" t="n">
         <v>1</v>
       </c>
@@ -6174,11 +6356,17 @@
         <v>100179.5457115875</v>
       </c>
       <c r="H159" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I159" t="inlineStr"/>
-      <c r="J159" t="inlineStr"/>
-      <c r="K159" t="inlineStr"/>
+      <c r="J159" t="n">
+        <v>401</v>
+      </c>
+      <c r="K159" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L159" t="n">
         <v>1</v>
       </c>
@@ -6207,11 +6395,17 @@
         <v>98622.29571158747</v>
       </c>
       <c r="H160" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I160" t="inlineStr"/>
-      <c r="J160" t="inlineStr"/>
-      <c r="K160" t="inlineStr"/>
+      <c r="J160" t="n">
+        <v>401</v>
+      </c>
+      <c r="K160" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L160" t="n">
         <v>1</v>
       </c>
@@ -6240,11 +6434,17 @@
         <v>108740.0917115875</v>
       </c>
       <c r="H161" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I161" t="inlineStr"/>
-      <c r="J161" t="inlineStr"/>
-      <c r="K161" t="inlineStr"/>
+      <c r="J161" t="n">
+        <v>401</v>
+      </c>
+      <c r="K161" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L161" t="n">
         <v>1</v>
       </c>
@@ -6273,11 +6473,17 @@
         <v>81996.85301158747</v>
       </c>
       <c r="H162" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I162" t="inlineStr"/>
-      <c r="J162" t="inlineStr"/>
-      <c r="K162" t="inlineStr"/>
+      <c r="J162" t="n">
+        <v>401</v>
+      </c>
+      <c r="K162" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L162" t="n">
         <v>1</v>
       </c>
@@ -6309,8 +6515,14 @@
         <v>0</v>
       </c>
       <c r="I163" t="inlineStr"/>
-      <c r="J163" t="inlineStr"/>
-      <c r="K163" t="inlineStr"/>
+      <c r="J163" t="n">
+        <v>401</v>
+      </c>
+      <c r="K163" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L163" t="n">
         <v>1</v>
       </c>
@@ -6342,8 +6554,14 @@
         <v>0</v>
       </c>
       <c r="I164" t="inlineStr"/>
-      <c r="J164" t="inlineStr"/>
-      <c r="K164" t="inlineStr"/>
+      <c r="J164" t="n">
+        <v>401</v>
+      </c>
+      <c r="K164" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L164" t="n">
         <v>1</v>
       </c>
@@ -6372,11 +6590,17 @@
         <v>96998.05491158747</v>
       </c>
       <c r="H165" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I165" t="inlineStr"/>
-      <c r="J165" t="inlineStr"/>
-      <c r="K165" t="inlineStr"/>
+      <c r="J165" t="n">
+        <v>401</v>
+      </c>
+      <c r="K165" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L165" t="n">
         <v>1</v>
       </c>
@@ -6405,11 +6629,17 @@
         <v>94122.01711158747</v>
       </c>
       <c r="H166" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I166" t="inlineStr"/>
-      <c r="J166" t="inlineStr"/>
-      <c r="K166" t="inlineStr"/>
+      <c r="J166" t="n">
+        <v>401</v>
+      </c>
+      <c r="K166" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L166" t="n">
         <v>1</v>
       </c>
@@ -6441,8 +6671,14 @@
         <v>0</v>
       </c>
       <c r="I167" t="inlineStr"/>
-      <c r="J167" t="inlineStr"/>
-      <c r="K167" t="inlineStr"/>
+      <c r="J167" t="n">
+        <v>401</v>
+      </c>
+      <c r="K167" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L167" t="n">
         <v>1</v>
       </c>
@@ -6474,8 +6710,14 @@
         <v>0</v>
       </c>
       <c r="I168" t="inlineStr"/>
-      <c r="J168" t="inlineStr"/>
-      <c r="K168" t="inlineStr"/>
+      <c r="J168" t="n">
+        <v>401</v>
+      </c>
+      <c r="K168" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L168" t="n">
         <v>1</v>
       </c>
@@ -6507,8 +6749,14 @@
         <v>0</v>
       </c>
       <c r="I169" t="inlineStr"/>
-      <c r="J169" t="inlineStr"/>
-      <c r="K169" t="inlineStr"/>
+      <c r="J169" t="n">
+        <v>401</v>
+      </c>
+      <c r="K169" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L169" t="n">
         <v>1</v>
       </c>
@@ -6540,8 +6788,14 @@
         <v>0</v>
       </c>
       <c r="I170" t="inlineStr"/>
-      <c r="J170" t="inlineStr"/>
-      <c r="K170" t="inlineStr"/>
+      <c r="J170" t="n">
+        <v>401</v>
+      </c>
+      <c r="K170" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L170" t="n">
         <v>1</v>
       </c>
@@ -6573,8 +6827,14 @@
         <v>0</v>
       </c>
       <c r="I171" t="inlineStr"/>
-      <c r="J171" t="inlineStr"/>
-      <c r="K171" t="inlineStr"/>
+      <c r="J171" t="n">
+        <v>401</v>
+      </c>
+      <c r="K171" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L171" t="n">
         <v>1</v>
       </c>
@@ -6606,8 +6866,14 @@
         <v>0</v>
       </c>
       <c r="I172" t="inlineStr"/>
-      <c r="J172" t="inlineStr"/>
-      <c r="K172" t="inlineStr"/>
+      <c r="J172" t="n">
+        <v>401</v>
+      </c>
+      <c r="K172" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L172" t="n">
         <v>1</v>
       </c>
@@ -6639,8 +6905,14 @@
         <v>0</v>
       </c>
       <c r="I173" t="inlineStr"/>
-      <c r="J173" t="inlineStr"/>
-      <c r="K173" t="inlineStr"/>
+      <c r="J173" t="n">
+        <v>401</v>
+      </c>
+      <c r="K173" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L173" t="n">
         <v>1</v>
       </c>
@@ -6672,8 +6944,14 @@
         <v>0</v>
       </c>
       <c r="I174" t="inlineStr"/>
-      <c r="J174" t="inlineStr"/>
-      <c r="K174" t="inlineStr"/>
+      <c r="J174" t="n">
+        <v>401</v>
+      </c>
+      <c r="K174" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L174" t="n">
         <v>1</v>
       </c>
@@ -6705,8 +6983,14 @@
         <v>0</v>
       </c>
       <c r="I175" t="inlineStr"/>
-      <c r="J175" t="inlineStr"/>
-      <c r="K175" t="inlineStr"/>
+      <c r="J175" t="n">
+        <v>401</v>
+      </c>
+      <c r="K175" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L175" t="n">
         <v>1</v>
       </c>
@@ -6738,8 +7022,14 @@
         <v>0</v>
       </c>
       <c r="I176" t="inlineStr"/>
-      <c r="J176" t="inlineStr"/>
-      <c r="K176" t="inlineStr"/>
+      <c r="J176" t="n">
+        <v>401</v>
+      </c>
+      <c r="K176" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L176" t="n">
         <v>1</v>
       </c>
@@ -6771,8 +7061,14 @@
         <v>0</v>
       </c>
       <c r="I177" t="inlineStr"/>
-      <c r="J177" t="inlineStr"/>
-      <c r="K177" t="inlineStr"/>
+      <c r="J177" t="n">
+        <v>401</v>
+      </c>
+      <c r="K177" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L177" t="n">
         <v>1</v>
       </c>
@@ -6804,8 +7100,14 @@
         <v>0</v>
       </c>
       <c r="I178" t="inlineStr"/>
-      <c r="J178" t="inlineStr"/>
-      <c r="K178" t="inlineStr"/>
+      <c r="J178" t="n">
+        <v>401</v>
+      </c>
+      <c r="K178" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L178" t="n">
         <v>1</v>
       </c>
@@ -6837,8 +7139,14 @@
         <v>0</v>
       </c>
       <c r="I179" t="inlineStr"/>
-      <c r="J179" t="inlineStr"/>
-      <c r="K179" t="inlineStr"/>
+      <c r="J179" t="n">
+        <v>401</v>
+      </c>
+      <c r="K179" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L179" t="n">
         <v>1</v>
       </c>
@@ -6870,8 +7178,14 @@
         <v>0</v>
       </c>
       <c r="I180" t="inlineStr"/>
-      <c r="J180" t="inlineStr"/>
-      <c r="K180" t="inlineStr"/>
+      <c r="J180" t="n">
+        <v>401</v>
+      </c>
+      <c r="K180" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L180" t="n">
         <v>1</v>
       </c>
@@ -6903,8 +7217,14 @@
         <v>0</v>
       </c>
       <c r="I181" t="inlineStr"/>
-      <c r="J181" t="inlineStr"/>
-      <c r="K181" t="inlineStr"/>
+      <c r="J181" t="n">
+        <v>401</v>
+      </c>
+      <c r="K181" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L181" t="n">
         <v>1</v>
       </c>
@@ -6936,8 +7256,14 @@
         <v>0</v>
       </c>
       <c r="I182" t="inlineStr"/>
-      <c r="J182" t="inlineStr"/>
-      <c r="K182" t="inlineStr"/>
+      <c r="J182" t="n">
+        <v>401</v>
+      </c>
+      <c r="K182" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L182" t="n">
         <v>1</v>
       </c>
@@ -6969,8 +7295,14 @@
         <v>0</v>
       </c>
       <c r="I183" t="inlineStr"/>
-      <c r="J183" t="inlineStr"/>
-      <c r="K183" t="inlineStr"/>
+      <c r="J183" t="n">
+        <v>401</v>
+      </c>
+      <c r="K183" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L183" t="n">
         <v>1</v>
       </c>
@@ -7002,8 +7334,14 @@
         <v>0</v>
       </c>
       <c r="I184" t="inlineStr"/>
-      <c r="J184" t="inlineStr"/>
-      <c r="K184" t="inlineStr"/>
+      <c r="J184" t="n">
+        <v>401</v>
+      </c>
+      <c r="K184" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L184" t="n">
         <v>1</v>
       </c>
@@ -7035,8 +7373,14 @@
         <v>0</v>
       </c>
       <c r="I185" t="inlineStr"/>
-      <c r="J185" t="inlineStr"/>
-      <c r="K185" t="inlineStr"/>
+      <c r="J185" t="n">
+        <v>401</v>
+      </c>
+      <c r="K185" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L185" t="n">
         <v>1</v>
       </c>
@@ -7068,8 +7412,14 @@
         <v>0</v>
       </c>
       <c r="I186" t="inlineStr"/>
-      <c r="J186" t="inlineStr"/>
-      <c r="K186" t="inlineStr"/>
+      <c r="J186" t="n">
+        <v>401</v>
+      </c>
+      <c r="K186" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L186" t="n">
         <v>1</v>
       </c>
@@ -7101,8 +7451,14 @@
         <v>0</v>
       </c>
       <c r="I187" t="inlineStr"/>
-      <c r="J187" t="inlineStr"/>
-      <c r="K187" t="inlineStr"/>
+      <c r="J187" t="n">
+        <v>401</v>
+      </c>
+      <c r="K187" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L187" t="n">
         <v>1</v>
       </c>
@@ -7134,8 +7490,14 @@
         <v>0</v>
       </c>
       <c r="I188" t="inlineStr"/>
-      <c r="J188" t="inlineStr"/>
-      <c r="K188" t="inlineStr"/>
+      <c r="J188" t="n">
+        <v>401</v>
+      </c>
+      <c r="K188" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L188" t="n">
         <v>1</v>
       </c>
@@ -7167,8 +7529,14 @@
         <v>0</v>
       </c>
       <c r="I189" t="inlineStr"/>
-      <c r="J189" t="inlineStr"/>
-      <c r="K189" t="inlineStr"/>
+      <c r="J189" t="n">
+        <v>401</v>
+      </c>
+      <c r="K189" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L189" t="n">
         <v>1</v>
       </c>
@@ -7200,8 +7568,14 @@
         <v>0</v>
       </c>
       <c r="I190" t="inlineStr"/>
-      <c r="J190" t="inlineStr"/>
-      <c r="K190" t="inlineStr"/>
+      <c r="J190" t="n">
+        <v>401</v>
+      </c>
+      <c r="K190" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L190" t="n">
         <v>1</v>
       </c>
@@ -7233,8 +7607,14 @@
         <v>0</v>
       </c>
       <c r="I191" t="inlineStr"/>
-      <c r="J191" t="inlineStr"/>
-      <c r="K191" t="inlineStr"/>
+      <c r="J191" t="n">
+        <v>401</v>
+      </c>
+      <c r="K191" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L191" t="n">
         <v>1</v>
       </c>
@@ -7266,8 +7646,14 @@
         <v>0</v>
       </c>
       <c r="I192" t="inlineStr"/>
-      <c r="J192" t="inlineStr"/>
-      <c r="K192" t="inlineStr"/>
+      <c r="J192" t="n">
+        <v>401</v>
+      </c>
+      <c r="K192" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L192" t="n">
         <v>1</v>
       </c>
@@ -7299,8 +7685,14 @@
         <v>0</v>
       </c>
       <c r="I193" t="inlineStr"/>
-      <c r="J193" t="inlineStr"/>
-      <c r="K193" t="inlineStr"/>
+      <c r="J193" t="n">
+        <v>401</v>
+      </c>
+      <c r="K193" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L193" t="n">
         <v>1</v>
       </c>
@@ -7332,8 +7724,14 @@
         <v>0</v>
       </c>
       <c r="I194" t="inlineStr"/>
-      <c r="J194" t="inlineStr"/>
-      <c r="K194" t="inlineStr"/>
+      <c r="J194" t="n">
+        <v>401</v>
+      </c>
+      <c r="K194" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L194" t="n">
         <v>1</v>
       </c>
@@ -7365,8 +7763,14 @@
         <v>0</v>
       </c>
       <c r="I195" t="inlineStr"/>
-      <c r="J195" t="inlineStr"/>
-      <c r="K195" t="inlineStr"/>
+      <c r="J195" t="n">
+        <v>401</v>
+      </c>
+      <c r="K195" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L195" t="n">
         <v>1</v>
       </c>
@@ -7398,8 +7802,14 @@
         <v>0</v>
       </c>
       <c r="I196" t="inlineStr"/>
-      <c r="J196" t="inlineStr"/>
-      <c r="K196" t="inlineStr"/>
+      <c r="J196" t="n">
+        <v>401</v>
+      </c>
+      <c r="K196" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L196" t="n">
         <v>1</v>
       </c>
@@ -7431,8 +7841,14 @@
         <v>0</v>
       </c>
       <c r="I197" t="inlineStr"/>
-      <c r="J197" t="inlineStr"/>
-      <c r="K197" t="inlineStr"/>
+      <c r="J197" t="n">
+        <v>401</v>
+      </c>
+      <c r="K197" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L197" t="n">
         <v>1</v>
       </c>
@@ -7464,8 +7880,14 @@
         <v>0</v>
       </c>
       <c r="I198" t="inlineStr"/>
-      <c r="J198" t="inlineStr"/>
-      <c r="K198" t="inlineStr"/>
+      <c r="J198" t="n">
+        <v>401</v>
+      </c>
+      <c r="K198" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L198" t="n">
         <v>1</v>
       </c>
@@ -7497,8 +7919,14 @@
         <v>0</v>
       </c>
       <c r="I199" t="inlineStr"/>
-      <c r="J199" t="inlineStr"/>
-      <c r="K199" t="inlineStr"/>
+      <c r="J199" t="n">
+        <v>401</v>
+      </c>
+      <c r="K199" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L199" t="n">
         <v>1</v>
       </c>
@@ -7530,8 +7958,14 @@
         <v>0</v>
       </c>
       <c r="I200" t="inlineStr"/>
-      <c r="J200" t="inlineStr"/>
-      <c r="K200" t="inlineStr"/>
+      <c r="J200" t="n">
+        <v>401</v>
+      </c>
+      <c r="K200" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L200" t="n">
         <v>1</v>
       </c>
@@ -7563,8 +7997,14 @@
         <v>0</v>
       </c>
       <c r="I201" t="inlineStr"/>
-      <c r="J201" t="inlineStr"/>
-      <c r="K201" t="inlineStr"/>
+      <c r="J201" t="n">
+        <v>401</v>
+      </c>
+      <c r="K201" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L201" t="n">
         <v>1</v>
       </c>
@@ -7596,8 +8036,14 @@
         <v>0</v>
       </c>
       <c r="I202" t="inlineStr"/>
-      <c r="J202" t="inlineStr"/>
-      <c r="K202" t="inlineStr"/>
+      <c r="J202" t="n">
+        <v>401</v>
+      </c>
+      <c r="K202" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L202" t="n">
         <v>1</v>
       </c>
@@ -7629,8 +8075,14 @@
         <v>0</v>
       </c>
       <c r="I203" t="inlineStr"/>
-      <c r="J203" t="inlineStr"/>
-      <c r="K203" t="inlineStr"/>
+      <c r="J203" t="n">
+        <v>401</v>
+      </c>
+      <c r="K203" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L203" t="n">
         <v>1</v>
       </c>
@@ -7662,8 +8114,14 @@
         <v>0</v>
       </c>
       <c r="I204" t="inlineStr"/>
-      <c r="J204" t="inlineStr"/>
-      <c r="K204" t="inlineStr"/>
+      <c r="J204" t="n">
+        <v>401</v>
+      </c>
+      <c r="K204" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L204" t="n">
         <v>1</v>
       </c>
@@ -7695,8 +8153,14 @@
         <v>0</v>
       </c>
       <c r="I205" t="inlineStr"/>
-      <c r="J205" t="inlineStr"/>
-      <c r="K205" t="inlineStr"/>
+      <c r="J205" t="n">
+        <v>401</v>
+      </c>
+      <c r="K205" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L205" t="n">
         <v>1</v>
       </c>
@@ -7728,8 +8192,14 @@
         <v>0</v>
       </c>
       <c r="I206" t="inlineStr"/>
-      <c r="J206" t="inlineStr"/>
-      <c r="K206" t="inlineStr"/>
+      <c r="J206" t="n">
+        <v>401</v>
+      </c>
+      <c r="K206" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L206" t="n">
         <v>1</v>
       </c>
@@ -7761,8 +8231,14 @@
         <v>0</v>
       </c>
       <c r="I207" t="inlineStr"/>
-      <c r="J207" t="inlineStr"/>
-      <c r="K207" t="inlineStr"/>
+      <c r="J207" t="n">
+        <v>401</v>
+      </c>
+      <c r="K207" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L207" t="n">
         <v>1</v>
       </c>
@@ -7794,8 +8270,14 @@
         <v>0</v>
       </c>
       <c r="I208" t="inlineStr"/>
-      <c r="J208" t="inlineStr"/>
-      <c r="K208" t="inlineStr"/>
+      <c r="J208" t="n">
+        <v>401</v>
+      </c>
+      <c r="K208" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L208" t="n">
         <v>1</v>
       </c>
@@ -7827,8 +8309,14 @@
         <v>0</v>
       </c>
       <c r="I209" t="inlineStr"/>
-      <c r="J209" t="inlineStr"/>
-      <c r="K209" t="inlineStr"/>
+      <c r="J209" t="n">
+        <v>401</v>
+      </c>
+      <c r="K209" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L209" t="n">
         <v>1</v>
       </c>
@@ -7860,8 +8348,14 @@
         <v>0</v>
       </c>
       <c r="I210" t="inlineStr"/>
-      <c r="J210" t="inlineStr"/>
-      <c r="K210" t="inlineStr"/>
+      <c r="J210" t="n">
+        <v>401</v>
+      </c>
+      <c r="K210" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L210" t="n">
         <v>1</v>
       </c>
@@ -7893,8 +8387,14 @@
         <v>0</v>
       </c>
       <c r="I211" t="inlineStr"/>
-      <c r="J211" t="inlineStr"/>
-      <c r="K211" t="inlineStr"/>
+      <c r="J211" t="n">
+        <v>401</v>
+      </c>
+      <c r="K211" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L211" t="n">
         <v>1</v>
       </c>
@@ -7926,8 +8426,14 @@
         <v>0</v>
       </c>
       <c r="I212" t="inlineStr"/>
-      <c r="J212" t="inlineStr"/>
-      <c r="K212" t="inlineStr"/>
+      <c r="J212" t="n">
+        <v>401</v>
+      </c>
+      <c r="K212" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L212" t="n">
         <v>1</v>
       </c>
@@ -7959,8 +8465,14 @@
         <v>0</v>
       </c>
       <c r="I213" t="inlineStr"/>
-      <c r="J213" t="inlineStr"/>
-      <c r="K213" t="inlineStr"/>
+      <c r="J213" t="n">
+        <v>401</v>
+      </c>
+      <c r="K213" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L213" t="n">
         <v>1</v>
       </c>
@@ -7992,8 +8504,14 @@
         <v>0</v>
       </c>
       <c r="I214" t="inlineStr"/>
-      <c r="J214" t="inlineStr"/>
-      <c r="K214" t="inlineStr"/>
+      <c r="J214" t="n">
+        <v>401</v>
+      </c>
+      <c r="K214" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L214" t="n">
         <v>1</v>
       </c>
@@ -8025,8 +8543,14 @@
         <v>0</v>
       </c>
       <c r="I215" t="inlineStr"/>
-      <c r="J215" t="inlineStr"/>
-      <c r="K215" t="inlineStr"/>
+      <c r="J215" t="n">
+        <v>401</v>
+      </c>
+      <c r="K215" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L215" t="n">
         <v>1</v>
       </c>
@@ -8058,8 +8582,14 @@
         <v>0</v>
       </c>
       <c r="I216" t="inlineStr"/>
-      <c r="J216" t="inlineStr"/>
-      <c r="K216" t="inlineStr"/>
+      <c r="J216" t="n">
+        <v>401</v>
+      </c>
+      <c r="K216" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L216" t="n">
         <v>1</v>
       </c>
@@ -8091,8 +8621,14 @@
         <v>0</v>
       </c>
       <c r="I217" t="inlineStr"/>
-      <c r="J217" t="inlineStr"/>
-      <c r="K217" t="inlineStr"/>
+      <c r="J217" t="n">
+        <v>401</v>
+      </c>
+      <c r="K217" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L217" t="n">
         <v>1</v>
       </c>
@@ -8124,8 +8660,14 @@
         <v>0</v>
       </c>
       <c r="I218" t="inlineStr"/>
-      <c r="J218" t="inlineStr"/>
-      <c r="K218" t="inlineStr"/>
+      <c r="J218" t="n">
+        <v>401</v>
+      </c>
+      <c r="K218" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L218" t="n">
         <v>1</v>
       </c>
@@ -8157,8 +8699,14 @@
         <v>0</v>
       </c>
       <c r="I219" t="inlineStr"/>
-      <c r="J219" t="inlineStr"/>
-      <c r="K219" t="inlineStr"/>
+      <c r="J219" t="n">
+        <v>401</v>
+      </c>
+      <c r="K219" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L219" t="n">
         <v>1</v>
       </c>
@@ -8190,8 +8738,14 @@
         <v>0</v>
       </c>
       <c r="I220" t="inlineStr"/>
-      <c r="J220" t="inlineStr"/>
-      <c r="K220" t="inlineStr"/>
+      <c r="J220" t="n">
+        <v>401</v>
+      </c>
+      <c r="K220" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L220" t="n">
         <v>1</v>
       </c>
@@ -8223,8 +8777,14 @@
         <v>0</v>
       </c>
       <c r="I221" t="inlineStr"/>
-      <c r="J221" t="inlineStr"/>
-      <c r="K221" t="inlineStr"/>
+      <c r="J221" t="n">
+        <v>401</v>
+      </c>
+      <c r="K221" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L221" t="n">
         <v>1</v>
       </c>
@@ -8256,8 +8816,14 @@
         <v>0</v>
       </c>
       <c r="I222" t="inlineStr"/>
-      <c r="J222" t="inlineStr"/>
-      <c r="K222" t="inlineStr"/>
+      <c r="J222" t="n">
+        <v>401</v>
+      </c>
+      <c r="K222" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L222" t="n">
         <v>1</v>
       </c>
@@ -8289,8 +8855,14 @@
         <v>0</v>
       </c>
       <c r="I223" t="inlineStr"/>
-      <c r="J223" t="inlineStr"/>
-      <c r="K223" t="inlineStr"/>
+      <c r="J223" t="n">
+        <v>401</v>
+      </c>
+      <c r="K223" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L223" t="n">
         <v>1</v>
       </c>
@@ -8322,8 +8894,14 @@
         <v>0</v>
       </c>
       <c r="I224" t="inlineStr"/>
-      <c r="J224" t="inlineStr"/>
-      <c r="K224" t="inlineStr"/>
+      <c r="J224" t="n">
+        <v>401</v>
+      </c>
+      <c r="K224" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L224" t="n">
         <v>1</v>
       </c>
@@ -8355,8 +8933,14 @@
         <v>0</v>
       </c>
       <c r="I225" t="inlineStr"/>
-      <c r="J225" t="inlineStr"/>
-      <c r="K225" t="inlineStr"/>
+      <c r="J225" t="n">
+        <v>401</v>
+      </c>
+      <c r="K225" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L225" t="n">
         <v>1</v>
       </c>
@@ -8388,8 +8972,14 @@
         <v>0</v>
       </c>
       <c r="I226" t="inlineStr"/>
-      <c r="J226" t="inlineStr"/>
-      <c r="K226" t="inlineStr"/>
+      <c r="J226" t="n">
+        <v>401</v>
+      </c>
+      <c r="K226" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L226" t="n">
         <v>1</v>
       </c>
@@ -8421,8 +9011,14 @@
         <v>0</v>
       </c>
       <c r="I227" t="inlineStr"/>
-      <c r="J227" t="inlineStr"/>
-      <c r="K227" t="inlineStr"/>
+      <c r="J227" t="n">
+        <v>401</v>
+      </c>
+      <c r="K227" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L227" t="n">
         <v>1</v>
       </c>
@@ -8454,8 +9050,14 @@
         <v>0</v>
       </c>
       <c r="I228" t="inlineStr"/>
-      <c r="J228" t="inlineStr"/>
-      <c r="K228" t="inlineStr"/>
+      <c r="J228" t="n">
+        <v>401</v>
+      </c>
+      <c r="K228" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L228" t="n">
         <v>1</v>
       </c>
@@ -8487,8 +9089,14 @@
         <v>0</v>
       </c>
       <c r="I229" t="inlineStr"/>
-      <c r="J229" t="inlineStr"/>
-      <c r="K229" t="inlineStr"/>
+      <c r="J229" t="n">
+        <v>401</v>
+      </c>
+      <c r="K229" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L229" t="n">
         <v>1</v>
       </c>
@@ -8520,8 +9128,14 @@
         <v>0</v>
       </c>
       <c r="I230" t="inlineStr"/>
-      <c r="J230" t="inlineStr"/>
-      <c r="K230" t="inlineStr"/>
+      <c r="J230" t="n">
+        <v>401</v>
+      </c>
+      <c r="K230" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L230" t="n">
         <v>1</v>
       </c>
@@ -8553,8 +9167,14 @@
         <v>0</v>
       </c>
       <c r="I231" t="inlineStr"/>
-      <c r="J231" t="inlineStr"/>
-      <c r="K231" t="inlineStr"/>
+      <c r="J231" t="n">
+        <v>401</v>
+      </c>
+      <c r="K231" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L231" t="n">
         <v>1</v>
       </c>
@@ -8586,8 +9206,14 @@
         <v>0</v>
       </c>
       <c r="I232" t="inlineStr"/>
-      <c r="J232" t="inlineStr"/>
-      <c r="K232" t="inlineStr"/>
+      <c r="J232" t="n">
+        <v>401</v>
+      </c>
+      <c r="K232" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L232" t="n">
         <v>1</v>
       </c>
@@ -8619,8 +9245,14 @@
         <v>0</v>
       </c>
       <c r="I233" t="inlineStr"/>
-      <c r="J233" t="inlineStr"/>
-      <c r="K233" t="inlineStr"/>
+      <c r="J233" t="n">
+        <v>401</v>
+      </c>
+      <c r="K233" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L233" t="n">
         <v>1</v>
       </c>
@@ -8652,8 +9284,14 @@
         <v>0</v>
       </c>
       <c r="I234" t="inlineStr"/>
-      <c r="J234" t="inlineStr"/>
-      <c r="K234" t="inlineStr"/>
+      <c r="J234" t="n">
+        <v>401</v>
+      </c>
+      <c r="K234" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L234" t="n">
         <v>1</v>
       </c>
@@ -8685,8 +9323,14 @@
         <v>0</v>
       </c>
       <c r="I235" t="inlineStr"/>
-      <c r="J235" t="inlineStr"/>
-      <c r="K235" t="inlineStr"/>
+      <c r="J235" t="n">
+        <v>401</v>
+      </c>
+      <c r="K235" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L235" t="n">
         <v>1</v>
       </c>
@@ -8718,8 +9362,14 @@
         <v>0</v>
       </c>
       <c r="I236" t="inlineStr"/>
-      <c r="J236" t="inlineStr"/>
-      <c r="K236" t="inlineStr"/>
+      <c r="J236" t="n">
+        <v>401</v>
+      </c>
+      <c r="K236" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L236" t="n">
         <v>1</v>
       </c>
@@ -8751,8 +9401,14 @@
         <v>0</v>
       </c>
       <c r="I237" t="inlineStr"/>
-      <c r="J237" t="inlineStr"/>
-      <c r="K237" t="inlineStr"/>
+      <c r="J237" t="n">
+        <v>401</v>
+      </c>
+      <c r="K237" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L237" t="n">
         <v>1</v>
       </c>
@@ -8784,8 +9440,14 @@
         <v>0</v>
       </c>
       <c r="I238" t="inlineStr"/>
-      <c r="J238" t="inlineStr"/>
-      <c r="K238" t="inlineStr"/>
+      <c r="J238" t="n">
+        <v>401</v>
+      </c>
+      <c r="K238" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L238" t="n">
         <v>1</v>
       </c>
@@ -8817,8 +9479,14 @@
         <v>0</v>
       </c>
       <c r="I239" t="inlineStr"/>
-      <c r="J239" t="inlineStr"/>
-      <c r="K239" t="inlineStr"/>
+      <c r="J239" t="n">
+        <v>401</v>
+      </c>
+      <c r="K239" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L239" t="n">
         <v>1</v>
       </c>
@@ -8850,8 +9518,14 @@
         <v>0</v>
       </c>
       <c r="I240" t="inlineStr"/>
-      <c r="J240" t="inlineStr"/>
-      <c r="K240" t="inlineStr"/>
+      <c r="J240" t="n">
+        <v>401</v>
+      </c>
+      <c r="K240" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L240" t="n">
         <v>1</v>
       </c>
@@ -8883,8 +9557,14 @@
         <v>0</v>
       </c>
       <c r="I241" t="inlineStr"/>
-      <c r="J241" t="inlineStr"/>
-      <c r="K241" t="inlineStr"/>
+      <c r="J241" t="n">
+        <v>401</v>
+      </c>
+      <c r="K241" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L241" t="n">
         <v>1</v>
       </c>
@@ -8916,8 +9596,14 @@
         <v>0</v>
       </c>
       <c r="I242" t="inlineStr"/>
-      <c r="J242" t="inlineStr"/>
-      <c r="K242" t="inlineStr"/>
+      <c r="J242" t="n">
+        <v>401</v>
+      </c>
+      <c r="K242" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L242" t="n">
         <v>1</v>
       </c>
@@ -8949,8 +9635,14 @@
         <v>0</v>
       </c>
       <c r="I243" t="inlineStr"/>
-      <c r="J243" t="inlineStr"/>
-      <c r="K243" t="inlineStr"/>
+      <c r="J243" t="n">
+        <v>401</v>
+      </c>
+      <c r="K243" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L243" t="n">
         <v>1</v>
       </c>
@@ -8982,8 +9674,14 @@
         <v>0</v>
       </c>
       <c r="I244" t="inlineStr"/>
-      <c r="J244" t="inlineStr"/>
-      <c r="K244" t="inlineStr"/>
+      <c r="J244" t="n">
+        <v>401</v>
+      </c>
+      <c r="K244" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L244" t="n">
         <v>1</v>
       </c>
@@ -9015,8 +9713,14 @@
         <v>0</v>
       </c>
       <c r="I245" t="inlineStr"/>
-      <c r="J245" t="inlineStr"/>
-      <c r="K245" t="inlineStr"/>
+      <c r="J245" t="n">
+        <v>401</v>
+      </c>
+      <c r="K245" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L245" t="n">
         <v>1</v>
       </c>
@@ -9048,8 +9752,14 @@
         <v>0</v>
       </c>
       <c r="I246" t="inlineStr"/>
-      <c r="J246" t="inlineStr"/>
-      <c r="K246" t="inlineStr"/>
+      <c r="J246" t="n">
+        <v>401</v>
+      </c>
+      <c r="K246" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L246" t="n">
         <v>1</v>
       </c>
@@ -9081,8 +9791,14 @@
         <v>0</v>
       </c>
       <c r="I247" t="inlineStr"/>
-      <c r="J247" t="inlineStr"/>
-      <c r="K247" t="inlineStr"/>
+      <c r="J247" t="n">
+        <v>401</v>
+      </c>
+      <c r="K247" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L247" t="n">
         <v>1</v>
       </c>
@@ -9114,8 +9830,14 @@
         <v>0</v>
       </c>
       <c r="I248" t="inlineStr"/>
-      <c r="J248" t="inlineStr"/>
-      <c r="K248" t="inlineStr"/>
+      <c r="J248" t="n">
+        <v>401</v>
+      </c>
+      <c r="K248" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L248" t="n">
         <v>1</v>
       </c>
@@ -9147,8 +9869,14 @@
         <v>0</v>
       </c>
       <c r="I249" t="inlineStr"/>
-      <c r="J249" t="inlineStr"/>
-      <c r="K249" t="inlineStr"/>
+      <c r="J249" t="n">
+        <v>401</v>
+      </c>
+      <c r="K249" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L249" t="n">
         <v>1</v>
       </c>
@@ -9180,8 +9908,14 @@
         <v>0</v>
       </c>
       <c r="I250" t="inlineStr"/>
-      <c r="J250" t="inlineStr"/>
-      <c r="K250" t="inlineStr"/>
+      <c r="J250" t="n">
+        <v>401</v>
+      </c>
+      <c r="K250" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L250" t="n">
         <v>1</v>
       </c>
@@ -9213,8 +9947,14 @@
         <v>0</v>
       </c>
       <c r="I251" t="inlineStr"/>
-      <c r="J251" t="inlineStr"/>
-      <c r="K251" t="inlineStr"/>
+      <c r="J251" t="n">
+        <v>401</v>
+      </c>
+      <c r="K251" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L251" t="n">
         <v>1</v>
       </c>
@@ -9246,8 +9986,14 @@
         <v>0</v>
       </c>
       <c r="I252" t="inlineStr"/>
-      <c r="J252" t="inlineStr"/>
-      <c r="K252" t="inlineStr"/>
+      <c r="J252" t="n">
+        <v>401</v>
+      </c>
+      <c r="K252" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L252" t="n">
         <v>1</v>
       </c>
@@ -9279,8 +10025,14 @@
         <v>0</v>
       </c>
       <c r="I253" t="inlineStr"/>
-      <c r="J253" t="inlineStr"/>
-      <c r="K253" t="inlineStr"/>
+      <c r="J253" t="n">
+        <v>401</v>
+      </c>
+      <c r="K253" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L253" t="n">
         <v>1</v>
       </c>
@@ -9312,8 +10064,14 @@
         <v>0</v>
       </c>
       <c r="I254" t="inlineStr"/>
-      <c r="J254" t="inlineStr"/>
-      <c r="K254" t="inlineStr"/>
+      <c r="J254" t="n">
+        <v>401</v>
+      </c>
+      <c r="K254" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L254" t="n">
         <v>1</v>
       </c>
@@ -9345,8 +10103,14 @@
         <v>0</v>
       </c>
       <c r="I255" t="inlineStr"/>
-      <c r="J255" t="inlineStr"/>
-      <c r="K255" t="inlineStr"/>
+      <c r="J255" t="n">
+        <v>401</v>
+      </c>
+      <c r="K255" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L255" t="n">
         <v>1</v>
       </c>
@@ -9378,8 +10142,14 @@
         <v>0</v>
       </c>
       <c r="I256" t="inlineStr"/>
-      <c r="J256" t="inlineStr"/>
-      <c r="K256" t="inlineStr"/>
+      <c r="J256" t="n">
+        <v>401</v>
+      </c>
+      <c r="K256" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L256" t="n">
         <v>1</v>
       </c>
@@ -9411,8 +10181,14 @@
         <v>0</v>
       </c>
       <c r="I257" t="inlineStr"/>
-      <c r="J257" t="inlineStr"/>
-      <c r="K257" t="inlineStr"/>
+      <c r="J257" t="n">
+        <v>401</v>
+      </c>
+      <c r="K257" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L257" t="n">
         <v>1</v>
       </c>
@@ -9444,8 +10220,14 @@
         <v>0</v>
       </c>
       <c r="I258" t="inlineStr"/>
-      <c r="J258" t="inlineStr"/>
-      <c r="K258" t="inlineStr"/>
+      <c r="J258" t="n">
+        <v>401</v>
+      </c>
+      <c r="K258" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L258" t="n">
         <v>1</v>
       </c>
@@ -9477,8 +10259,14 @@
         <v>0</v>
       </c>
       <c r="I259" t="inlineStr"/>
-      <c r="J259" t="inlineStr"/>
-      <c r="K259" t="inlineStr"/>
+      <c r="J259" t="n">
+        <v>401</v>
+      </c>
+      <c r="K259" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L259" t="n">
         <v>1</v>
       </c>
@@ -9510,8 +10298,14 @@
         <v>0</v>
       </c>
       <c r="I260" t="inlineStr"/>
-      <c r="J260" t="inlineStr"/>
-      <c r="K260" t="inlineStr"/>
+      <c r="J260" t="n">
+        <v>401</v>
+      </c>
+      <c r="K260" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L260" t="n">
         <v>1</v>
       </c>
@@ -9543,8 +10337,14 @@
         <v>0</v>
       </c>
       <c r="I261" t="inlineStr"/>
-      <c r="J261" t="inlineStr"/>
-      <c r="K261" t="inlineStr"/>
+      <c r="J261" t="n">
+        <v>401</v>
+      </c>
+      <c r="K261" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L261" t="n">
         <v>1</v>
       </c>
@@ -9576,8 +10376,14 @@
         <v>0</v>
       </c>
       <c r="I262" t="inlineStr"/>
-      <c r="J262" t="inlineStr"/>
-      <c r="K262" t="inlineStr"/>
+      <c r="J262" t="n">
+        <v>401</v>
+      </c>
+      <c r="K262" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L262" t="n">
         <v>1</v>
       </c>
@@ -9609,8 +10415,14 @@
         <v>0</v>
       </c>
       <c r="I263" t="inlineStr"/>
-      <c r="J263" t="inlineStr"/>
-      <c r="K263" t="inlineStr"/>
+      <c r="J263" t="n">
+        <v>401</v>
+      </c>
+      <c r="K263" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L263" t="n">
         <v>1</v>
       </c>
@@ -9642,8 +10454,14 @@
         <v>0</v>
       </c>
       <c r="I264" t="inlineStr"/>
-      <c r="J264" t="inlineStr"/>
-      <c r="K264" t="inlineStr"/>
+      <c r="J264" t="n">
+        <v>401</v>
+      </c>
+      <c r="K264" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L264" t="n">
         <v>1</v>
       </c>
@@ -9675,8 +10493,14 @@
         <v>0</v>
       </c>
       <c r="I265" t="inlineStr"/>
-      <c r="J265" t="inlineStr"/>
-      <c r="K265" t="inlineStr"/>
+      <c r="J265" t="n">
+        <v>401</v>
+      </c>
+      <c r="K265" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L265" t="n">
         <v>1</v>
       </c>
@@ -9708,8 +10532,14 @@
         <v>0</v>
       </c>
       <c r="I266" t="inlineStr"/>
-      <c r="J266" t="inlineStr"/>
-      <c r="K266" t="inlineStr"/>
+      <c r="J266" t="n">
+        <v>401</v>
+      </c>
+      <c r="K266" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L266" t="n">
         <v>1</v>
       </c>
@@ -9741,8 +10571,14 @@
         <v>0</v>
       </c>
       <c r="I267" t="inlineStr"/>
-      <c r="J267" t="inlineStr"/>
-      <c r="K267" t="inlineStr"/>
+      <c r="J267" t="n">
+        <v>401</v>
+      </c>
+      <c r="K267" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L267" t="n">
         <v>1</v>
       </c>
@@ -9774,8 +10610,14 @@
         <v>0</v>
       </c>
       <c r="I268" t="inlineStr"/>
-      <c r="J268" t="inlineStr"/>
-      <c r="K268" t="inlineStr"/>
+      <c r="J268" t="n">
+        <v>401</v>
+      </c>
+      <c r="K268" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L268" t="n">
         <v>1</v>
       </c>
@@ -9807,8 +10649,14 @@
         <v>0</v>
       </c>
       <c r="I269" t="inlineStr"/>
-      <c r="J269" t="inlineStr"/>
-      <c r="K269" t="inlineStr"/>
+      <c r="J269" t="n">
+        <v>401</v>
+      </c>
+      <c r="K269" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L269" t="n">
         <v>1</v>
       </c>
@@ -9840,8 +10688,14 @@
         <v>0</v>
       </c>
       <c r="I270" t="inlineStr"/>
-      <c r="J270" t="inlineStr"/>
-      <c r="K270" t="inlineStr"/>
+      <c r="J270" t="n">
+        <v>401</v>
+      </c>
+      <c r="K270" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L270" t="n">
         <v>1</v>
       </c>
@@ -9873,8 +10727,14 @@
         <v>0</v>
       </c>
       <c r="I271" t="inlineStr"/>
-      <c r="J271" t="inlineStr"/>
-      <c r="K271" t="inlineStr"/>
+      <c r="J271" t="n">
+        <v>401</v>
+      </c>
+      <c r="K271" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L271" t="n">
         <v>1</v>
       </c>
@@ -9906,8 +10766,14 @@
         <v>0</v>
       </c>
       <c r="I272" t="inlineStr"/>
-      <c r="J272" t="inlineStr"/>
-      <c r="K272" t="inlineStr"/>
+      <c r="J272" t="n">
+        <v>401</v>
+      </c>
+      <c r="K272" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L272" t="n">
         <v>1</v>
       </c>
@@ -9939,8 +10805,14 @@
         <v>0</v>
       </c>
       <c r="I273" t="inlineStr"/>
-      <c r="J273" t="inlineStr"/>
-      <c r="K273" t="inlineStr"/>
+      <c r="J273" t="n">
+        <v>401</v>
+      </c>
+      <c r="K273" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L273" t="n">
         <v>1</v>
       </c>
@@ -9972,8 +10844,14 @@
         <v>0</v>
       </c>
       <c r="I274" t="inlineStr"/>
-      <c r="J274" t="inlineStr"/>
-      <c r="K274" t="inlineStr"/>
+      <c r="J274" t="n">
+        <v>401</v>
+      </c>
+      <c r="K274" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L274" t="n">
         <v>1</v>
       </c>
@@ -10005,8 +10883,14 @@
         <v>0</v>
       </c>
       <c r="I275" t="inlineStr"/>
-      <c r="J275" t="inlineStr"/>
-      <c r="K275" t="inlineStr"/>
+      <c r="J275" t="n">
+        <v>401</v>
+      </c>
+      <c r="K275" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L275" t="n">
         <v>1</v>
       </c>
@@ -10038,8 +10922,14 @@
         <v>0</v>
       </c>
       <c r="I276" t="inlineStr"/>
-      <c r="J276" t="inlineStr"/>
-      <c r="K276" t="inlineStr"/>
+      <c r="J276" t="n">
+        <v>401</v>
+      </c>
+      <c r="K276" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L276" t="n">
         <v>1</v>
       </c>
@@ -10071,8 +10961,14 @@
         <v>0</v>
       </c>
       <c r="I277" t="inlineStr"/>
-      <c r="J277" t="inlineStr"/>
-      <c r="K277" t="inlineStr"/>
+      <c r="J277" t="n">
+        <v>401</v>
+      </c>
+      <c r="K277" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L277" t="n">
         <v>1</v>
       </c>
@@ -10104,8 +11000,14 @@
         <v>0</v>
       </c>
       <c r="I278" t="inlineStr"/>
-      <c r="J278" t="inlineStr"/>
-      <c r="K278" t="inlineStr"/>
+      <c r="J278" t="n">
+        <v>401</v>
+      </c>
+      <c r="K278" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L278" t="n">
         <v>1</v>
       </c>
@@ -10137,8 +11039,14 @@
         <v>0</v>
       </c>
       <c r="I279" t="inlineStr"/>
-      <c r="J279" t="inlineStr"/>
-      <c r="K279" t="inlineStr"/>
+      <c r="J279" t="n">
+        <v>401</v>
+      </c>
+      <c r="K279" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L279" t="n">
         <v>1</v>
       </c>
@@ -10170,8 +11078,14 @@
         <v>0</v>
       </c>
       <c r="I280" t="inlineStr"/>
-      <c r="J280" t="inlineStr"/>
-      <c r="K280" t="inlineStr"/>
+      <c r="J280" t="n">
+        <v>401</v>
+      </c>
+      <c r="K280" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L280" t="n">
         <v>1</v>
       </c>
@@ -10203,8 +11117,14 @@
         <v>0</v>
       </c>
       <c r="I281" t="inlineStr"/>
-      <c r="J281" t="inlineStr"/>
-      <c r="K281" t="inlineStr"/>
+      <c r="J281" t="n">
+        <v>401</v>
+      </c>
+      <c r="K281" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L281" t="n">
         <v>1</v>
       </c>
@@ -10236,8 +11156,14 @@
         <v>0</v>
       </c>
       <c r="I282" t="inlineStr"/>
-      <c r="J282" t="inlineStr"/>
-      <c r="K282" t="inlineStr"/>
+      <c r="J282" t="n">
+        <v>401</v>
+      </c>
+      <c r="K282" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L282" t="n">
         <v>1</v>
       </c>
@@ -10269,8 +11195,14 @@
         <v>0</v>
       </c>
       <c r="I283" t="inlineStr"/>
-      <c r="J283" t="inlineStr"/>
-      <c r="K283" t="inlineStr"/>
+      <c r="J283" t="n">
+        <v>401</v>
+      </c>
+      <c r="K283" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L283" t="n">
         <v>1</v>
       </c>
@@ -10302,8 +11234,14 @@
         <v>0</v>
       </c>
       <c r="I284" t="inlineStr"/>
-      <c r="J284" t="inlineStr"/>
-      <c r="K284" t="inlineStr"/>
+      <c r="J284" t="n">
+        <v>401</v>
+      </c>
+      <c r="K284" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L284" t="n">
         <v>1</v>
       </c>
@@ -10335,8 +11273,14 @@
         <v>0</v>
       </c>
       <c r="I285" t="inlineStr"/>
-      <c r="J285" t="inlineStr"/>
-      <c r="K285" t="inlineStr"/>
+      <c r="J285" t="n">
+        <v>401</v>
+      </c>
+      <c r="K285" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L285" t="n">
         <v>1</v>
       </c>
@@ -10368,8 +11312,14 @@
         <v>0</v>
       </c>
       <c r="I286" t="inlineStr"/>
-      <c r="J286" t="inlineStr"/>
-      <c r="K286" t="inlineStr"/>
+      <c r="J286" t="n">
+        <v>401</v>
+      </c>
+      <c r="K286" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L286" t="n">
         <v>1</v>
       </c>
@@ -10401,8 +11351,14 @@
         <v>0</v>
       </c>
       <c r="I287" t="inlineStr"/>
-      <c r="J287" t="inlineStr"/>
-      <c r="K287" t="inlineStr"/>
+      <c r="J287" t="n">
+        <v>401</v>
+      </c>
+      <c r="K287" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L287" t="n">
         <v>1</v>
       </c>
@@ -10434,8 +11390,14 @@
         <v>0</v>
       </c>
       <c r="I288" t="inlineStr"/>
-      <c r="J288" t="inlineStr"/>
-      <c r="K288" t="inlineStr"/>
+      <c r="J288" t="n">
+        <v>401</v>
+      </c>
+      <c r="K288" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L288" t="n">
         <v>1</v>
       </c>
@@ -10467,8 +11429,14 @@
         <v>0</v>
       </c>
       <c r="I289" t="inlineStr"/>
-      <c r="J289" t="inlineStr"/>
-      <c r="K289" t="inlineStr"/>
+      <c r="J289" t="n">
+        <v>401</v>
+      </c>
+      <c r="K289" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L289" t="n">
         <v>1</v>
       </c>
@@ -10500,8 +11468,14 @@
         <v>0</v>
       </c>
       <c r="I290" t="inlineStr"/>
-      <c r="J290" t="inlineStr"/>
-      <c r="K290" t="inlineStr"/>
+      <c r="J290" t="n">
+        <v>401</v>
+      </c>
+      <c r="K290" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L290" t="n">
         <v>1</v>
       </c>
@@ -10533,8 +11507,14 @@
         <v>0</v>
       </c>
       <c r="I291" t="inlineStr"/>
-      <c r="J291" t="inlineStr"/>
-      <c r="K291" t="inlineStr"/>
+      <c r="J291" t="n">
+        <v>401</v>
+      </c>
+      <c r="K291" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L291" t="n">
         <v>1</v>
       </c>
@@ -10566,8 +11546,14 @@
         <v>0</v>
       </c>
       <c r="I292" t="inlineStr"/>
-      <c r="J292" t="inlineStr"/>
-      <c r="K292" t="inlineStr"/>
+      <c r="J292" t="n">
+        <v>401</v>
+      </c>
+      <c r="K292" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L292" t="n">
         <v>1</v>
       </c>
@@ -10599,8 +11585,14 @@
         <v>0</v>
       </c>
       <c r="I293" t="inlineStr"/>
-      <c r="J293" t="inlineStr"/>
-      <c r="K293" t="inlineStr"/>
+      <c r="J293" t="n">
+        <v>401</v>
+      </c>
+      <c r="K293" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L293" t="n">
         <v>1</v>
       </c>
@@ -10632,8 +11624,14 @@
         <v>0</v>
       </c>
       <c r="I294" t="inlineStr"/>
-      <c r="J294" t="inlineStr"/>
-      <c r="K294" t="inlineStr"/>
+      <c r="J294" t="n">
+        <v>401</v>
+      </c>
+      <c r="K294" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L294" t="n">
         <v>1</v>
       </c>
@@ -10665,8 +11663,14 @@
         <v>0</v>
       </c>
       <c r="I295" t="inlineStr"/>
-      <c r="J295" t="inlineStr"/>
-      <c r="K295" t="inlineStr"/>
+      <c r="J295" t="n">
+        <v>401</v>
+      </c>
+      <c r="K295" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L295" t="n">
         <v>1</v>
       </c>
@@ -10698,8 +11702,14 @@
         <v>0</v>
       </c>
       <c r="I296" t="inlineStr"/>
-      <c r="J296" t="inlineStr"/>
-      <c r="K296" t="inlineStr"/>
+      <c r="J296" t="n">
+        <v>401</v>
+      </c>
+      <c r="K296" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L296" t="n">
         <v>1</v>
       </c>
@@ -10731,8 +11741,14 @@
         <v>0</v>
       </c>
       <c r="I297" t="inlineStr"/>
-      <c r="J297" t="inlineStr"/>
-      <c r="K297" t="inlineStr"/>
+      <c r="J297" t="n">
+        <v>401</v>
+      </c>
+      <c r="K297" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L297" t="n">
         <v>1</v>
       </c>
@@ -10764,8 +11780,14 @@
         <v>0</v>
       </c>
       <c r="I298" t="inlineStr"/>
-      <c r="J298" t="inlineStr"/>
-      <c r="K298" t="inlineStr"/>
+      <c r="J298" t="n">
+        <v>401</v>
+      </c>
+      <c r="K298" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L298" t="n">
         <v>1</v>
       </c>
@@ -10797,8 +11819,14 @@
         <v>0</v>
       </c>
       <c r="I299" t="inlineStr"/>
-      <c r="J299" t="inlineStr"/>
-      <c r="K299" t="inlineStr"/>
+      <c r="J299" t="n">
+        <v>401</v>
+      </c>
+      <c r="K299" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L299" t="n">
         <v>1</v>
       </c>
@@ -10830,8 +11858,14 @@
         <v>0</v>
       </c>
       <c r="I300" t="inlineStr"/>
-      <c r="J300" t="inlineStr"/>
-      <c r="K300" t="inlineStr"/>
+      <c r="J300" t="n">
+        <v>401</v>
+      </c>
+      <c r="K300" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L300" t="n">
         <v>1</v>
       </c>
@@ -10863,8 +11897,14 @@
         <v>0</v>
       </c>
       <c r="I301" t="inlineStr"/>
-      <c r="J301" t="inlineStr"/>
-      <c r="K301" t="inlineStr"/>
+      <c r="J301" t="n">
+        <v>401</v>
+      </c>
+      <c r="K301" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L301" t="n">
         <v>1</v>
       </c>
@@ -10896,8 +11936,14 @@
         <v>0</v>
       </c>
       <c r="I302" t="inlineStr"/>
-      <c r="J302" t="inlineStr"/>
-      <c r="K302" t="inlineStr"/>
+      <c r="J302" t="n">
+        <v>401</v>
+      </c>
+      <c r="K302" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L302" t="n">
         <v>1</v>
       </c>
@@ -10929,8 +11975,14 @@
         <v>0</v>
       </c>
       <c r="I303" t="inlineStr"/>
-      <c r="J303" t="inlineStr"/>
-      <c r="K303" t="inlineStr"/>
+      <c r="J303" t="n">
+        <v>401</v>
+      </c>
+      <c r="K303" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L303" t="n">
         <v>1</v>
       </c>
@@ -10962,8 +12014,14 @@
         <v>0</v>
       </c>
       <c r="I304" t="inlineStr"/>
-      <c r="J304" t="inlineStr"/>
-      <c r="K304" t="inlineStr"/>
+      <c r="J304" t="n">
+        <v>401</v>
+      </c>
+      <c r="K304" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L304" t="n">
         <v>1</v>
       </c>
@@ -10995,8 +12053,14 @@
         <v>0</v>
       </c>
       <c r="I305" t="inlineStr"/>
-      <c r="J305" t="inlineStr"/>
-      <c r="K305" t="inlineStr"/>
+      <c r="J305" t="n">
+        <v>401</v>
+      </c>
+      <c r="K305" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L305" t="n">
         <v>1</v>
       </c>
@@ -11028,8 +12092,14 @@
         <v>0</v>
       </c>
       <c r="I306" t="inlineStr"/>
-      <c r="J306" t="inlineStr"/>
-      <c r="K306" t="inlineStr"/>
+      <c r="J306" t="n">
+        <v>401</v>
+      </c>
+      <c r="K306" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L306" t="n">
         <v>1</v>
       </c>
@@ -11061,8 +12131,14 @@
         <v>0</v>
       </c>
       <c r="I307" t="inlineStr"/>
-      <c r="J307" t="inlineStr"/>
-      <c r="K307" t="inlineStr"/>
+      <c r="J307" t="n">
+        <v>401</v>
+      </c>
+      <c r="K307" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L307" t="n">
         <v>1</v>
       </c>
@@ -11094,8 +12170,14 @@
         <v>0</v>
       </c>
       <c r="I308" t="inlineStr"/>
-      <c r="J308" t="inlineStr"/>
-      <c r="K308" t="inlineStr"/>
+      <c r="J308" t="n">
+        <v>401</v>
+      </c>
+      <c r="K308" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L308" t="n">
         <v>1</v>
       </c>
@@ -11127,8 +12209,14 @@
         <v>0</v>
       </c>
       <c r="I309" t="inlineStr"/>
-      <c r="J309" t="inlineStr"/>
-      <c r="K309" t="inlineStr"/>
+      <c r="J309" t="n">
+        <v>401</v>
+      </c>
+      <c r="K309" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L309" t="n">
         <v>1</v>
       </c>
@@ -11160,8 +12248,14 @@
         <v>0</v>
       </c>
       <c r="I310" t="inlineStr"/>
-      <c r="J310" t="inlineStr"/>
-      <c r="K310" t="inlineStr"/>
+      <c r="J310" t="n">
+        <v>401</v>
+      </c>
+      <c r="K310" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L310" t="n">
         <v>1</v>
       </c>
@@ -11193,8 +12287,14 @@
         <v>0</v>
       </c>
       <c r="I311" t="inlineStr"/>
-      <c r="J311" t="inlineStr"/>
-      <c r="K311" t="inlineStr"/>
+      <c r="J311" t="n">
+        <v>401</v>
+      </c>
+      <c r="K311" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L311" t="n">
         <v>1</v>
       </c>
@@ -11226,8 +12326,14 @@
         <v>0</v>
       </c>
       <c r="I312" t="inlineStr"/>
-      <c r="J312" t="inlineStr"/>
-      <c r="K312" t="inlineStr"/>
+      <c r="J312" t="n">
+        <v>401</v>
+      </c>
+      <c r="K312" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L312" t="n">
         <v>1</v>
       </c>
@@ -11259,8 +12365,14 @@
         <v>0</v>
       </c>
       <c r="I313" t="inlineStr"/>
-      <c r="J313" t="inlineStr"/>
-      <c r="K313" t="inlineStr"/>
+      <c r="J313" t="n">
+        <v>401</v>
+      </c>
+      <c r="K313" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L313" t="n">
         <v>1</v>
       </c>
@@ -11292,8 +12404,14 @@
         <v>0</v>
       </c>
       <c r="I314" t="inlineStr"/>
-      <c r="J314" t="inlineStr"/>
-      <c r="K314" t="inlineStr"/>
+      <c r="J314" t="n">
+        <v>401</v>
+      </c>
+      <c r="K314" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L314" t="n">
         <v>1</v>
       </c>
@@ -11325,8 +12443,14 @@
         <v>0</v>
       </c>
       <c r="I315" t="inlineStr"/>
-      <c r="J315" t="inlineStr"/>
-      <c r="K315" t="inlineStr"/>
+      <c r="J315" t="n">
+        <v>401</v>
+      </c>
+      <c r="K315" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L315" t="n">
         <v>1</v>
       </c>
@@ -11358,8 +12482,14 @@
         <v>0</v>
       </c>
       <c r="I316" t="inlineStr"/>
-      <c r="J316" t="inlineStr"/>
-      <c r="K316" t="inlineStr"/>
+      <c r="J316" t="n">
+        <v>401</v>
+      </c>
+      <c r="K316" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L316" t="n">
         <v>1</v>
       </c>
@@ -11391,8 +12521,14 @@
         <v>0</v>
       </c>
       <c r="I317" t="inlineStr"/>
-      <c r="J317" t="inlineStr"/>
-      <c r="K317" t="inlineStr"/>
+      <c r="J317" t="n">
+        <v>401</v>
+      </c>
+      <c r="K317" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L317" t="n">
         <v>1</v>
       </c>
@@ -11424,8 +12560,14 @@
         <v>0</v>
       </c>
       <c r="I318" t="inlineStr"/>
-      <c r="J318" t="inlineStr"/>
-      <c r="K318" t="inlineStr"/>
+      <c r="J318" t="n">
+        <v>401</v>
+      </c>
+      <c r="K318" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L318" t="n">
         <v>1</v>
       </c>
@@ -11457,8 +12599,14 @@
         <v>0</v>
       </c>
       <c r="I319" t="inlineStr"/>
-      <c r="J319" t="inlineStr"/>
-      <c r="K319" t="inlineStr"/>
+      <c r="J319" t="n">
+        <v>401</v>
+      </c>
+      <c r="K319" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L319" t="n">
         <v>1</v>
       </c>
@@ -11490,8 +12638,14 @@
         <v>0</v>
       </c>
       <c r="I320" t="inlineStr"/>
-      <c r="J320" t="inlineStr"/>
-      <c r="K320" t="inlineStr"/>
+      <c r="J320" t="n">
+        <v>401</v>
+      </c>
+      <c r="K320" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L320" t="n">
         <v>1</v>
       </c>
@@ -11523,8 +12677,14 @@
         <v>0</v>
       </c>
       <c r="I321" t="inlineStr"/>
-      <c r="J321" t="inlineStr"/>
-      <c r="K321" t="inlineStr"/>
+      <c r="J321" t="n">
+        <v>401</v>
+      </c>
+      <c r="K321" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L321" t="n">
         <v>1</v>
       </c>
@@ -11556,8 +12716,14 @@
         <v>0</v>
       </c>
       <c r="I322" t="inlineStr"/>
-      <c r="J322" t="inlineStr"/>
-      <c r="K322" t="inlineStr"/>
+      <c r="J322" t="n">
+        <v>401</v>
+      </c>
+      <c r="K322" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L322" t="n">
         <v>1</v>
       </c>
@@ -11589,8 +12755,14 @@
         <v>0</v>
       </c>
       <c r="I323" t="inlineStr"/>
-      <c r="J323" t="inlineStr"/>
-      <c r="K323" t="inlineStr"/>
+      <c r="J323" t="n">
+        <v>401</v>
+      </c>
+      <c r="K323" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L323" t="n">
         <v>1</v>
       </c>
@@ -11622,8 +12794,14 @@
         <v>0</v>
       </c>
       <c r="I324" t="inlineStr"/>
-      <c r="J324" t="inlineStr"/>
-      <c r="K324" t="inlineStr"/>
+      <c r="J324" t="n">
+        <v>401</v>
+      </c>
+      <c r="K324" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L324" t="n">
         <v>1</v>
       </c>
@@ -11655,8 +12833,14 @@
         <v>0</v>
       </c>
       <c r="I325" t="inlineStr"/>
-      <c r="J325" t="inlineStr"/>
-      <c r="K325" t="inlineStr"/>
+      <c r="J325" t="n">
+        <v>401</v>
+      </c>
+      <c r="K325" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L325" t="n">
         <v>1</v>
       </c>
@@ -11688,8 +12872,14 @@
         <v>0</v>
       </c>
       <c r="I326" t="inlineStr"/>
-      <c r="J326" t="inlineStr"/>
-      <c r="K326" t="inlineStr"/>
+      <c r="J326" t="n">
+        <v>401</v>
+      </c>
+      <c r="K326" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L326" t="n">
         <v>1</v>
       </c>
@@ -11721,8 +12911,14 @@
         <v>0</v>
       </c>
       <c r="I327" t="inlineStr"/>
-      <c r="J327" t="inlineStr"/>
-      <c r="K327" t="inlineStr"/>
+      <c r="J327" t="n">
+        <v>401</v>
+      </c>
+      <c r="K327" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L327" t="n">
         <v>1</v>
       </c>
@@ -11754,8 +12950,14 @@
         <v>0</v>
       </c>
       <c r="I328" t="inlineStr"/>
-      <c r="J328" t="inlineStr"/>
-      <c r="K328" t="inlineStr"/>
+      <c r="J328" t="n">
+        <v>401</v>
+      </c>
+      <c r="K328" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L328" t="n">
         <v>1</v>
       </c>
@@ -11787,8 +12989,14 @@
         <v>0</v>
       </c>
       <c r="I329" t="inlineStr"/>
-      <c r="J329" t="inlineStr"/>
-      <c r="K329" t="inlineStr"/>
+      <c r="J329" t="n">
+        <v>401</v>
+      </c>
+      <c r="K329" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L329" t="n">
         <v>1</v>
       </c>
@@ -11820,8 +13028,14 @@
         <v>0</v>
       </c>
       <c r="I330" t="inlineStr"/>
-      <c r="J330" t="inlineStr"/>
-      <c r="K330" t="inlineStr"/>
+      <c r="J330" t="n">
+        <v>401</v>
+      </c>
+      <c r="K330" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L330" t="n">
         <v>1</v>
       </c>
@@ -11853,8 +13067,14 @@
         <v>0</v>
       </c>
       <c r="I331" t="inlineStr"/>
-      <c r="J331" t="inlineStr"/>
-      <c r="K331" t="inlineStr"/>
+      <c r="J331" t="n">
+        <v>401</v>
+      </c>
+      <c r="K331" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L331" t="n">
         <v>1</v>
       </c>
@@ -11886,8 +13106,14 @@
         <v>0</v>
       </c>
       <c r="I332" t="inlineStr"/>
-      <c r="J332" t="inlineStr"/>
-      <c r="K332" t="inlineStr"/>
+      <c r="J332" t="n">
+        <v>401</v>
+      </c>
+      <c r="K332" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L332" t="n">
         <v>1</v>
       </c>
@@ -11919,8 +13145,14 @@
         <v>0</v>
       </c>
       <c r="I333" t="inlineStr"/>
-      <c r="J333" t="inlineStr"/>
-      <c r="K333" t="inlineStr"/>
+      <c r="J333" t="n">
+        <v>401</v>
+      </c>
+      <c r="K333" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L333" t="n">
         <v>1</v>
       </c>
@@ -11952,8 +13184,14 @@
         <v>0</v>
       </c>
       <c r="I334" t="inlineStr"/>
-      <c r="J334" t="inlineStr"/>
-      <c r="K334" t="inlineStr"/>
+      <c r="J334" t="n">
+        <v>401</v>
+      </c>
+      <c r="K334" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L334" t="n">
         <v>1</v>
       </c>
@@ -11985,8 +13223,14 @@
         <v>0</v>
       </c>
       <c r="I335" t="inlineStr"/>
-      <c r="J335" t="inlineStr"/>
-      <c r="K335" t="inlineStr"/>
+      <c r="J335" t="n">
+        <v>401</v>
+      </c>
+      <c r="K335" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L335" t="n">
         <v>1</v>
       </c>
@@ -12018,8 +13262,14 @@
         <v>0</v>
       </c>
       <c r="I336" t="inlineStr"/>
-      <c r="J336" t="inlineStr"/>
-      <c r="K336" t="inlineStr"/>
+      <c r="J336" t="n">
+        <v>401</v>
+      </c>
+      <c r="K336" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L336" t="n">
         <v>1</v>
       </c>
@@ -12051,8 +13301,14 @@
         <v>0</v>
       </c>
       <c r="I337" t="inlineStr"/>
-      <c r="J337" t="inlineStr"/>
-      <c r="K337" t="inlineStr"/>
+      <c r="J337" t="n">
+        <v>401</v>
+      </c>
+      <c r="K337" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L337" t="n">
         <v>1</v>
       </c>
@@ -12084,8 +13340,14 @@
         <v>0</v>
       </c>
       <c r="I338" t="inlineStr"/>
-      <c r="J338" t="inlineStr"/>
-      <c r="K338" t="inlineStr"/>
+      <c r="J338" t="n">
+        <v>401</v>
+      </c>
+      <c r="K338" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L338" t="n">
         <v>1</v>
       </c>
@@ -12117,8 +13379,14 @@
         <v>0</v>
       </c>
       <c r="I339" t="inlineStr"/>
-      <c r="J339" t="inlineStr"/>
-      <c r="K339" t="inlineStr"/>
+      <c r="J339" t="n">
+        <v>401</v>
+      </c>
+      <c r="K339" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L339" t="n">
         <v>1</v>
       </c>
@@ -12150,8 +13418,14 @@
         <v>0</v>
       </c>
       <c r="I340" t="inlineStr"/>
-      <c r="J340" t="inlineStr"/>
-      <c r="K340" t="inlineStr"/>
+      <c r="J340" t="n">
+        <v>401</v>
+      </c>
+      <c r="K340" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L340" t="n">
         <v>1</v>
       </c>
@@ -12183,8 +13457,14 @@
         <v>0</v>
       </c>
       <c r="I341" t="inlineStr"/>
-      <c r="J341" t="inlineStr"/>
-      <c r="K341" t="inlineStr"/>
+      <c r="J341" t="n">
+        <v>401</v>
+      </c>
+      <c r="K341" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L341" t="n">
         <v>1</v>
       </c>
@@ -12216,8 +13496,14 @@
         <v>0</v>
       </c>
       <c r="I342" t="inlineStr"/>
-      <c r="J342" t="inlineStr"/>
-      <c r="K342" t="inlineStr"/>
+      <c r="J342" t="n">
+        <v>401</v>
+      </c>
+      <c r="K342" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L342" t="n">
         <v>1</v>
       </c>
@@ -12249,8 +13535,14 @@
         <v>0</v>
       </c>
       <c r="I343" t="inlineStr"/>
-      <c r="J343" t="inlineStr"/>
-      <c r="K343" t="inlineStr"/>
+      <c r="J343" t="n">
+        <v>401</v>
+      </c>
+      <c r="K343" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L343" t="n">
         <v>1</v>
       </c>
@@ -12282,8 +13574,14 @@
         <v>0</v>
       </c>
       <c r="I344" t="inlineStr"/>
-      <c r="J344" t="inlineStr"/>
-      <c r="K344" t="inlineStr"/>
+      <c r="J344" t="n">
+        <v>401</v>
+      </c>
+      <c r="K344" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L344" t="n">
         <v>1</v>
       </c>
@@ -12315,8 +13613,14 @@
         <v>0</v>
       </c>
       <c r="I345" t="inlineStr"/>
-      <c r="J345" t="inlineStr"/>
-      <c r="K345" t="inlineStr"/>
+      <c r="J345" t="n">
+        <v>401</v>
+      </c>
+      <c r="K345" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L345" t="n">
         <v>1</v>
       </c>
@@ -12348,8 +13652,14 @@
         <v>0</v>
       </c>
       <c r="I346" t="inlineStr"/>
-      <c r="J346" t="inlineStr"/>
-      <c r="K346" t="inlineStr"/>
+      <c r="J346" t="n">
+        <v>401</v>
+      </c>
+      <c r="K346" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L346" t="n">
         <v>1</v>
       </c>
@@ -12381,8 +13691,14 @@
         <v>0</v>
       </c>
       <c r="I347" t="inlineStr"/>
-      <c r="J347" t="inlineStr"/>
-      <c r="K347" t="inlineStr"/>
+      <c r="J347" t="n">
+        <v>401</v>
+      </c>
+      <c r="K347" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L347" t="n">
         <v>1</v>
       </c>
@@ -12414,8 +13730,14 @@
         <v>0</v>
       </c>
       <c r="I348" t="inlineStr"/>
-      <c r="J348" t="inlineStr"/>
-      <c r="K348" t="inlineStr"/>
+      <c r="J348" t="n">
+        <v>401</v>
+      </c>
+      <c r="K348" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L348" t="n">
         <v>1</v>
       </c>
@@ -12447,8 +13769,14 @@
         <v>0</v>
       </c>
       <c r="I349" t="inlineStr"/>
-      <c r="J349" t="inlineStr"/>
-      <c r="K349" t="inlineStr"/>
+      <c r="J349" t="n">
+        <v>401</v>
+      </c>
+      <c r="K349" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L349" t="n">
         <v>1</v>
       </c>
@@ -12480,8 +13808,14 @@
         <v>0</v>
       </c>
       <c r="I350" t="inlineStr"/>
-      <c r="J350" t="inlineStr"/>
-      <c r="K350" t="inlineStr"/>
+      <c r="J350" t="n">
+        <v>401</v>
+      </c>
+      <c r="K350" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L350" t="n">
         <v>1</v>
       </c>
@@ -12513,8 +13847,14 @@
         <v>0</v>
       </c>
       <c r="I351" t="inlineStr"/>
-      <c r="J351" t="inlineStr"/>
-      <c r="K351" t="inlineStr"/>
+      <c r="J351" t="n">
+        <v>401</v>
+      </c>
+      <c r="K351" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L351" t="n">
         <v>1</v>
       </c>
@@ -12546,8 +13886,14 @@
         <v>0</v>
       </c>
       <c r="I352" t="inlineStr"/>
-      <c r="J352" t="inlineStr"/>
-      <c r="K352" t="inlineStr"/>
+      <c r="J352" t="n">
+        <v>401</v>
+      </c>
+      <c r="K352" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L352" t="n">
         <v>1</v>
       </c>
@@ -12579,8 +13925,14 @@
         <v>0</v>
       </c>
       <c r="I353" t="inlineStr"/>
-      <c r="J353" t="inlineStr"/>
-      <c r="K353" t="inlineStr"/>
+      <c r="J353" t="n">
+        <v>401</v>
+      </c>
+      <c r="K353" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L353" t="n">
         <v>1</v>
       </c>
@@ -12612,8 +13964,14 @@
         <v>0</v>
       </c>
       <c r="I354" t="inlineStr"/>
-      <c r="J354" t="inlineStr"/>
-      <c r="K354" t="inlineStr"/>
+      <c r="J354" t="n">
+        <v>401</v>
+      </c>
+      <c r="K354" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L354" t="n">
         <v>1</v>
       </c>
@@ -12645,8 +14003,14 @@
         <v>0</v>
       </c>
       <c r="I355" t="inlineStr"/>
-      <c r="J355" t="inlineStr"/>
-      <c r="K355" t="inlineStr"/>
+      <c r="J355" t="n">
+        <v>401</v>
+      </c>
+      <c r="K355" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L355" t="n">
         <v>1</v>
       </c>
@@ -12678,8 +14042,14 @@
         <v>0</v>
       </c>
       <c r="I356" t="inlineStr"/>
-      <c r="J356" t="inlineStr"/>
-      <c r="K356" t="inlineStr"/>
+      <c r="J356" t="n">
+        <v>401</v>
+      </c>
+      <c r="K356" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L356" t="n">
         <v>1</v>
       </c>
@@ -12711,8 +14081,14 @@
         <v>0</v>
       </c>
       <c r="I357" t="inlineStr"/>
-      <c r="J357" t="inlineStr"/>
-      <c r="K357" t="inlineStr"/>
+      <c r="J357" t="n">
+        <v>401</v>
+      </c>
+      <c r="K357" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L357" t="n">
         <v>1</v>
       </c>
@@ -12744,8 +14120,14 @@
         <v>0</v>
       </c>
       <c r="I358" t="inlineStr"/>
-      <c r="J358" t="inlineStr"/>
-      <c r="K358" t="inlineStr"/>
+      <c r="J358" t="n">
+        <v>401</v>
+      </c>
+      <c r="K358" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L358" t="n">
         <v>1</v>
       </c>
@@ -12777,8 +14159,14 @@
         <v>0</v>
       </c>
       <c r="I359" t="inlineStr"/>
-      <c r="J359" t="inlineStr"/>
-      <c r="K359" t="inlineStr"/>
+      <c r="J359" t="n">
+        <v>401</v>
+      </c>
+      <c r="K359" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L359" t="n">
         <v>1</v>
       </c>
@@ -12810,8 +14198,14 @@
         <v>0</v>
       </c>
       <c r="I360" t="inlineStr"/>
-      <c r="J360" t="inlineStr"/>
-      <c r="K360" t="inlineStr"/>
+      <c r="J360" t="n">
+        <v>401</v>
+      </c>
+      <c r="K360" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L360" t="n">
         <v>1</v>
       </c>
@@ -12843,8 +14237,14 @@
         <v>0</v>
       </c>
       <c r="I361" t="inlineStr"/>
-      <c r="J361" t="inlineStr"/>
-      <c r="K361" t="inlineStr"/>
+      <c r="J361" t="n">
+        <v>401</v>
+      </c>
+      <c r="K361" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L361" t="n">
         <v>1</v>
       </c>
@@ -12876,8 +14276,14 @@
         <v>0</v>
       </c>
       <c r="I362" t="inlineStr"/>
-      <c r="J362" t="inlineStr"/>
-      <c r="K362" t="inlineStr"/>
+      <c r="J362" t="n">
+        <v>401</v>
+      </c>
+      <c r="K362" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L362" t="n">
         <v>1</v>
       </c>
@@ -12909,8 +14315,14 @@
         <v>0</v>
       </c>
       <c r="I363" t="inlineStr"/>
-      <c r="J363" t="inlineStr"/>
-      <c r="K363" t="inlineStr"/>
+      <c r="J363" t="n">
+        <v>401</v>
+      </c>
+      <c r="K363" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L363" t="n">
         <v>1</v>
       </c>
@@ -12942,8 +14354,14 @@
         <v>0</v>
       </c>
       <c r="I364" t="inlineStr"/>
-      <c r="J364" t="inlineStr"/>
-      <c r="K364" t="inlineStr"/>
+      <c r="J364" t="n">
+        <v>401</v>
+      </c>
+      <c r="K364" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L364" t="n">
         <v>1</v>
       </c>
@@ -12975,8 +14393,14 @@
         <v>0</v>
       </c>
       <c r="I365" t="inlineStr"/>
-      <c r="J365" t="inlineStr"/>
-      <c r="K365" t="inlineStr"/>
+      <c r="J365" t="n">
+        <v>401</v>
+      </c>
+      <c r="K365" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L365" t="n">
         <v>1</v>
       </c>
@@ -13008,8 +14432,14 @@
         <v>0</v>
       </c>
       <c r="I366" t="inlineStr"/>
-      <c r="J366" t="inlineStr"/>
-      <c r="K366" t="inlineStr"/>
+      <c r="J366" t="n">
+        <v>401</v>
+      </c>
+      <c r="K366" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L366" t="n">
         <v>1</v>
       </c>
@@ -13041,8 +14471,14 @@
         <v>0</v>
       </c>
       <c r="I367" t="inlineStr"/>
-      <c r="J367" t="inlineStr"/>
-      <c r="K367" t="inlineStr"/>
+      <c r="J367" t="n">
+        <v>401</v>
+      </c>
+      <c r="K367" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L367" t="n">
         <v>1</v>
       </c>
@@ -13074,8 +14510,14 @@
         <v>0</v>
       </c>
       <c r="I368" t="inlineStr"/>
-      <c r="J368" t="inlineStr"/>
-      <c r="K368" t="inlineStr"/>
+      <c r="J368" t="n">
+        <v>401</v>
+      </c>
+      <c r="K368" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L368" t="n">
         <v>1</v>
       </c>
@@ -13107,8 +14549,14 @@
         <v>0</v>
       </c>
       <c r="I369" t="inlineStr"/>
-      <c r="J369" t="inlineStr"/>
-      <c r="K369" t="inlineStr"/>
+      <c r="J369" t="n">
+        <v>401</v>
+      </c>
+      <c r="K369" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L369" t="n">
         <v>1</v>
       </c>
@@ -13137,11 +14585,17 @@
         <v>218890.4689901919</v>
       </c>
       <c r="H370" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I370" t="inlineStr"/>
-      <c r="J370" t="inlineStr"/>
-      <c r="K370" t="inlineStr"/>
+      <c r="J370" t="n">
+        <v>401</v>
+      </c>
+      <c r="K370" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L370" t="n">
         <v>1</v>
       </c>
@@ -13170,11 +14624,17 @@
         <v>226794.3258241783</v>
       </c>
       <c r="H371" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I371" t="inlineStr"/>
-      <c r="J371" t="inlineStr"/>
-      <c r="K371" t="inlineStr"/>
+      <c r="J371" t="n">
+        <v>401</v>
+      </c>
+      <c r="K371" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L371" t="n">
         <v>1</v>
       </c>
@@ -13206,8 +14666,14 @@
         <v>0</v>
       </c>
       <c r="I372" t="inlineStr"/>
-      <c r="J372" t="inlineStr"/>
-      <c r="K372" t="inlineStr"/>
+      <c r="J372" t="n">
+        <v>401</v>
+      </c>
+      <c r="K372" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L372" t="n">
         <v>1</v>
       </c>
@@ -13239,8 +14705,14 @@
         <v>0</v>
       </c>
       <c r="I373" t="inlineStr"/>
-      <c r="J373" t="inlineStr"/>
-      <c r="K373" t="inlineStr"/>
+      <c r="J373" t="n">
+        <v>401</v>
+      </c>
+      <c r="K373" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L373" t="n">
         <v>1</v>
       </c>
@@ -13272,8 +14744,14 @@
         <v>0</v>
       </c>
       <c r="I374" t="inlineStr"/>
-      <c r="J374" t="inlineStr"/>
-      <c r="K374" t="inlineStr"/>
+      <c r="J374" t="n">
+        <v>401</v>
+      </c>
+      <c r="K374" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L374" t="n">
         <v>1</v>
       </c>
@@ -13305,8 +14783,14 @@
         <v>0</v>
       </c>
       <c r="I375" t="inlineStr"/>
-      <c r="J375" t="inlineStr"/>
-      <c r="K375" t="inlineStr"/>
+      <c r="J375" t="n">
+        <v>401</v>
+      </c>
+      <c r="K375" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L375" t="n">
         <v>1</v>
       </c>
@@ -13338,8 +14822,14 @@
         <v>0</v>
       </c>
       <c r="I376" t="inlineStr"/>
-      <c r="J376" t="inlineStr"/>
-      <c r="K376" t="inlineStr"/>
+      <c r="J376" t="n">
+        <v>401</v>
+      </c>
+      <c r="K376" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L376" t="n">
         <v>1</v>
       </c>
@@ -13371,8 +14861,14 @@
         <v>0</v>
       </c>
       <c r="I377" t="inlineStr"/>
-      <c r="J377" t="inlineStr"/>
-      <c r="K377" t="inlineStr"/>
+      <c r="J377" t="n">
+        <v>401</v>
+      </c>
+      <c r="K377" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L377" t="n">
         <v>1</v>
       </c>
@@ -13404,8 +14900,14 @@
         <v>0</v>
       </c>
       <c r="I378" t="inlineStr"/>
-      <c r="J378" t="inlineStr"/>
-      <c r="K378" t="inlineStr"/>
+      <c r="J378" t="n">
+        <v>401</v>
+      </c>
+      <c r="K378" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L378" t="n">
         <v>1</v>
       </c>
@@ -13437,8 +14939,14 @@
         <v>0</v>
       </c>
       <c r="I379" t="inlineStr"/>
-      <c r="J379" t="inlineStr"/>
-      <c r="K379" t="inlineStr"/>
+      <c r="J379" t="n">
+        <v>401</v>
+      </c>
+      <c r="K379" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L379" t="n">
         <v>1</v>
       </c>
@@ -13470,8 +14978,14 @@
         <v>0</v>
       </c>
       <c r="I380" t="inlineStr"/>
-      <c r="J380" t="inlineStr"/>
-      <c r="K380" t="inlineStr"/>
+      <c r="J380" t="n">
+        <v>401</v>
+      </c>
+      <c r="K380" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L380" t="n">
         <v>1</v>
       </c>
@@ -13503,8 +15017,14 @@
         <v>0</v>
       </c>
       <c r="I381" t="inlineStr"/>
-      <c r="J381" t="inlineStr"/>
-      <c r="K381" t="inlineStr"/>
+      <c r="J381" t="n">
+        <v>401</v>
+      </c>
+      <c r="K381" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L381" t="n">
         <v>1</v>
       </c>
@@ -13536,8 +15056,14 @@
         <v>0</v>
       </c>
       <c r="I382" t="inlineStr"/>
-      <c r="J382" t="inlineStr"/>
-      <c r="K382" t="inlineStr"/>
+      <c r="J382" t="n">
+        <v>401</v>
+      </c>
+      <c r="K382" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L382" t="n">
         <v>1</v>
       </c>
@@ -13569,8 +15095,14 @@
         <v>0</v>
       </c>
       <c r="I383" t="inlineStr"/>
-      <c r="J383" t="inlineStr"/>
-      <c r="K383" t="inlineStr"/>
+      <c r="J383" t="n">
+        <v>401</v>
+      </c>
+      <c r="K383" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L383" t="n">
         <v>1</v>
       </c>
@@ -13602,8 +15134,14 @@
         <v>0</v>
       </c>
       <c r="I384" t="inlineStr"/>
-      <c r="J384" t="inlineStr"/>
-      <c r="K384" t="inlineStr"/>
+      <c r="J384" t="n">
+        <v>401</v>
+      </c>
+      <c r="K384" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L384" t="n">
         <v>1</v>
       </c>
@@ -13635,8 +15173,14 @@
         <v>0</v>
       </c>
       <c r="I385" t="inlineStr"/>
-      <c r="J385" t="inlineStr"/>
-      <c r="K385" t="inlineStr"/>
+      <c r="J385" t="n">
+        <v>401</v>
+      </c>
+      <c r="K385" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L385" t="n">
         <v>1</v>
       </c>
@@ -13668,8 +15212,14 @@
         <v>0</v>
       </c>
       <c r="I386" t="inlineStr"/>
-      <c r="J386" t="inlineStr"/>
-      <c r="K386" t="inlineStr"/>
+      <c r="J386" t="n">
+        <v>401</v>
+      </c>
+      <c r="K386" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L386" t="n">
         <v>1</v>
       </c>
@@ -13701,8 +15251,14 @@
         <v>0</v>
       </c>
       <c r="I387" t="inlineStr"/>
-      <c r="J387" t="inlineStr"/>
-      <c r="K387" t="inlineStr"/>
+      <c r="J387" t="n">
+        <v>401</v>
+      </c>
+      <c r="K387" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L387" t="n">
         <v>1</v>
       </c>
@@ -13734,8 +15290,14 @@
         <v>0</v>
       </c>
       <c r="I388" t="inlineStr"/>
-      <c r="J388" t="inlineStr"/>
-      <c r="K388" t="inlineStr"/>
+      <c r="J388" t="n">
+        <v>401</v>
+      </c>
+      <c r="K388" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L388" t="n">
         <v>1</v>
       </c>
@@ -13767,8 +15329,14 @@
         <v>0</v>
       </c>
       <c r="I389" t="inlineStr"/>
-      <c r="J389" t="inlineStr"/>
-      <c r="K389" t="inlineStr"/>
+      <c r="J389" t="n">
+        <v>401</v>
+      </c>
+      <c r="K389" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L389" t="n">
         <v>1</v>
       </c>
@@ -13800,8 +15368,14 @@
         <v>0</v>
       </c>
       <c r="I390" t="inlineStr"/>
-      <c r="J390" t="inlineStr"/>
-      <c r="K390" t="inlineStr"/>
+      <c r="J390" t="n">
+        <v>401</v>
+      </c>
+      <c r="K390" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L390" t="n">
         <v>1</v>
       </c>
@@ -13830,15 +15404,23 @@
         <v>244396.9204059647</v>
       </c>
       <c r="H391" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I391" t="inlineStr"/>
-      <c r="J391" t="inlineStr"/>
-      <c r="K391" t="inlineStr"/>
+      <c r="J391" t="n">
+        <v>401</v>
+      </c>
+      <c r="K391" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
       <c r="L391" t="n">
-        <v>1</v>
-      </c>
-      <c r="M391" t="inlineStr"/>
+        <v>1.289014962593516</v>
+      </c>
+      <c r="M391" t="n">
+        <v>1.088400613183444</v>
+      </c>
     </row>
     <row r="392">
       <c r="A392" s="1" t="n">
@@ -13863,7 +15445,7 @@
         <v>199342.5493554588</v>
       </c>
       <c r="H392" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I392" t="inlineStr"/>
       <c r="J392" t="inlineStr"/>
@@ -13896,7 +15478,7 @@
         <v>164824.2778280447</v>
       </c>
       <c r="H393" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I393" t="inlineStr"/>
       <c r="J393" t="inlineStr"/>
@@ -13929,7 +15511,7 @@
         <v>184946.1906280447</v>
       </c>
       <c r="H394" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I394" t="inlineStr"/>
       <c r="J394" t="inlineStr"/>
@@ -13962,7 +15544,7 @@
         <v>95976.78174121109</v>
       </c>
       <c r="H395" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I395" t="inlineStr"/>
       <c r="J395" t="inlineStr"/>
@@ -13995,7 +15577,7 @@
         <v>19217.76634121109</v>
       </c>
       <c r="H396" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I396" t="inlineStr"/>
       <c r="J396" t="inlineStr"/>
@@ -14028,7 +15610,7 @@
         <v>70379.26954121108</v>
       </c>
       <c r="H397" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I397" t="inlineStr"/>
       <c r="J397" t="inlineStr"/>
@@ -14127,7 +15709,7 @@
         <v>42047.11655951219</v>
       </c>
       <c r="H400" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I400" t="inlineStr"/>
       <c r="J400" t="inlineStr"/>
@@ -14160,7 +15742,7 @@
         <v>71604.64575951219</v>
       </c>
       <c r="H401" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I401" t="inlineStr"/>
       <c r="J401" t="inlineStr"/>
@@ -14589,7 +16171,7 @@
         <v>82992.01246464394</v>
       </c>
       <c r="H414" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I414" t="inlineStr"/>
       <c r="J414" t="inlineStr"/>
@@ -14622,7 +16204,7 @@
         <v>126461.0390941434</v>
       </c>
       <c r="H415" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I415" t="inlineStr"/>
       <c r="J415" t="inlineStr"/>
@@ -14655,7 +16237,7 @@
         <v>173947.5469300079</v>
       </c>
       <c r="H416" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I416" t="inlineStr"/>
       <c r="J416" t="inlineStr"/>
@@ -14688,7 +16270,7 @@
         <v>141521.7324683796</v>
       </c>
       <c r="H417" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I417" t="inlineStr"/>
       <c r="J417" t="inlineStr"/>
@@ -14721,7 +16303,7 @@
         <v>112250.6808860779</v>
       </c>
       <c r="H418" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I418" t="inlineStr"/>
       <c r="J418" t="inlineStr"/>
